--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="27480" windowHeight="15460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
     <sheet name="Transitions" sheetId="2" r:id="rId2"/>
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1864,10 +1864,10 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2197,37 +2197,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="25" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="31" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="8.83203125" style="2"/>
-    <col min="38" max="38" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="8.85546875" style="2"/>
+    <col min="38" max="38" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -2348,7 +2348,7 @@
         <v>lost-lt50</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16">
+    <row r="2" spans="1:39" ht="16.5">
       <c r="A2" s="23" t="str">
         <f>Compartments!A2</f>
         <v>susreg</v>
@@ -2396,7 +2396,7 @@
       <c r="AL2" s="16"/>
       <c r="AM2" s="19"/>
     </row>
-    <row r="3" spans="1:39" ht="16">
+    <row r="3" spans="1:39" ht="16.5">
       <c r="A3" s="23" t="str">
         <f>Compartments!A3</f>
         <v>progcirc</v>
@@ -2444,7 +2444,7 @@
       <c r="AL3" s="17"/>
       <c r="AM3" s="21"/>
     </row>
-    <row r="4" spans="1:39" ht="16">
+    <row r="4" spans="1:39" ht="16.5">
       <c r="A4" s="7" t="str">
         <f>Compartments!A4</f>
         <v>undx-acute</v>
@@ -2496,7 +2496,7 @@
       <c r="AL4" s="16"/>
       <c r="AM4" s="19"/>
     </row>
-    <row r="5" spans="1:39" ht="16">
+    <row r="5" spans="1:39" ht="16.5">
       <c r="A5" s="7" t="str">
         <f>Compartments!A5</f>
         <v>undx-gt500</v>
@@ -2548,7 +2548,7 @@
       <c r="AL5" s="16"/>
       <c r="AM5" s="19"/>
     </row>
-    <row r="6" spans="1:39" ht="16">
+    <row r="6" spans="1:39" ht="16.5">
       <c r="A6" s="7" t="str">
         <f>Compartments!A6</f>
         <v>undx-gt350</v>
@@ -2600,7 +2600,7 @@
       <c r="AL6" s="16"/>
       <c r="AM6" s="19"/>
     </row>
-    <row r="7" spans="1:39" ht="16">
+    <row r="7" spans="1:39" ht="16.5">
       <c r="A7" s="7" t="str">
         <f>Compartments!A7</f>
         <v>undx-gt200</v>
@@ -2652,7 +2652,7 @@
       <c r="AL7" s="16"/>
       <c r="AM7" s="19"/>
     </row>
-    <row r="8" spans="1:39" ht="16">
+    <row r="8" spans="1:39" ht="16.5">
       <c r="A8" s="7" t="str">
         <f>Compartments!A8</f>
         <v>undx-gt50</v>
@@ -2704,7 +2704,7 @@
       <c r="AL8" s="16"/>
       <c r="AM8" s="19"/>
     </row>
-    <row r="9" spans="1:39" ht="16">
+    <row r="9" spans="1:39" ht="16.5">
       <c r="A9" s="7" t="str">
         <f>Compartments!A9</f>
         <v>undx-lt50</v>
@@ -2752,7 +2752,7 @@
       <c r="AL9" s="17"/>
       <c r="AM9" s="21"/>
     </row>
-    <row r="10" spans="1:39" ht="16">
+    <row r="10" spans="1:39" ht="16.5">
       <c r="A10" s="8" t="str">
         <f>Compartments!A10</f>
         <v>dx-acute</v>
@@ -2804,7 +2804,7 @@
       <c r="AL10" s="16"/>
       <c r="AM10" s="19"/>
     </row>
-    <row r="11" spans="1:39" ht="16">
+    <row r="11" spans="1:39" ht="16.5">
       <c r="A11" s="8" t="str">
         <f>Compartments!A11</f>
         <v>dx-gt500</v>
@@ -2856,7 +2856,7 @@
       <c r="AL11" s="16"/>
       <c r="AM11" s="19"/>
     </row>
-    <row r="12" spans="1:39" ht="16">
+    <row r="12" spans="1:39" ht="16.5">
       <c r="A12" s="8" t="str">
         <f>Compartments!A12</f>
         <v>dx-gt350</v>
@@ -2908,7 +2908,7 @@
       <c r="AL12" s="16"/>
       <c r="AM12" s="19"/>
     </row>
-    <row r="13" spans="1:39" ht="16">
+    <row r="13" spans="1:39" ht="16.5">
       <c r="A13" s="8" t="str">
         <f>Compartments!A13</f>
         <v>dx-gt200</v>
@@ -2960,7 +2960,7 @@
       <c r="AL13" s="16"/>
       <c r="AM13" s="19"/>
     </row>
-    <row r="14" spans="1:39" ht="16">
+    <row r="14" spans="1:39" ht="16.5">
       <c r="A14" s="8" t="str">
         <f>Compartments!A14</f>
         <v>dx-gt50</v>
@@ -3012,7 +3012,7 @@
       <c r="AL14" s="16"/>
       <c r="AM14" s="19"/>
     </row>
-    <row r="15" spans="1:39" ht="16">
+    <row r="15" spans="1:39" ht="16.5">
       <c r="A15" s="8" t="str">
         <f>Compartments!A15</f>
         <v>dx-lt50</v>
@@ -3060,7 +3060,7 @@
       <c r="AL15" s="17"/>
       <c r="AM15" s="21"/>
     </row>
-    <row r="16" spans="1:39" ht="16">
+    <row r="16" spans="1:39" ht="16.5">
       <c r="A16" s="9" t="str">
         <f>Compartments!A16</f>
         <v>care-acute</v>
@@ -3112,7 +3112,7 @@
       <c r="AL16" s="16"/>
       <c r="AM16" s="19"/>
     </row>
-    <row r="17" spans="1:39" ht="16">
+    <row r="17" spans="1:39" ht="16.5">
       <c r="A17" s="9" t="str">
         <f>Compartments!A17</f>
         <v>care-gt500</v>
@@ -3164,7 +3164,7 @@
       <c r="AL17" s="16"/>
       <c r="AM17" s="19"/>
     </row>
-    <row r="18" spans="1:39" ht="16">
+    <row r="18" spans="1:39" ht="16.5">
       <c r="A18" s="9" t="str">
         <f>Compartments!A18</f>
         <v>care-gt350</v>
@@ -3216,7 +3216,7 @@
       <c r="AL18" s="16"/>
       <c r="AM18" s="19"/>
     </row>
-    <row r="19" spans="1:39" ht="16">
+    <row r="19" spans="1:39" ht="16.5">
       <c r="A19" s="9" t="str">
         <f>Compartments!A19</f>
         <v>care-gt200</v>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AM19" s="19"/>
     </row>
-    <row r="20" spans="1:39" ht="16">
+    <row r="20" spans="1:39" ht="16.5">
       <c r="A20" s="9" t="str">
         <f>Compartments!A20</f>
         <v>care-gt50</v>
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="16">
+    <row r="21" spans="1:39" ht="16.5">
       <c r="A21" s="9" t="str">
         <f>Compartments!A21</f>
         <v>care-lt50</v>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="16">
+    <row r="22" spans="1:39" ht="16.5">
       <c r="A22" s="10" t="str">
         <f>Compartments!A22</f>
         <v>usvl-acute</v>
@@ -3424,7 +3424,7 @@
       <c r="AL22" s="16"/>
       <c r="AM22" s="19"/>
     </row>
-    <row r="23" spans="1:39" ht="16">
+    <row r="23" spans="1:39" ht="16.5">
       <c r="A23" s="10" t="str">
         <f>Compartments!A23</f>
         <v>usvl-gt500</v>
@@ -3480,7 +3480,7 @@
       <c r="AL23" s="16"/>
       <c r="AM23" s="19"/>
     </row>
-    <row r="24" spans="1:39" ht="16">
+    <row r="24" spans="1:39" ht="16.5">
       <c r="A24" s="10" t="str">
         <f>Compartments!A24</f>
         <v>usvl-gt350</v>
@@ -3542,7 +3542,7 @@
       <c r="AL24" s="16"/>
       <c r="AM24" s="19"/>
     </row>
-    <row r="25" spans="1:39" ht="16">
+    <row r="25" spans="1:39" ht="16.5">
       <c r="A25" s="10" t="str">
         <f>Compartments!A25</f>
         <v>usvl-gt200</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="AM25" s="19"/>
     </row>
-    <row r="26" spans="1:39" ht="16">
+    <row r="26" spans="1:39" ht="16.5">
       <c r="A26" s="10" t="str">
         <f>Compartments!A26</f>
         <v>usvl-gt50</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="16">
+    <row r="27" spans="1:39" ht="16.5">
       <c r="A27" s="10" t="str">
         <f>Compartments!A27</f>
         <v>usvl-lt50</v>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="16">
+    <row r="28" spans="1:39" ht="16.5">
       <c r="A28" s="4" t="str">
         <f>Compartments!A28</f>
         <v>svl-acute</v>
@@ -3778,7 +3778,7 @@
       <c r="AL28" s="16"/>
       <c r="AM28" s="19"/>
     </row>
-    <row r="29" spans="1:39" ht="16">
+    <row r="29" spans="1:39" ht="16.5">
       <c r="A29" s="4" t="str">
         <f>Compartments!A29</f>
         <v>svl-gt500</v>
@@ -3828,7 +3828,7 @@
       <c r="AL29" s="16"/>
       <c r="AM29" s="19"/>
     </row>
-    <row r="30" spans="1:39" ht="16">
+    <row r="30" spans="1:39" ht="16.5">
       <c r="A30" s="4" t="str">
         <f>Compartments!A30</f>
         <v>svl-gt350</v>
@@ -3884,7 +3884,7 @@
       <c r="AL30" s="16"/>
       <c r="AM30" s="19"/>
     </row>
-    <row r="31" spans="1:39" ht="16">
+    <row r="31" spans="1:39" ht="16.5">
       <c r="A31" s="4" t="str">
         <f>Compartments!A31</f>
         <v>svl-gt200</v>
@@ -3940,7 +3940,7 @@
       <c r="AL31" s="16"/>
       <c r="AM31" s="19"/>
     </row>
-    <row r="32" spans="1:39" ht="16">
+    <row r="32" spans="1:39" ht="16.5">
       <c r="A32" s="4" t="str">
         <f>Compartments!A32</f>
         <v>svl-gt50</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="AM32" s="19"/>
     </row>
-    <row r="33" spans="1:39" ht="16">
+    <row r="33" spans="1:39" ht="16.5">
       <c r="A33" s="4" t="str">
         <f>Compartments!A33</f>
         <v>svl-lt50</v>
@@ -4052,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="16">
+    <row r="34" spans="1:39" ht="16.5">
       <c r="A34" s="5" t="str">
         <f>Compartments!A34</f>
         <v>lost-acute</v>
@@ -4104,7 +4104,7 @@
       <c r="AL34" s="16"/>
       <c r="AM34" s="19"/>
     </row>
-    <row r="35" spans="1:39" ht="16">
+    <row r="35" spans="1:39" ht="16.5">
       <c r="A35" s="5" t="str">
         <f>Compartments!A35</f>
         <v>lost-gt500</v>
@@ -4156,7 +4156,7 @@
       <c r="AL35" s="16"/>
       <c r="AM35" s="19"/>
     </row>
-    <row r="36" spans="1:39" ht="16">
+    <row r="36" spans="1:39" ht="16.5">
       <c r="A36" s="5" t="str">
         <f>Compartments!A36</f>
         <v>lost-gt350</v>
@@ -4208,7 +4208,7 @@
       <c r="AL36" s="16"/>
       <c r="AM36" s="19"/>
     </row>
-    <row r="37" spans="1:39" ht="16">
+    <row r="37" spans="1:39" ht="16.5">
       <c r="A37" s="5" t="str">
         <f>Compartments!A37</f>
         <v>lost-gt200</v>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="AM37" s="19"/>
     </row>
-    <row r="38" spans="1:39" ht="16">
+    <row r="38" spans="1:39" ht="16.5">
       <c r="A38" s="5" t="str">
         <f>Compartments!A38</f>
         <v>lost-gt50</v>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="16">
+    <row r="39" spans="1:39" ht="16.5">
       <c r="A39" s="5" t="str">
         <f>Compartments!A39</f>
         <v>lost-lt50</v>
@@ -4380,26 +4380,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="26"/>
+    <col min="1" max="1" width="55.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1">

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="27480" windowHeight="15460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
     <sheet name="Transitions" sheetId="2" r:id="rId2"/>
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -632,9 +632,6 @@
     <t>Viral load monitoring (number/year)</t>
   </si>
   <si>
-    <t>freqvlmon</t>
-  </si>
-  <si>
     <t>Loss to follow-up rate (per year)</t>
   </si>
   <si>
@@ -1170,13 +1167,16 @@
   </si>
   <si>
     <t>partinj</t>
+  </si>
+  <si>
+    <t>numvlmon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,7 +1394,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1402,6 +1402,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1503,7 +1505,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
     <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
     <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
@@ -1527,6 +1529,7 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
@@ -1547,6 +1550,7 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1864,10 +1868,10 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2201,33 +2205,33 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="25" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="31" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="8.85546875" style="2"/>
-    <col min="38" max="38" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="8.83203125" style="2"/>
+    <col min="38" max="38" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -2348,7 +2352,7 @@
         <v>lost-lt50</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.5">
+    <row r="2" spans="1:39" ht="16">
       <c r="A2" s="23" t="str">
         <f>Compartments!A2</f>
         <v>susreg</v>
@@ -2396,7 +2400,7 @@
       <c r="AL2" s="16"/>
       <c r="AM2" s="19"/>
     </row>
-    <row r="3" spans="1:39" ht="16.5">
+    <row r="3" spans="1:39" ht="16">
       <c r="A3" s="23" t="str">
         <f>Compartments!A3</f>
         <v>progcirc</v>
@@ -2444,7 +2448,7 @@
       <c r="AL3" s="17"/>
       <c r="AM3" s="21"/>
     </row>
-    <row r="4" spans="1:39" ht="16.5">
+    <row r="4" spans="1:39" ht="16">
       <c r="A4" s="7" t="str">
         <f>Compartments!A4</f>
         <v>undx-acute</v>
@@ -2496,7 +2500,7 @@
       <c r="AL4" s="16"/>
       <c r="AM4" s="19"/>
     </row>
-    <row r="5" spans="1:39" ht="16.5">
+    <row r="5" spans="1:39" ht="16">
       <c r="A5" s="7" t="str">
         <f>Compartments!A5</f>
         <v>undx-gt500</v>
@@ -2548,7 +2552,7 @@
       <c r="AL5" s="16"/>
       <c r="AM5" s="19"/>
     </row>
-    <row r="6" spans="1:39" ht="16.5">
+    <row r="6" spans="1:39" ht="16">
       <c r="A6" s="7" t="str">
         <f>Compartments!A6</f>
         <v>undx-gt350</v>
@@ -2600,7 +2604,7 @@
       <c r="AL6" s="16"/>
       <c r="AM6" s="19"/>
     </row>
-    <row r="7" spans="1:39" ht="16.5">
+    <row r="7" spans="1:39" ht="16">
       <c r="A7" s="7" t="str">
         <f>Compartments!A7</f>
         <v>undx-gt200</v>
@@ -2652,7 +2656,7 @@
       <c r="AL7" s="16"/>
       <c r="AM7" s="19"/>
     </row>
-    <row r="8" spans="1:39" ht="16.5">
+    <row r="8" spans="1:39" ht="16">
       <c r="A8" s="7" t="str">
         <f>Compartments!A8</f>
         <v>undx-gt50</v>
@@ -2704,7 +2708,7 @@
       <c r="AL8" s="16"/>
       <c r="AM8" s="19"/>
     </row>
-    <row r="9" spans="1:39" ht="16.5">
+    <row r="9" spans="1:39" ht="16">
       <c r="A9" s="7" t="str">
         <f>Compartments!A9</f>
         <v>undx-lt50</v>
@@ -2752,7 +2756,7 @@
       <c r="AL9" s="17"/>
       <c r="AM9" s="21"/>
     </row>
-    <row r="10" spans="1:39" ht="16.5">
+    <row r="10" spans="1:39" ht="16">
       <c r="A10" s="8" t="str">
         <f>Compartments!A10</f>
         <v>dx-acute</v>
@@ -2804,7 +2808,7 @@
       <c r="AL10" s="16"/>
       <c r="AM10" s="19"/>
     </row>
-    <row r="11" spans="1:39" ht="16.5">
+    <row r="11" spans="1:39" ht="16">
       <c r="A11" s="8" t="str">
         <f>Compartments!A11</f>
         <v>dx-gt500</v>
@@ -2856,7 +2860,7 @@
       <c r="AL11" s="16"/>
       <c r="AM11" s="19"/>
     </row>
-    <row r="12" spans="1:39" ht="16.5">
+    <row r="12" spans="1:39" ht="16">
       <c r="A12" s="8" t="str">
         <f>Compartments!A12</f>
         <v>dx-gt350</v>
@@ -2908,7 +2912,7 @@
       <c r="AL12" s="16"/>
       <c r="AM12" s="19"/>
     </row>
-    <row r="13" spans="1:39" ht="16.5">
+    <row r="13" spans="1:39" ht="16">
       <c r="A13" s="8" t="str">
         <f>Compartments!A13</f>
         <v>dx-gt200</v>
@@ -2960,7 +2964,7 @@
       <c r="AL13" s="16"/>
       <c r="AM13" s="19"/>
     </row>
-    <row r="14" spans="1:39" ht="16.5">
+    <row r="14" spans="1:39" ht="16">
       <c r="A14" s="8" t="str">
         <f>Compartments!A14</f>
         <v>dx-gt50</v>
@@ -3012,7 +3016,7 @@
       <c r="AL14" s="16"/>
       <c r="AM14" s="19"/>
     </row>
-    <row r="15" spans="1:39" ht="16.5">
+    <row r="15" spans="1:39" ht="16">
       <c r="A15" s="8" t="str">
         <f>Compartments!A15</f>
         <v>dx-lt50</v>
@@ -3060,7 +3064,7 @@
       <c r="AL15" s="17"/>
       <c r="AM15" s="21"/>
     </row>
-    <row r="16" spans="1:39" ht="16.5">
+    <row r="16" spans="1:39" ht="16">
       <c r="A16" s="9" t="str">
         <f>Compartments!A16</f>
         <v>care-acute</v>
@@ -3112,7 +3116,7 @@
       <c r="AL16" s="16"/>
       <c r="AM16" s="19"/>
     </row>
-    <row r="17" spans="1:39" ht="16.5">
+    <row r="17" spans="1:39" ht="16">
       <c r="A17" s="9" t="str">
         <f>Compartments!A17</f>
         <v>care-gt500</v>
@@ -3164,7 +3168,7 @@
       <c r="AL17" s="16"/>
       <c r="AM17" s="19"/>
     </row>
-    <row r="18" spans="1:39" ht="16.5">
+    <row r="18" spans="1:39" ht="16">
       <c r="A18" s="9" t="str">
         <f>Compartments!A18</f>
         <v>care-gt350</v>
@@ -3216,7 +3220,7 @@
       <c r="AL18" s="16"/>
       <c r="AM18" s="19"/>
     </row>
-    <row r="19" spans="1:39" ht="16.5">
+    <row r="19" spans="1:39" ht="16">
       <c r="A19" s="9" t="str">
         <f>Compartments!A19</f>
         <v>care-gt200</v>
@@ -3268,7 +3272,7 @@
       </c>
       <c r="AM19" s="19"/>
     </row>
-    <row r="20" spans="1:39" ht="16.5">
+    <row r="20" spans="1:39" ht="16">
       <c r="A20" s="9" t="str">
         <f>Compartments!A20</f>
         <v>care-gt50</v>
@@ -3320,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="16.5">
+    <row r="21" spans="1:39" ht="16">
       <c r="A21" s="9" t="str">
         <f>Compartments!A21</f>
         <v>care-lt50</v>
@@ -3368,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="16.5">
+    <row r="22" spans="1:39" ht="16">
       <c r="A22" s="10" t="str">
         <f>Compartments!A22</f>
         <v>usvl-acute</v>
@@ -3424,7 +3428,7 @@
       <c r="AL22" s="16"/>
       <c r="AM22" s="19"/>
     </row>
-    <row r="23" spans="1:39" ht="16.5">
+    <row r="23" spans="1:39" ht="16">
       <c r="A23" s="10" t="str">
         <f>Compartments!A23</f>
         <v>usvl-gt500</v>
@@ -3480,7 +3484,7 @@
       <c r="AL23" s="16"/>
       <c r="AM23" s="19"/>
     </row>
-    <row r="24" spans="1:39" ht="16.5">
+    <row r="24" spans="1:39" ht="16">
       <c r="A24" s="10" t="str">
         <f>Compartments!A24</f>
         <v>usvl-gt350</v>
@@ -3542,7 +3546,7 @@
       <c r="AL24" s="16"/>
       <c r="AM24" s="19"/>
     </row>
-    <row r="25" spans="1:39" ht="16.5">
+    <row r="25" spans="1:39" ht="16">
       <c r="A25" s="10" t="str">
         <f>Compartments!A25</f>
         <v>usvl-gt200</v>
@@ -3604,7 +3608,7 @@
       </c>
       <c r="AM25" s="19"/>
     </row>
-    <row r="26" spans="1:39" ht="16.5">
+    <row r="26" spans="1:39" ht="16">
       <c r="A26" s="10" t="str">
         <f>Compartments!A26</f>
         <v>usvl-gt50</v>
@@ -3666,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="16.5">
+    <row r="27" spans="1:39" ht="16">
       <c r="A27" s="10" t="str">
         <f>Compartments!A27</f>
         <v>usvl-lt50</v>
@@ -3722,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="16.5">
+    <row r="28" spans="1:39" ht="16">
       <c r="A28" s="4" t="str">
         <f>Compartments!A28</f>
         <v>svl-acute</v>
@@ -3778,7 +3782,7 @@
       <c r="AL28" s="16"/>
       <c r="AM28" s="19"/>
     </row>
-    <row r="29" spans="1:39" ht="16.5">
+    <row r="29" spans="1:39" ht="16">
       <c r="A29" s="4" t="str">
         <f>Compartments!A29</f>
         <v>svl-gt500</v>
@@ -3828,7 +3832,7 @@
       <c r="AL29" s="16"/>
       <c r="AM29" s="19"/>
     </row>
-    <row r="30" spans="1:39" ht="16.5">
+    <row r="30" spans="1:39" ht="16">
       <c r="A30" s="4" t="str">
         <f>Compartments!A30</f>
         <v>svl-gt350</v>
@@ -3884,7 +3888,7 @@
       <c r="AL30" s="16"/>
       <c r="AM30" s="19"/>
     </row>
-    <row r="31" spans="1:39" ht="16.5">
+    <row r="31" spans="1:39" ht="16">
       <c r="A31" s="4" t="str">
         <f>Compartments!A31</f>
         <v>svl-gt200</v>
@@ -3940,7 +3944,7 @@
       <c r="AL31" s="16"/>
       <c r="AM31" s="19"/>
     </row>
-    <row r="32" spans="1:39" ht="16.5">
+    <row r="32" spans="1:39" ht="16">
       <c r="A32" s="4" t="str">
         <f>Compartments!A32</f>
         <v>svl-gt50</v>
@@ -3996,7 +4000,7 @@
       </c>
       <c r="AM32" s="19"/>
     </row>
-    <row r="33" spans="1:39" ht="16.5">
+    <row r="33" spans="1:39" ht="16">
       <c r="A33" s="4" t="str">
         <f>Compartments!A33</f>
         <v>svl-lt50</v>
@@ -4052,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="16.5">
+    <row r="34" spans="1:39" ht="16">
       <c r="A34" s="5" t="str">
         <f>Compartments!A34</f>
         <v>lost-acute</v>
@@ -4104,7 +4108,7 @@
       <c r="AL34" s="16"/>
       <c r="AM34" s="19"/>
     </row>
-    <row r="35" spans="1:39" ht="16.5">
+    <row r="35" spans="1:39" ht="16">
       <c r="A35" s="5" t="str">
         <f>Compartments!A35</f>
         <v>lost-gt500</v>
@@ -4156,7 +4160,7 @@
       <c r="AL35" s="16"/>
       <c r="AM35" s="19"/>
     </row>
-    <row r="36" spans="1:39" ht="16.5">
+    <row r="36" spans="1:39" ht="16">
       <c r="A36" s="5" t="str">
         <f>Compartments!A36</f>
         <v>lost-gt350</v>
@@ -4208,7 +4212,7 @@
       <c r="AL36" s="16"/>
       <c r="AM36" s="19"/>
     </row>
-    <row r="37" spans="1:39" ht="16.5">
+    <row r="37" spans="1:39" ht="16">
       <c r="A37" s="5" t="str">
         <f>Compartments!A37</f>
         <v>lost-gt200</v>
@@ -4260,7 +4264,7 @@
       </c>
       <c r="AM37" s="19"/>
     </row>
-    <row r="38" spans="1:39" ht="16.5">
+    <row r="38" spans="1:39" ht="16">
       <c r="A38" s="5" t="str">
         <f>Compartments!A38</f>
         <v>lost-gt50</v>
@@ -4312,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="16.5">
+    <row r="39" spans="1:39" ht="16">
       <c r="A39" s="5" t="str">
         <f>Compartments!A39</f>
         <v>lost-lt50</v>
@@ -4381,25 +4385,25 @@
   <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="26"/>
+    <col min="1" max="1" width="55.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1">
@@ -5681,13 +5685,13 @@
         <v>202</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>203</v>
+        <v>382</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>203</v>
+        <v>382</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>131</v>
@@ -5705,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="L32" s="26">
         <v>1</v>
@@ -5716,16 +5720,16 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="C33" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>206</v>
-      </c>
       <c r="D33" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>109</v>
@@ -5757,16 +5761,16 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="C34" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>209</v>
-      </c>
       <c r="D34" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>109</v>
@@ -5798,16 +5802,16 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>211</v>
-      </c>
       <c r="D35" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>94</v>
@@ -5839,16 +5843,16 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="D36" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>94</v>
@@ -5880,16 +5884,16 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>215</v>
-      </c>
       <c r="D37" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>94</v>
@@ -5921,16 +5925,16 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>217</v>
-      </c>
       <c r="D38" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>94</v>
@@ -5962,16 +5966,16 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>219</v>
-      </c>
       <c r="D39" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>94</v>
@@ -6003,25 +6007,25 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="26" t="s">
+      <c r="D40" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>131</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>111</v>
@@ -6039,30 +6043,30 @@
         <v>0</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>226</v>
-      </c>
       <c r="D41" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>131</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>111</v>
@@ -6080,30 +6084,30 @@
         <v>0</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>228</v>
-      </c>
       <c r="D42" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>131</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>111</v>
@@ -6121,30 +6125,30 @@
         <v>0</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>230</v>
-      </c>
       <c r="D43" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>131</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H43" s="26" t="s">
         <v>111</v>
@@ -6162,30 +6166,30 @@
         <v>0</v>
       </c>
       <c r="M43" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>232</v>
-      </c>
       <c r="D44" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>131</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>111</v>
@@ -6203,21 +6207,21 @@
         <v>0</v>
       </c>
       <c r="M44" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="D45" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>98</v>
@@ -6249,16 +6253,16 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B46" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C46" s="26" t="s">
-        <v>237</v>
-      </c>
       <c r="D46" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>94</v>
@@ -6267,10 +6271,10 @@
         <v>131</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I46" s="26" t="s">
         <v>92</v>
@@ -6285,21 +6289,21 @@
         <v>1</v>
       </c>
       <c r="M46" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>240</v>
-      </c>
       <c r="D47" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>94</v>
@@ -6308,10 +6312,10 @@
         <v>131</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I47" s="26" t="s">
         <v>92</v>
@@ -6326,21 +6330,21 @@
         <v>1</v>
       </c>
       <c r="M47" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>242</v>
-      </c>
       <c r="D48" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>94</v>
@@ -6349,10 +6353,10 @@
         <v>131</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I48" s="26" t="s">
         <v>92</v>
@@ -6367,21 +6371,21 @@
         <v>1</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>244</v>
-      </c>
       <c r="D49" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>94</v>
@@ -6390,10 +6394,10 @@
         <v>131</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I49" s="26" t="s">
         <v>92</v>
@@ -6408,21 +6412,21 @@
         <v>1</v>
       </c>
       <c r="M49" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>246</v>
-      </c>
       <c r="D50" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>94</v>
@@ -6431,10 +6435,10 @@
         <v>131</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I50" s="26" t="s">
         <v>92</v>
@@ -6449,21 +6453,21 @@
         <v>1</v>
       </c>
       <c r="M50" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>248</v>
-      </c>
       <c r="D51" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E51" s="26" t="s">
         <v>94</v>
@@ -6472,10 +6476,10 @@
         <v>131</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I51" s="26" t="s">
         <v>92</v>
@@ -6490,21 +6494,21 @@
         <v>1</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>250</v>
-      </c>
       <c r="D52" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E52" s="26" t="s">
         <v>94</v>
@@ -6513,10 +6517,10 @@
         <v>131</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I52" s="26" t="s">
         <v>92</v>
@@ -6531,21 +6535,21 @@
         <v>1</v>
       </c>
       <c r="M52" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>252</v>
-      </c>
       <c r="D53" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>102</v>
@@ -6554,10 +6558,10 @@
         <v>131</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I53" s="26" t="s">
         <v>92</v>
@@ -6572,21 +6576,21 @@
         <v>1</v>
       </c>
       <c r="M53" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="B54" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>254</v>
-      </c>
       <c r="D54" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>102</v>
@@ -6595,10 +6599,10 @@
         <v>131</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I54" s="26" t="s">
         <v>92</v>
@@ -6613,21 +6617,21 @@
         <v>1</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>256</v>
-      </c>
       <c r="D55" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>102</v>
@@ -6636,10 +6640,10 @@
         <v>131</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I55" s="26" t="s">
         <v>92</v>
@@ -6654,21 +6658,21 @@
         <v>1</v>
       </c>
       <c r="M55" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>258</v>
-      </c>
       <c r="D56" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E56" s="26" t="s">
         <v>102</v>
@@ -6677,10 +6681,10 @@
         <v>131</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I56" s="26" t="s">
         <v>92</v>
@@ -6695,21 +6699,21 @@
         <v>1</v>
       </c>
       <c r="M56" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>260</v>
-      </c>
       <c r="D57" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>102</v>
@@ -6718,10 +6722,10 @@
         <v>131</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I57" s="26" t="s">
         <v>92</v>
@@ -6736,21 +6740,21 @@
         <v>1</v>
       </c>
       <c r="M57" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="B58" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>262</v>
-      </c>
       <c r="D58" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>102</v>
@@ -6759,10 +6763,10 @@
         <v>131</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I58" s="26" t="s">
         <v>92</v>
@@ -6777,21 +6781,21 @@
         <v>1</v>
       </c>
       <c r="M58" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>264</v>
-      </c>
       <c r="D59" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>102</v>
@@ -6800,10 +6804,10 @@
         <v>131</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I59" s="26" t="s">
         <v>92</v>
@@ -6818,21 +6822,21 @@
         <v>1</v>
       </c>
       <c r="M59" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>198</v>
@@ -6841,10 +6845,10 @@
         <v>131</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I60" s="26" t="s">
         <v>92</v>
@@ -6859,21 +6863,21 @@
         <v>1</v>
       </c>
       <c r="M60" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="B61" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>268</v>
-      </c>
       <c r="D61" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E61" s="26" t="s">
         <v>198</v>
@@ -6882,10 +6886,10 @@
         <v>131</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I61" s="26" t="s">
         <v>92</v>
@@ -6900,21 +6904,21 @@
         <v>1</v>
       </c>
       <c r="M61" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>270</v>
-      </c>
       <c r="D62" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E62" s="26" t="s">
         <v>198</v>
@@ -6923,10 +6927,10 @@
         <v>131</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I62" s="26" t="s">
         <v>92</v>
@@ -6941,21 +6945,21 @@
         <v>1</v>
       </c>
       <c r="M62" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>272</v>
-      </c>
       <c r="D63" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>198</v>
@@ -6964,10 +6968,10 @@
         <v>131</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I63" s="26" t="s">
         <v>92</v>
@@ -6982,21 +6986,21 @@
         <v>1</v>
       </c>
       <c r="M63" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>274</v>
-      </c>
       <c r="D64" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>198</v>
@@ -7005,10 +7009,10 @@
         <v>131</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I64" s="26" t="s">
         <v>92</v>
@@ -7023,21 +7027,21 @@
         <v>1</v>
       </c>
       <c r="M64" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="B65" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>276</v>
-      </c>
       <c r="D65" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E65" s="26" t="s">
         <v>198</v>
@@ -7046,10 +7050,10 @@
         <v>131</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I65" s="26" t="s">
         <v>92</v>
@@ -7064,21 +7068,21 @@
         <v>1</v>
       </c>
       <c r="M65" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="B66" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>278</v>
-      </c>
       <c r="D66" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E66" s="26" t="s">
         <v>198</v>
@@ -7087,10 +7091,10 @@
         <v>131</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I66" s="26" t="s">
         <v>92</v>
@@ -7105,21 +7109,21 @@
         <v>1</v>
       </c>
       <c r="M66" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="B67" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>280</v>
-      </c>
       <c r="D67" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E67" s="26" t="s">
         <v>198</v>
@@ -7128,10 +7132,10 @@
         <v>131</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I67" s="26" t="s">
         <v>92</v>
@@ -7146,21 +7150,21 @@
         <v>1</v>
       </c>
       <c r="M67" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B68" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>282</v>
-      </c>
       <c r="D68" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>198</v>
@@ -7169,10 +7173,10 @@
         <v>131</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I68" s="26" t="s">
         <v>92</v>
@@ -7187,21 +7191,21 @@
         <v>1</v>
       </c>
       <c r="M68" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="B69" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>284</v>
-      </c>
       <c r="D69" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>198</v>
@@ -7210,10 +7214,10 @@
         <v>131</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I69" s="26" t="s">
         <v>92</v>
@@ -7228,21 +7232,21 @@
         <v>1</v>
       </c>
       <c r="M69" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>286</v>
-      </c>
       <c r="D70" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>109</v>
@@ -7251,10 +7255,10 @@
         <v>131</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I70" s="26" t="s">
         <v>92</v>
@@ -7269,21 +7273,21 @@
         <v>1</v>
       </c>
       <c r="M70" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="B71" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>288</v>
-      </c>
       <c r="D71" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>109</v>
@@ -7292,10 +7296,10 @@
         <v>131</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I71" s="26" t="s">
         <v>92</v>
@@ -7310,21 +7314,21 @@
         <v>1</v>
       </c>
       <c r="M71" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>290</v>
-      </c>
       <c r="D72" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>109</v>
@@ -7333,10 +7337,10 @@
         <v>131</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I72" s="26" t="s">
         <v>92</v>
@@ -7351,21 +7355,21 @@
         <v>1</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="B73" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>292</v>
-      </c>
       <c r="D73" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>109</v>
@@ -7374,10 +7378,10 @@
         <v>131</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I73" s="26" t="s">
         <v>92</v>
@@ -7392,21 +7396,21 @@
         <v>1</v>
       </c>
       <c r="M73" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B74" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>294</v>
-      </c>
       <c r="D74" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>109</v>
@@ -7415,10 +7419,10 @@
         <v>131</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I74" s="26" t="s">
         <v>92</v>
@@ -7433,21 +7437,21 @@
         <v>1</v>
       </c>
       <c r="M74" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="B75" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>296</v>
-      </c>
       <c r="D75" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>109</v>
@@ -7456,10 +7460,10 @@
         <v>131</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I75" s="26" t="s">
         <v>92</v>
@@ -7474,21 +7478,21 @@
         <v>1</v>
       </c>
       <c r="M75" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="B76" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>298</v>
-      </c>
       <c r="D76" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>109</v>
@@ -7497,10 +7501,10 @@
         <v>131</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I76" s="26" t="s">
         <v>92</v>
@@ -7515,21 +7519,21 @@
         <v>1</v>
       </c>
       <c r="M76" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="B77" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>300</v>
-      </c>
       <c r="D77" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E77" s="26" t="s">
         <v>109</v>
@@ -7538,10 +7542,10 @@
         <v>131</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I77" s="26" t="s">
         <v>92</v>
@@ -7556,21 +7560,21 @@
         <v>1</v>
       </c>
       <c r="M77" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>302</v>
-      </c>
       <c r="D78" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>109</v>
@@ -7579,10 +7583,10 @@
         <v>131</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I78" s="26" t="s">
         <v>92</v>
@@ -7597,21 +7601,21 @@
         <v>1</v>
       </c>
       <c r="M78" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="B79" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>304</v>
-      </c>
       <c r="D79" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E79" s="26" t="s">
         <v>109</v>
@@ -7620,10 +7624,10 @@
         <v>131</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I79" s="26" t="s">
         <v>92</v>
@@ -7638,21 +7642,21 @@
         <v>1</v>
       </c>
       <c r="M79" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="B80" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>306</v>
-      </c>
       <c r="D80" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>109</v>
@@ -7661,10 +7665,10 @@
         <v>131</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I80" s="26" t="s">
         <v>92</v>
@@ -7679,21 +7683,21 @@
         <v>1</v>
       </c>
       <c r="M80" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="B81" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>308</v>
-      </c>
       <c r="D81" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E81" s="26" t="s">
         <v>109</v>
@@ -7702,10 +7706,10 @@
         <v>131</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I81" s="26" t="s">
         <v>92</v>
@@ -7720,21 +7724,21 @@
         <v>1</v>
       </c>
       <c r="M81" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B82" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>310</v>
-      </c>
       <c r="D82" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>109</v>
@@ -7743,10 +7747,10 @@
         <v>131</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I82" s="26" t="s">
         <v>92</v>
@@ -7761,21 +7765,21 @@
         <v>1</v>
       </c>
       <c r="M82" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="B83" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>312</v>
-      </c>
       <c r="D83" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E83" s="26" t="s">
         <v>109</v>
@@ -7784,10 +7788,10 @@
         <v>131</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I83" s="26" t="s">
         <v>92</v>
@@ -7802,21 +7806,21 @@
         <v>1</v>
       </c>
       <c r="M83" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="B84" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>314</v>
-      </c>
       <c r="D84" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>109</v>
@@ -7825,10 +7829,10 @@
         <v>131</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I84" s="26" t="s">
         <v>92</v>
@@ -7843,21 +7847,21 @@
         <v>1</v>
       </c>
       <c r="M84" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="B85" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>316</v>
-      </c>
       <c r="D85" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>102</v>
@@ -7866,10 +7870,10 @@
         <v>131</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I85" s="26" t="s">
         <v>92</v>
@@ -7884,21 +7888,21 @@
         <v>1</v>
       </c>
       <c r="M85" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="B86" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>318</v>
-      </c>
       <c r="D86" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>102</v>
@@ -7907,10 +7911,10 @@
         <v>131</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I86" s="26" t="s">
         <v>92</v>
@@ -7925,21 +7929,21 @@
         <v>1</v>
       </c>
       <c r="M86" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="B87" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>320</v>
-      </c>
       <c r="D87" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E87" s="26" t="s">
         <v>102</v>
@@ -7948,10 +7952,10 @@
         <v>131</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I87" s="26" t="s">
         <v>92</v>
@@ -7966,21 +7970,21 @@
         <v>1</v>
       </c>
       <c r="M87" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="B88" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>322</v>
-      </c>
       <c r="D88" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E88" s="26" t="s">
         <v>94</v>
@@ -7989,10 +7993,10 @@
         <v>131</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I88" s="26" t="s">
         <v>92</v>
@@ -8007,21 +8011,21 @@
         <v>1</v>
       </c>
       <c r="M88" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="B89" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>324</v>
-      </c>
       <c r="D89" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>94</v>
@@ -8030,10 +8034,10 @@
         <v>131</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I89" s="26" t="s">
         <v>92</v>
@@ -8048,21 +8052,21 @@
         <v>1</v>
       </c>
       <c r="M89" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="B90" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>326</v>
-      </c>
       <c r="D90" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>94</v>
@@ -8071,10 +8075,10 @@
         <v>131</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I90" s="26" t="s">
         <v>92</v>
@@ -8089,21 +8093,21 @@
         <v>1</v>
       </c>
       <c r="M90" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="B91" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>328</v>
-      </c>
       <c r="D91" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>94</v>
@@ -8112,10 +8116,10 @@
         <v>131</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I91" s="26" t="s">
         <v>92</v>
@@ -8130,21 +8134,21 @@
         <v>1</v>
       </c>
       <c r="M91" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="B92" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>330</v>
-      </c>
       <c r="D92" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>94</v>
@@ -8153,10 +8157,10 @@
         <v>131</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I92" s="26" t="s">
         <v>92</v>
@@ -8171,21 +8175,21 @@
         <v>1</v>
       </c>
       <c r="M92" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="B93" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>332</v>
-      </c>
       <c r="D93" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>94</v>
@@ -8194,10 +8198,10 @@
         <v>131</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H93" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I93" s="26" t="s">
         <v>92</v>
@@ -8212,21 +8216,21 @@
         <v>1</v>
       </c>
       <c r="M93" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="B94" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>334</v>
-      </c>
       <c r="D94" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>94</v>
@@ -8235,10 +8239,10 @@
         <v>131</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H94" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I94" s="26" t="s">
         <v>92</v>
@@ -8253,21 +8257,21 @@
         <v>1</v>
       </c>
       <c r="M94" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="B95" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>336</v>
-      </c>
       <c r="D95" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>94</v>
@@ -8276,10 +8280,10 @@
         <v>131</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I95" s="26" t="s">
         <v>92</v>
@@ -8294,21 +8298,21 @@
         <v>1</v>
       </c>
       <c r="M95" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="B96" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>338</v>
-      </c>
       <c r="D96" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>94</v>
@@ -8317,7 +8321,7 @@
         <v>131</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>111</v>
@@ -8340,16 +8344,16 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="B97" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>340</v>
-      </c>
       <c r="D97" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E97" s="26" t="s">
         <v>94</v>
@@ -8358,7 +8362,7 @@
         <v>131</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H97" s="26" t="s">
         <v>111</v>
@@ -8381,16 +8385,16 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="B98" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>342</v>
-      </c>
       <c r="D98" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>94</v>
@@ -8399,7 +8403,7 @@
         <v>131</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H98" s="26" t="s">
         <v>111</v>
@@ -8422,16 +8426,16 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B99" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>344</v>
-      </c>
       <c r="D99" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>94</v>
@@ -8440,7 +8444,7 @@
         <v>131</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H99" s="26" t="s">
         <v>111</v>
@@ -8463,16 +8467,16 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="B100" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>346</v>
-      </c>
       <c r="D100" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>94</v>
@@ -8481,7 +8485,7 @@
         <v>131</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H100" s="26" t="s">
         <v>111</v>
@@ -8504,16 +8508,16 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="B101" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>348</v>
-      </c>
       <c r="D101" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E101" s="26" t="s">
         <v>94</v>
@@ -8522,7 +8526,7 @@
         <v>131</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H101" s="26" t="s">
         <v>111</v>
@@ -8545,16 +8549,16 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="B102" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>350</v>
-      </c>
       <c r="D102" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E102" s="26" t="s">
         <v>94</v>
@@ -8563,7 +8567,7 @@
         <v>131</v>
       </c>
       <c r="G102" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H102" s="26" t="s">
         <v>111</v>
@@ -8586,16 +8590,16 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="26" t="s">
         <v>351</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>352</v>
       </c>
       <c r="E103" s="26" t="s">
         <v>92</v>
@@ -8627,16 +8631,16 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104" s="26" t="s">
         <v>353</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>354</v>
       </c>
       <c r="E104" s="26" t="s">
         <v>92</v>
@@ -8668,16 +8672,16 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105" s="26" t="s">
         <v>355</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>356</v>
       </c>
       <c r="E105" s="26" t="s">
         <v>92</v>
@@ -8709,16 +8713,16 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D106" s="26" t="s">
         <v>357</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>358</v>
       </c>
       <c r="E106" s="26" t="s">
         <v>92</v>
@@ -8750,16 +8754,16 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D107" s="26" t="s">
         <v>359</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>360</v>
       </c>
       <c r="E107" s="26" t="s">
         <v>92</v>
@@ -8791,16 +8795,16 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="26" t="s">
         <v>361</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>362</v>
       </c>
       <c r="E108" s="26" t="s">
         <v>92</v>
@@ -8832,16 +8836,16 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D109" s="26" t="s">
         <v>363</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>364</v>
       </c>
       <c r="E109" s="26" t="s">
         <v>92</v>
@@ -8873,16 +8877,16 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D110" s="26" t="s">
         <v>365</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>366</v>
       </c>
       <c r="E110" s="26" t="s">
         <v>92</v>
@@ -8914,16 +8918,16 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D111" s="26" t="s">
         <v>367</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>368</v>
       </c>
       <c r="E111" s="26" t="s">
         <v>92</v>
@@ -8955,16 +8959,16 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D112" s="26" t="s">
         <v>369</v>
-      </c>
-      <c r="B112" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>370</v>
       </c>
       <c r="E112" s="26" t="s">
         <v>92</v>
@@ -8996,16 +9000,16 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D113" s="26" t="s">
         <v>371</v>
-      </c>
-      <c r="B113" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D113" s="26" t="s">
-        <v>372</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>92</v>
@@ -9037,16 +9041,16 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D114" s="26" t="s">
         <v>373</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>374</v>
       </c>
       <c r="E114" s="26" t="s">
         <v>92</v>
@@ -9078,16 +9082,16 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C115" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="D115" s="26" t="s">
         <v>375</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>376</v>
       </c>
       <c r="E115" s="26" t="s">
         <v>92</v>
@@ -9119,16 +9123,16 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C116" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="D116" s="26" t="s">
         <v>377</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>378</v>
       </c>
       <c r="E116" s="26" t="s">
         <v>92</v>
@@ -9160,16 +9164,16 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C117" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="B117" s="26" t="s">
+      <c r="D117" s="26" t="s">
         <v>379</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>380</v>
       </c>
       <c r="E117" s="26" t="s">
         <v>92</v>
@@ -9201,16 +9205,16 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C118" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="B118" s="26" t="s">
+      <c r="D118" s="26" t="s">
         <v>381</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>382</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>92</v>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4385,7 +4385,7 @@
   <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5703,7 +5703,7 @@
         <v>199</v>
       </c>
       <c r="I32" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="26">
         <v>1</v>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="27480" windowHeight="15460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="27480" windowHeight="15460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
@@ -2201,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3407,12 +3407,8 @@
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="19"/>
-      <c r="AB22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
       <c r="AF22" s="16"/>
@@ -3464,12 +3460,8 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="16"/>
-      <c r="AC23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>1</v>
-      </c>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
       <c r="AG23" s="19"/>
@@ -3522,15 +3514,9 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="16"/>
-      <c r="AC24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>1</v>
-      </c>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
       <c r="AF24" s="16"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="16"/>
@@ -3585,15 +3571,9 @@
       <c r="AA25" s="19"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="16"/>
-      <c r="AD25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>1</v>
-      </c>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="16"/>
       <c r="AI25" s="16"/>
@@ -3648,15 +3628,9 @@
       <c r="AB26" s="16"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
-      <c r="AE26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="22">
-        <v>1</v>
-      </c>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="22"/>
       <c r="AH26" s="16"/>
       <c r="AI26" s="16"/>
       <c r="AJ26" s="16"/>
@@ -3709,12 +3683,8 @@
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="17"/>
-      <c r="AF27" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="20">
-        <v>1</v>
-      </c>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="20"/>
       <c r="AH27" s="17"/>
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
@@ -4384,7 +4354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="27480" windowHeight="15460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="27480" windowHeight="15460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="385">
   <si>
     <t>Code Label</t>
   </si>
@@ -1170,6 +1170,12 @@
   </si>
   <si>
     <t>numvlmon</t>
+  </si>
+  <si>
+    <t>Number of VL tests recommended per person per year</t>
+  </si>
+  <si>
+    <t>requiredvl</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1400,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1402,6 +1408,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1505,7 +1517,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="53">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
     <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
     <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
@@ -1530,6 +1542,9 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
@@ -1551,6 +1566,9 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2201,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AF27" sqref="AF27"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4352,10 +4370,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7207,19 +7225,19 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="28" t="s">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="F70" s="26" t="s">
         <v>131</v>
@@ -7248,16 +7266,16 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>109</v>
@@ -7288,17 +7306,17 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="26" t="s">
-        <v>288</v>
+      <c r="A72" s="28" t="s">
+        <v>286</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>109</v>
@@ -7330,16 +7348,16 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B73" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>109</v>
@@ -7371,16 +7389,16 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>109</v>
@@ -7412,16 +7430,16 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B75" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>109</v>
@@ -7453,16 +7471,16 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>109</v>
@@ -7494,16 +7512,16 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E77" s="26" t="s">
         <v>109</v>
@@ -7535,16 +7553,16 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>109</v>
@@ -7576,16 +7594,16 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E79" s="26" t="s">
         <v>109</v>
@@ -7617,16 +7635,16 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>109</v>
@@ -7658,16 +7676,16 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B81" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E81" s="26" t="s">
         <v>109</v>
@@ -7698,17 +7716,17 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="28" t="s">
-        <v>308</v>
+      <c r="A82" s="26" t="s">
+        <v>306</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C82" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>309</v>
+      <c r="C82" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>307</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>109</v>
@@ -7740,16 +7758,16 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B83" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E83" s="26" t="s">
         <v>109</v>
@@ -7780,17 +7798,17 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="26" t="s">
-        <v>312</v>
+      <c r="A84" s="28" t="s">
+        <v>310</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C84" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>313</v>
+      <c r="C84" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>109</v>
@@ -7822,19 +7840,19 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B85" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F85" s="26" t="s">
         <v>131</v>
@@ -7863,16 +7881,16 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>102</v>
@@ -7904,16 +7922,16 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B87" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E87" s="26" t="s">
         <v>102</v>
@@ -7945,19 +7963,19 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F88" s="26" t="s">
         <v>131</v>
@@ -7986,16 +8004,16 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>94</v>
@@ -8027,16 +8045,16 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B90" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>94</v>
@@ -8068,16 +8086,16 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B91" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>94</v>
@@ -8109,16 +8127,16 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B92" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>94</v>
@@ -8150,16 +8168,16 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="26" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B93" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>94</v>
@@ -8191,16 +8209,16 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B94" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>94</v>
@@ -8232,16 +8250,16 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B95" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>94</v>
@@ -8273,16 +8291,16 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>94</v>
@@ -8294,7 +8312,7 @@
         <v>235</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="I96" s="26" t="s">
         <v>92</v>
@@ -8309,21 +8327,21 @@
         <v>1</v>
       </c>
       <c r="M96" s="26" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B97" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E97" s="26" t="s">
         <v>94</v>
@@ -8355,16 +8373,16 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B98" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>94</v>
@@ -8396,16 +8414,16 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B99" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>94</v>
@@ -8437,16 +8455,16 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B100" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>94</v>
@@ -8478,16 +8496,16 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B101" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E101" s="26" t="s">
         <v>94</v>
@@ -8519,16 +8537,16 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B102" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E102" s="26" t="s">
         <v>94</v>
@@ -8560,25 +8578,25 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>350</v>
+        <v>235</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>92</v>
+        <v>349</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F103" s="26" t="s">
         <v>131</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="H103" s="26" t="s">
         <v>111</v>
@@ -8601,16 +8619,16 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E104" s="26" t="s">
         <v>92</v>
@@ -8642,16 +8660,16 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E105" s="26" t="s">
         <v>92</v>
@@ -8683,16 +8701,16 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E106" s="26" t="s">
         <v>92</v>
@@ -8724,16 +8742,16 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E107" s="26" t="s">
         <v>92</v>
@@ -8765,16 +8783,16 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E108" s="26" t="s">
         <v>92</v>
@@ -8806,16 +8824,16 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E109" s="26" t="s">
         <v>92</v>
@@ -8847,16 +8865,16 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E110" s="26" t="s">
         <v>92</v>
@@ -8888,16 +8906,16 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E111" s="26" t="s">
         <v>92</v>
@@ -8929,16 +8947,16 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E112" s="26" t="s">
         <v>92</v>
@@ -8970,16 +8988,16 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>92</v>
@@ -9011,16 +9029,16 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E114" s="26" t="s">
         <v>92</v>
@@ -9052,16 +9070,16 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>375</v>
+        <v>92</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E115" s="26" t="s">
         <v>92</v>
@@ -9093,16 +9111,16 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E116" s="26" t="s">
         <v>92</v>
@@ -9134,16 +9152,16 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E117" s="26" t="s">
         <v>92</v>
@@ -9175,16 +9193,16 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>92</v>
@@ -9211,6 +9229,47 @@
         <v>1</v>
       </c>
       <c r="M118" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I119" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J119" s="26">
+        <v>0</v>
+      </c>
+      <c r="K119" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L119" s="26">
+        <v>1</v>
+      </c>
+      <c r="M119" s="26" t="s">
         <v>111</v>
       </c>
     </row>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="383">
   <si>
     <t>Code Label</t>
   </si>
@@ -1170,12 +1170,6 @@
   </si>
   <si>
     <t>numvlmon</t>
-  </si>
-  <si>
-    <t>Number of VL tests recommended per person per year</t>
-  </si>
-  <si>
-    <t>requiredvl</t>
   </si>
 </sst>
 </file>
@@ -4370,10 +4364,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7225,19 +7219,19 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="28" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="F70" s="26" t="s">
         <v>131</v>
@@ -7266,16 +7260,16 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="28" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>109</v>
@@ -7306,17 +7300,17 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="28" t="s">
-        <v>286</v>
+      <c r="A72" s="26" t="s">
+        <v>288</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>109</v>
@@ -7348,16 +7342,16 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B73" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>109</v>
@@ -7389,16 +7383,16 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>109</v>
@@ -7430,16 +7424,16 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B75" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>109</v>
@@ -7471,16 +7465,16 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="26" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>109</v>
@@ -7512,16 +7506,16 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E77" s="26" t="s">
         <v>109</v>
@@ -7553,16 +7547,16 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="26" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>109</v>
@@ -7594,16 +7588,16 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E79" s="26" t="s">
         <v>109</v>
@@ -7635,16 +7629,16 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>109</v>
@@ -7676,16 +7670,16 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B81" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E81" s="26" t="s">
         <v>109</v>
@@ -7716,17 +7710,17 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="26" t="s">
-        <v>306</v>
+      <c r="A82" s="28" t="s">
+        <v>308</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C82" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>307</v>
+      <c r="C82" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>309</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>109</v>
@@ -7758,16 +7752,16 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B83" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E83" s="26" t="s">
         <v>109</v>
@@ -7798,17 +7792,17 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="28" t="s">
-        <v>310</v>
+      <c r="A84" s="26" t="s">
+        <v>312</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C84" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>311</v>
+      <c r="C84" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>109</v>
@@ -7840,19 +7834,19 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B85" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F85" s="26" t="s">
         <v>131</v>
@@ -7881,16 +7875,16 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>102</v>
@@ -7922,16 +7916,16 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B87" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E87" s="26" t="s">
         <v>102</v>
@@ -7963,19 +7957,19 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F88" s="26" t="s">
         <v>131</v>
@@ -8004,16 +7998,16 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>94</v>
@@ -8045,16 +8039,16 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="26" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B90" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>94</v>
@@ -8086,16 +8080,16 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="26" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B91" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>94</v>
@@ -8127,16 +8121,16 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="26" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B92" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>94</v>
@@ -8168,16 +8162,16 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="26" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B93" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>94</v>
@@ -8209,16 +8203,16 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B94" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>94</v>
@@ -8250,16 +8244,16 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B95" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>94</v>
@@ -8291,16 +8285,16 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="26" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>94</v>
@@ -8312,7 +8306,7 @@
         <v>235</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="I96" s="26" t="s">
         <v>92</v>
@@ -8327,21 +8321,21 @@
         <v>1</v>
       </c>
       <c r="M96" s="26" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="26" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B97" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E97" s="26" t="s">
         <v>94</v>
@@ -8373,16 +8367,16 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="26" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B98" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>94</v>
@@ -8414,16 +8408,16 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="26" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B99" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>94</v>
@@ -8455,16 +8449,16 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="26" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B100" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>94</v>
@@ -8496,16 +8490,16 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="26" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B101" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E101" s="26" t="s">
         <v>94</v>
@@ -8537,16 +8531,16 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="26" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B102" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E102" s="26" t="s">
         <v>94</v>
@@ -8578,25 +8572,25 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="26" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>349</v>
+        <v>92</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F103" s="26" t="s">
         <v>131</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="H103" s="26" t="s">
         <v>111</v>
@@ -8619,16 +8613,16 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="26" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E104" s="26" t="s">
         <v>92</v>
@@ -8660,16 +8654,16 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="26" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E105" s="26" t="s">
         <v>92</v>
@@ -8701,16 +8695,16 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="26" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E106" s="26" t="s">
         <v>92</v>
@@ -8742,16 +8736,16 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="26" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E107" s="26" t="s">
         <v>92</v>
@@ -8783,16 +8777,16 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="26" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E108" s="26" t="s">
         <v>92</v>
@@ -8824,16 +8818,16 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="26" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E109" s="26" t="s">
         <v>92</v>
@@ -8865,16 +8859,16 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="26" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E110" s="26" t="s">
         <v>92</v>
@@ -8906,16 +8900,16 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E111" s="26" t="s">
         <v>92</v>
@@ -8947,16 +8941,16 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="26" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E112" s="26" t="s">
         <v>92</v>
@@ -8988,16 +8982,16 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="26" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>92</v>
@@ -9029,16 +9023,16 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="26" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E114" s="26" t="s">
         <v>92</v>
@@ -9070,16 +9064,16 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="26" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>92</v>
+        <v>375</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E115" s="26" t="s">
         <v>92</v>
@@ -9111,16 +9105,16 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="26" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E116" s="26" t="s">
         <v>92</v>
@@ -9152,16 +9146,16 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="26" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E117" s="26" t="s">
         <v>92</v>
@@ -9193,16 +9187,16 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>92</v>
@@ -9229,47 +9223,6 @@
         <v>1</v>
       </c>
       <c r="M118" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="B119" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F119" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G119" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="H119" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="I119" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="J119" s="26">
-        <v>0</v>
-      </c>
-      <c r="K119" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L119" s="26">
-        <v>1</v>
-      </c>
-      <c r="M119" s="26" t="s">
         <v>111</v>
       </c>
     </row>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="385">
   <si>
     <t>Code Label</t>
   </si>
@@ -1170,6 +1170,12 @@
   </si>
   <si>
     <t>numvlmon</t>
+  </si>
+  <si>
+    <t>Number of VL tests recommended per person per year</t>
+  </si>
+  <si>
+    <t>requiredvl</t>
   </si>
 </sst>
 </file>
@@ -4364,10 +4370,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+      <selection activeCell="F70" sqref="F70:M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7219,19 +7225,19 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="28" t="s">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="F70" s="26" t="s">
         <v>131</v>
@@ -7260,16 +7266,16 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>109</v>
@@ -7300,17 +7306,17 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="26" t="s">
-        <v>288</v>
+      <c r="A72" s="28" t="s">
+        <v>286</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>109</v>
@@ -7342,16 +7348,16 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B73" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>109</v>
@@ -7383,16 +7389,16 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>109</v>
@@ -7424,16 +7430,16 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B75" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>109</v>
@@ -7465,16 +7471,16 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>109</v>
@@ -7506,16 +7512,16 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E77" s="26" t="s">
         <v>109</v>
@@ -7547,16 +7553,16 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>109</v>
@@ -7588,16 +7594,16 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E79" s="26" t="s">
         <v>109</v>
@@ -7629,16 +7635,16 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>109</v>
@@ -7670,16 +7676,16 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B81" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E81" s="26" t="s">
         <v>109</v>
@@ -7710,17 +7716,17 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="28" t="s">
-        <v>308</v>
+      <c r="A82" s="26" t="s">
+        <v>306</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C82" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>309</v>
+      <c r="C82" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>307</v>
       </c>
       <c r="E82" s="26" t="s">
         <v>109</v>
@@ -7752,16 +7758,16 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B83" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E83" s="26" t="s">
         <v>109</v>
@@ -7792,17 +7798,17 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="26" t="s">
-        <v>312</v>
+      <c r="A84" s="28" t="s">
+        <v>310</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C84" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>313</v>
+      <c r="C84" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>109</v>
@@ -7834,19 +7840,19 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B85" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F85" s="26" t="s">
         <v>131</v>
@@ -7875,16 +7881,16 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>102</v>
@@ -7916,16 +7922,16 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B87" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E87" s="26" t="s">
         <v>102</v>
@@ -7957,19 +7963,19 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F88" s="26" t="s">
         <v>131</v>
@@ -7998,16 +8004,16 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>94</v>
@@ -8039,16 +8045,16 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B90" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E90" s="26" t="s">
         <v>94</v>
@@ -8080,16 +8086,16 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B91" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>94</v>
@@ -8121,16 +8127,16 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B92" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>94</v>
@@ -8162,16 +8168,16 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="26" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B93" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>94</v>
@@ -8203,16 +8209,16 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B94" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>94</v>
@@ -8244,16 +8250,16 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B95" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>94</v>
@@ -8285,16 +8291,16 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>94</v>
@@ -8306,7 +8312,7 @@
         <v>235</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="I96" s="26" t="s">
         <v>92</v>
@@ -8321,21 +8327,21 @@
         <v>1</v>
       </c>
       <c r="M96" s="26" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B97" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E97" s="26" t="s">
         <v>94</v>
@@ -8367,16 +8373,16 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B98" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>94</v>
@@ -8408,16 +8414,16 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B99" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>94</v>
@@ -8449,16 +8455,16 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B100" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>94</v>
@@ -8490,16 +8496,16 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B101" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E101" s="26" t="s">
         <v>94</v>
@@ -8531,16 +8537,16 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B102" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E102" s="26" t="s">
         <v>94</v>
@@ -8572,25 +8578,25 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>350</v>
+        <v>235</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>92</v>
+        <v>349</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F103" s="26" t="s">
         <v>131</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="H103" s="26" t="s">
         <v>111</v>
@@ -8613,16 +8619,16 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E104" s="26" t="s">
         <v>92</v>
@@ -8654,16 +8660,16 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E105" s="26" t="s">
         <v>92</v>
@@ -8695,16 +8701,16 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E106" s="26" t="s">
         <v>92</v>
@@ -8736,16 +8742,16 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E107" s="26" t="s">
         <v>92</v>
@@ -8777,16 +8783,16 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E108" s="26" t="s">
         <v>92</v>
@@ -8818,16 +8824,16 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E109" s="26" t="s">
         <v>92</v>
@@ -8859,16 +8865,16 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E110" s="26" t="s">
         <v>92</v>
@@ -8900,16 +8906,16 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E111" s="26" t="s">
         <v>92</v>
@@ -8941,16 +8947,16 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E112" s="26" t="s">
         <v>92</v>
@@ -8982,16 +8988,16 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>92</v>
@@ -9023,16 +9029,16 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E114" s="26" t="s">
         <v>92</v>
@@ -9064,16 +9070,16 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>375</v>
+        <v>92</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E115" s="26" t="s">
         <v>92</v>
@@ -9105,16 +9111,16 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E116" s="26" t="s">
         <v>92</v>
@@ -9146,16 +9152,16 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E117" s="26" t="s">
         <v>92</v>
@@ -9187,16 +9193,16 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>92</v>
@@ -9223,6 +9229,47 @@
         <v>1</v>
       </c>
       <c r="M118" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I119" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J119" s="26">
+        <v>0</v>
+      </c>
+      <c r="K119" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L119" s="26">
+        <v>1</v>
+      </c>
+      <c r="M119" s="26" t="s">
         <v>111</v>
       </c>
     </row>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="27480" windowHeight="15460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="27480" windowHeight="15460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
@@ -2219,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView tabSelected="1" topLeftCell="T16" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3123,12 +3123,8 @@
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="19"/>
-      <c r="AH16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>1</v>
-      </c>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
       <c r="AL16" s="16"/>
@@ -3176,12 +3172,8 @@
       <c r="AF17" s="16"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="16"/>
-      <c r="AI17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>1</v>
-      </c>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
       <c r="AM17" s="19"/>
@@ -3229,12 +3221,8 @@
       <c r="AG18" s="19"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="16"/>
-      <c r="AJ18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="3">
-        <v>1</v>
-      </c>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
       <c r="AL18" s="16"/>
       <c r="AM18" s="19"/>
     </row>
@@ -3282,12 +3270,8 @@
       <c r="AH19" s="16"/>
       <c r="AI19" s="16"/>
       <c r="AJ19" s="16"/>
-      <c r="AK19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>1</v>
-      </c>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
       <c r="AM19" s="19"/>
     </row>
     <row r="20" spans="1:39" ht="16">
@@ -3335,12 +3319,8 @@
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
       <c r="AK20" s="16"/>
-      <c r="AL20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="22">
-        <v>1</v>
-      </c>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="22"/>
     </row>
     <row r="21" spans="1:39" ht="16">
       <c r="A21" s="9" t="str">
@@ -3386,9 +3366,7 @@
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
       <c r="AL21" s="17"/>
-      <c r="AM21" s="20">
-        <v>1</v>
-      </c>
+      <c r="AM21" s="20"/>
     </row>
     <row r="22" spans="1:39" ht="16">
       <c r="A22" s="10" t="str">
@@ -3431,12 +3409,8 @@
       <c r="AE22" s="16"/>
       <c r="AF22" s="16"/>
       <c r="AG22" s="19"/>
-      <c r="AH22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>1</v>
-      </c>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
       <c r="AJ22" s="16"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
@@ -3484,12 +3458,8 @@
       <c r="AF23" s="16"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="16"/>
-      <c r="AI23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>1</v>
-      </c>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
       <c r="AM23" s="19"/>
@@ -3538,15 +3508,9 @@
       <c r="AF24" s="16"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="16"/>
-      <c r="AI24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>1</v>
-      </c>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
       <c r="AL24" s="16"/>
       <c r="AM24" s="19"/>
     </row>
@@ -3595,15 +3559,9 @@
       <c r="AG25" s="19"/>
       <c r="AH25" s="16"/>
       <c r="AI25" s="16"/>
-      <c r="AJ25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>1</v>
-      </c>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
       <c r="AM25" s="19"/>
     </row>
     <row r="26" spans="1:39" ht="16">
@@ -3652,15 +3610,9 @@
       <c r="AH26" s="16"/>
       <c r="AI26" s="16"/>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="22">
-        <v>1</v>
-      </c>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="22"/>
     </row>
     <row r="27" spans="1:39" ht="16">
       <c r="A27" s="10" t="str">
@@ -3707,12 +3659,8 @@
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
-      <c r="AL27" s="18">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="20">
-        <v>1</v>
-      </c>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="20"/>
     </row>
     <row r="28" spans="1:39" ht="16">
       <c r="A28" s="4" t="str">
@@ -3759,12 +3707,8 @@
       <c r="AE28" s="16"/>
       <c r="AF28" s="16"/>
       <c r="AG28" s="19"/>
-      <c r="AH28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>1</v>
-      </c>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
       <c r="AJ28" s="16"/>
       <c r="AK28" s="16"/>
       <c r="AL28" s="16"/>
@@ -3812,9 +3756,7 @@
       <c r="AF29" s="16"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="16"/>
-      <c r="AI29" s="3">
-        <v>1</v>
-      </c>
+      <c r="AI29" s="3"/>
       <c r="AJ29" s="16"/>
       <c r="AK29" s="16"/>
       <c r="AL29" s="16"/>
@@ -3866,12 +3808,8 @@
       <c r="AF30" s="16"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="16"/>
-      <c r="AI30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="3">
-        <v>1</v>
-      </c>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
       <c r="AK30" s="16"/>
       <c r="AL30" s="16"/>
       <c r="AM30" s="19"/>
@@ -3923,12 +3861,8 @@
       <c r="AG31" s="19"/>
       <c r="AH31" s="16"/>
       <c r="AI31" s="16"/>
-      <c r="AJ31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="3">
-        <v>1</v>
-      </c>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
       <c r="AL31" s="16"/>
       <c r="AM31" s="19"/>
     </row>
@@ -3980,12 +3914,8 @@
       <c r="AH32" s="16"/>
       <c r="AI32" s="16"/>
       <c r="AJ32" s="16"/>
-      <c r="AK32" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL32" s="3">
-        <v>1</v>
-      </c>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
       <c r="AM32" s="19"/>
     </row>
     <row r="33" spans="1:39" ht="16">
@@ -4037,12 +3967,8 @@
       <c r="AI33" s="17"/>
       <c r="AJ33" s="17"/>
       <c r="AK33" s="17"/>
-      <c r="AL33" s="18">
-        <v>1</v>
-      </c>
-      <c r="AM33" s="20">
-        <v>1</v>
-      </c>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="20"/>
     </row>
     <row r="34" spans="1:39" ht="16">
       <c r="A34" s="5" t="str">
@@ -4372,7 +4298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="F70" sqref="F70:M70"/>
     </sheetView>
   </sheetViews>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -2219,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T16" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16:AM33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3123,8 +3123,12 @@
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="19"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
+      <c r="AH16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
       <c r="AL16" s="16"/>
@@ -3172,8 +3176,12 @@
       <c r="AF17" s="16"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="16"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
+      <c r="AI17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>1</v>
+      </c>
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
       <c r="AM17" s="19"/>
@@ -3221,8 +3229,12 @@
       <c r="AG18" s="19"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="16"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
+      <c r="AJ18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>1</v>
+      </c>
       <c r="AL18" s="16"/>
       <c r="AM18" s="19"/>
     </row>
@@ -3270,8 +3282,12 @@
       <c r="AH19" s="16"/>
       <c r="AI19" s="16"/>
       <c r="AJ19" s="16"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
+      <c r="AK19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>1</v>
+      </c>
       <c r="AM19" s="19"/>
     </row>
     <row r="20" spans="1:39" ht="16">
@@ -3319,8 +3335,12 @@
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
       <c r="AK20" s="16"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="22"/>
+      <c r="AL20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:39" ht="16">
       <c r="A21" s="9" t="str">
@@ -3366,7 +3386,9 @@
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
       <c r="AL21" s="17"/>
-      <c r="AM21" s="20"/>
+      <c r="AM21" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:39" ht="16">
       <c r="A22" s="10" t="str">
@@ -3409,8 +3431,12 @@
       <c r="AE22" s="16"/>
       <c r="AF22" s="16"/>
       <c r="AG22" s="19"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
+      <c r="AH22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ22" s="16"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
@@ -3458,8 +3484,12 @@
       <c r="AF23" s="16"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="16"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
+      <c r="AI23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>1</v>
+      </c>
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
       <c r="AM23" s="19"/>
@@ -3508,9 +3538,15 @@
       <c r="AF24" s="16"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="16"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
+      <c r="AI24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>1</v>
+      </c>
       <c r="AL24" s="16"/>
       <c r="AM24" s="19"/>
     </row>
@@ -3559,9 +3595,15 @@
       <c r="AG25" s="19"/>
       <c r="AH25" s="16"/>
       <c r="AI25" s="16"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
+      <c r="AJ25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>1</v>
+      </c>
       <c r="AM25" s="19"/>
     </row>
     <row r="26" spans="1:39" ht="16">
@@ -3610,9 +3652,15 @@
       <c r="AH26" s="16"/>
       <c r="AI26" s="16"/>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="22"/>
+      <c r="AK26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:39" ht="16">
       <c r="A27" s="10" t="str">
@@ -3659,8 +3707,12 @@
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="20"/>
+      <c r="AL27" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:39" ht="16">
       <c r="A28" s="4" t="str">
@@ -3707,8 +3759,12 @@
       <c r="AE28" s="16"/>
       <c r="AF28" s="16"/>
       <c r="AG28" s="19"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
+      <c r="AH28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ28" s="16"/>
       <c r="AK28" s="16"/>
       <c r="AL28" s="16"/>
@@ -3756,7 +3812,9 @@
       <c r="AF29" s="16"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="16"/>
-      <c r="AI29" s="3"/>
+      <c r="AI29" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ29" s="16"/>
       <c r="AK29" s="16"/>
       <c r="AL29" s="16"/>
@@ -3808,8 +3866,12 @@
       <c r="AF30" s="16"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="16"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
+      <c r="AI30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>1</v>
+      </c>
       <c r="AK30" s="16"/>
       <c r="AL30" s="16"/>
       <c r="AM30" s="19"/>
@@ -3861,8 +3923,12 @@
       <c r="AG31" s="19"/>
       <c r="AH31" s="16"/>
       <c r="AI31" s="16"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
+      <c r="AJ31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>1</v>
+      </c>
       <c r="AL31" s="16"/>
       <c r="AM31" s="19"/>
     </row>
@@ -3914,8 +3980,12 @@
       <c r="AH32" s="16"/>
       <c r="AI32" s="16"/>
       <c r="AJ32" s="16"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
+      <c r="AK32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>1</v>
+      </c>
       <c r="AM32" s="19"/>
     </row>
     <row r="33" spans="1:39" ht="16">
@@ -3967,8 +4037,12 @@
       <c r="AI33" s="17"/>
       <c r="AJ33" s="17"/>
       <c r="AK33" s="17"/>
-      <c r="AL33" s="18"/>
-      <c r="AM33" s="20"/>
+      <c r="AL33" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:39" ht="16">
       <c r="A34" s="5" t="str">

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -7,18 +7,19 @@
     <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Compartments" sheetId="1" r:id="rId1"/>
-    <sheet name="Transitions" sheetId="2" r:id="rId2"/>
-    <sheet name="Parameters" sheetId="3" r:id="rId3"/>
-    <sheet name="Data inputs" sheetId="4" r:id="rId4"/>
-    <sheet name="Data constants" sheetId="5" r:id="rId5"/>
+    <sheet name="Instructions" sheetId="6" r:id="rId1"/>
+    <sheet name="Compartments" sheetId="1" r:id="rId2"/>
+    <sheet name="Transitions" sheetId="2" r:id="rId3"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId4"/>
+    <sheet name="Data inputs" sheetId="4" r:id="rId5"/>
+    <sheet name="Data constants" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="426">
   <si>
     <t>Code Label</t>
   </si>
@@ -287,9 +288,6 @@
     <t>Initial HIV prevalence</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>initprev</t>
   </si>
   <si>
@@ -365,18 +363,12 @@
     <t>timepar</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>HIV testing rate (per year)</t>
   </si>
   <si>
     <t>hivtest</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>AIDS testing rate (per year)</t>
   </si>
   <si>
@@ -404,9 +396,6 @@
     <t>numtx</t>
   </si>
   <si>
-    <t>treat</t>
-  </si>
-  <si>
     <t>Number of people on PMTCT</t>
   </si>
   <si>
@@ -1239,6 +1228,75 @@
   </si>
   <si>
     <t>valid</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>Last updated:</t>
+  </si>
+  <si>
+    <t>The parameter properties in the next sheet are listed here:</t>
+  </si>
+  <si>
+    <t>This is the parameter name that will be shown to the user (in e.g. manual calibration). Do NOT make it too long or else it will not fit on the screen, and be both illegible and make something else illegible.</t>
+  </si>
+  <si>
+    <t>This is the name of the parameter that will be used internally.</t>
+  </si>
+  <si>
+    <t>These are the maximum upper and lower limits. There are special limits 'maxrate' (for rates, e.g. per year), 'maxmeta' (arbitrary cutoff for metaparameter values); 'maxpopsize', 'maxacts' are fairly self-explanatory.</t>
+  </si>
+  <si>
+    <t>Whether it's total/average across all populations ('tot'), by population ('pop'), partnership ('pship'), or male or female pouplation ('mpop', 'fpop')</t>
+  </si>
+  <si>
+    <t>Whether it varies by time (timepar), is a constant from the Constants sheet (constant), metaparameter (meta), or something special (popsize, initprev). New parameters should be either 'timpar' or 'constant'</t>
+  </si>
+  <si>
+    <t>What aspect of this parameter, if any, is available for fitting. Default is 'meta', which means that only the metaparameter is fittable.</t>
+  </si>
+  <si>
+    <t>Which class of parameters this belongs to for the purposes of automatic fitting</t>
+  </si>
+  <si>
+    <t>Whether or not it's a cascade parameter (thus not available</t>
+  </si>
+  <si>
+    <t>Whether or not this is a coverage parameter (coverage = outcome)</t>
+  </si>
+  <si>
+    <t>Whether or not this is visible to the user for making scenarios and setting up program effects</t>
+  </si>
+  <si>
+    <t>proginteract</t>
+  </si>
+  <si>
+    <t>The default way in which multiple programs affecting this parameter should interact</t>
+  </si>
+  <si>
+    <t>Indicates whether the parameter is made from data or not. Most parameters are, but some are initialised as nans and then filled in later</t>
+  </si>
+  <si>
+    <t>2017feb02</t>
+  </si>
+  <si>
+    <t>1. Update the table on the "Parameters" sheet.</t>
+  </si>
+  <si>
+    <t>2. Update the example spreadsheets (e.g. simple.xlsx, concentrated.xlsx, and generalized.xlsx) in the tests folder to have the correct parameters.</t>
+  </si>
+  <si>
+    <t>Updating parameters is easy Here's how you do it.</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>targetable</t>
+  </si>
+  <si>
+    <t>advanced</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1308,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1410,6 +1468,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3545,7 +3616,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3615,6 +3686,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2016">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -5942,6 +6015,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6277,7 +6497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
@@ -8460,12 +8680,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8475,15 +8696,14 @@
     <col min="3" max="3" width="20.5703125" style="25" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="25" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="10" style="26" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="26" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="26" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="26" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="26"/>
+    <col min="10" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="25" customFormat="1">
+    <row r="1" spans="1:9" s="25" customFormat="1">
       <c r="A1" s="24" t="s">
         <v>79</v>
       </c>
@@ -8499,439 +8719,397 @@
       <c r="E1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>84</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>85</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="C5" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="26">
+        <v>1</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="D9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="26">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26">
-        <v>1</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="26" t="s">
+      <c r="D10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="D11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="26">
+        <v>1</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="26">
-        <v>0</v>
-      </c>
-      <c r="I3" s="26">
-        <v>1</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="D12" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="26">
-        <v>0</v>
-      </c>
-      <c r="I4" s="26">
-        <v>0</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="G12" s="26">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="26">
-        <v>0</v>
-      </c>
-      <c r="I5" s="26">
-        <v>0</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0</v>
-      </c>
-      <c r="I6" s="26">
-        <v>1</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
-        <v>1</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="26">
-        <v>0</v>
-      </c>
-      <c r="I8" s="26">
-        <v>1</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="26" t="s">
+      <c r="G13" s="26">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-      <c r="H9" s="26">
-        <v>1</v>
-      </c>
-      <c r="I9" s="26">
-        <v>1</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
-        <v>1</v>
-      </c>
-      <c r="I10" s="26">
-        <v>1</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
-        <v>1</v>
-      </c>
-      <c r="I11" s="26">
-        <v>1</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
-        <v>1</v>
-      </c>
-      <c r="I12" s="26">
-        <v>1</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
-        <v>1</v>
-      </c>
-      <c r="I13" s="26">
-        <v>1</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>128</v>
+      <c r="F14" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="G14" s="26">
         <v>1</v>
       </c>
       <c r="H14" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="26">
         <v>1</v>
       </c>
-      <c r="J14" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
         <v>130</v>
       </c>
@@ -8939,639 +9117,579 @@
         <v>129</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="G15" s="26">
         <v>1</v>
       </c>
       <c r="H15" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="26">
         <v>1</v>
       </c>
-      <c r="J15" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1</v>
+      </c>
+      <c r="H17" s="26">
+        <v>1</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="C18" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="26">
+        <v>1</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="26">
+        <v>1</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
-        <v>1</v>
-      </c>
-      <c r="I16" s="26">
-        <v>1</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
-        <v>1</v>
-      </c>
-      <c r="I17" s="26">
-        <v>1</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="26" t="s">
+      <c r="E27" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="26">
+        <v>1</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
+      <c r="I27" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
-        <v>1</v>
-      </c>
-      <c r="I18" s="26">
-        <v>1</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="26">
-        <v>1</v>
-      </c>
-      <c r="H19" s="26">
-        <v>1</v>
-      </c>
-      <c r="I19" s="26">
-        <v>0</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="26">
-        <v>1</v>
-      </c>
-      <c r="H20" s="26">
-        <v>1</v>
-      </c>
-      <c r="I20" s="26">
-        <v>1</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
-        <v>1</v>
-      </c>
-      <c r="I21" s="26">
-        <v>1</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
-        <v>1</v>
-      </c>
-      <c r="I22" s="26">
-        <v>1</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26">
-        <v>1</v>
-      </c>
-      <c r="I23" s="26">
-        <v>1</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
-        <v>1</v>
-      </c>
-      <c r="I24" s="26">
-        <v>1</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
-        <v>1</v>
-      </c>
-      <c r="I25" s="26">
-        <v>1</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="26">
-        <v>1</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="26">
-        <v>0</v>
-      </c>
-      <c r="H27" s="26">
-        <v>1</v>
-      </c>
-      <c r="I27" s="26">
-        <v>1</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>151</v>
-      </c>
       <c r="E28" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G28" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="26">
         <v>1</v>
       </c>
-      <c r="J28" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>91</v>
-      </c>
       <c r="D29" s="26" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G29" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="26">
         <v>1</v>
       </c>
-      <c r="J29" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="26" t="s">
-        <v>170</v>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="27" t="s">
+        <v>172</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="G30" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="26">
         <v>1</v>
       </c>
-      <c r="J30" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="G31" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="26">
         <v>1</v>
       </c>
-      <c r="J31" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="27" t="s">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="G32" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="26">
         <v>1</v>
       </c>
-      <c r="J32" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>177</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="G33" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="26">
-        <v>1</v>
-      </c>
-      <c r="J33" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>179</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="G34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="26">
-        <v>1</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="26" t="s">
         <v>182</v>
       </c>
@@ -9579,31 +9697,28 @@
         <v>181</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G35" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="26">
         <v>0</v>
       </c>
-      <c r="J35" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="26" t="s">
         <v>184</v>
       </c>
@@ -9611,31 +9726,28 @@
         <v>183</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="26">
         <v>0</v>
       </c>
-      <c r="J36" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="26" t="s">
         <v>186</v>
       </c>
@@ -9643,31 +9755,28 @@
         <v>185</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G37" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="26">
         <v>0</v>
       </c>
-      <c r="J37" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="26" t="s">
         <v>188</v>
       </c>
@@ -9675,81 +9784,75 @@
         <v>187</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="G38" s="26">
         <v>0</v>
       </c>
       <c r="H38" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="26">
         <v>0</v>
       </c>
-      <c r="J38" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="F39" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" s="26">
+        <v>0</v>
+      </c>
+      <c r="H39" s="26">
+        <v>0</v>
+      </c>
+      <c r="I39" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="26">
-        <v>0</v>
-      </c>
-      <c r="H39" s="26">
-        <v>1</v>
-      </c>
-      <c r="I39" s="26">
-        <v>0</v>
-      </c>
-      <c r="J39" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="26" t="s">
+      <c r="D40" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="G40" s="26">
         <v>0</v>
       </c>
@@ -9759,11 +9862,8 @@
       <c r="I40" s="26">
         <v>0</v>
       </c>
-      <c r="J40" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="26" t="s">
         <v>197</v>
       </c>
@@ -9771,16 +9871,16 @@
         <v>196</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="G41" s="26">
         <v>0</v>
@@ -9791,11 +9891,8 @@
       <c r="I41" s="26">
         <v>0</v>
       </c>
-      <c r="J41" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="26" t="s">
         <v>199</v>
       </c>
@@ -9803,1939 +9900,1759 @@
         <v>198</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F42" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="26">
+        <v>0</v>
+      </c>
+      <c r="H42" s="26">
+        <v>0</v>
+      </c>
+      <c r="I42" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="26">
+        <v>0</v>
+      </c>
+      <c r="H43" s="26">
+        <v>0</v>
+      </c>
+      <c r="I43" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="26">
-        <v>0</v>
-      </c>
-      <c r="H42" s="26">
-        <v>0</v>
-      </c>
-      <c r="I42" s="26">
-        <v>0</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" s="26">
-        <v>0</v>
-      </c>
-      <c r="H43" s="26">
-        <v>0</v>
-      </c>
-      <c r="I43" s="26">
-        <v>0</v>
-      </c>
-      <c r="J43" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="26" t="s">
+      <c r="C44" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="26">
+        <v>0</v>
+      </c>
+      <c r="H44" s="26">
+        <v>0</v>
+      </c>
+      <c r="I44" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="26">
+        <v>0</v>
+      </c>
+      <c r="H45" s="26">
+        <v>0</v>
+      </c>
+      <c r="I45" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="26">
-        <v>0</v>
-      </c>
-      <c r="H44" s="26">
-        <v>0</v>
-      </c>
-      <c r="I44" s="26">
-        <v>0</v>
-      </c>
-      <c r="J44" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="26" t="s">
+      <c r="F46" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="26">
-        <v>0</v>
-      </c>
-      <c r="I45" s="26">
-        <v>1</v>
-      </c>
-      <c r="J45" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="26" t="s">
+      <c r="G46" s="26">
+        <v>0</v>
+      </c>
+      <c r="H46" s="26">
+        <v>0</v>
+      </c>
+      <c r="I46" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G47" s="26">
+        <v>0</v>
+      </c>
+      <c r="H47" s="26">
+        <v>0</v>
+      </c>
+      <c r="I47" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="26">
-        <v>0</v>
-      </c>
-      <c r="I46" s="26">
-        <v>1</v>
-      </c>
-      <c r="J46" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="26" t="s">
+      <c r="C48" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48" s="26">
+        <v>0</v>
+      </c>
+      <c r="H48" s="26">
+        <v>0</v>
+      </c>
+      <c r="I48" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B49" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47" s="26">
-        <v>0</v>
-      </c>
-      <c r="I47" s="26">
-        <v>1</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="26" t="s">
+      <c r="C49" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="26">
+        <v>0</v>
+      </c>
+      <c r="H49" s="26">
+        <v>0</v>
+      </c>
+      <c r="I49" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B50" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" s="26">
-        <v>0</v>
-      </c>
-      <c r="I48" s="26">
-        <v>1</v>
-      </c>
-      <c r="J48" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="26" t="s">
+      <c r="C50" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" s="26">
+        <v>0</v>
+      </c>
+      <c r="H50" s="26">
+        <v>0</v>
+      </c>
+      <c r="I50" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B51" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H49" s="26">
-        <v>0</v>
-      </c>
-      <c r="I49" s="26">
-        <v>1</v>
-      </c>
-      <c r="J49" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="26" t="s">
+      <c r="C51" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="26">
+        <v>0</v>
+      </c>
+      <c r="H51" s="26">
+        <v>0</v>
+      </c>
+      <c r="I51" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B52" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H50" s="26">
-        <v>0</v>
-      </c>
-      <c r="I50" s="26">
-        <v>1</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="26" t="s">
+      <c r="C52" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G52" s="26">
+        <v>0</v>
+      </c>
+      <c r="H52" s="26">
+        <v>0</v>
+      </c>
+      <c r="I52" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B53" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H51" s="26">
-        <v>0</v>
-      </c>
-      <c r="I51" s="26">
-        <v>1</v>
-      </c>
-      <c r="J51" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="26" t="s">
+      <c r="C53" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G53" s="26">
+        <v>0</v>
+      </c>
+      <c r="H53" s="26">
+        <v>0</v>
+      </c>
+      <c r="I53" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B54" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H52" s="26">
-        <v>0</v>
-      </c>
-      <c r="I52" s="26">
-        <v>1</v>
-      </c>
-      <c r="J52" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="26" t="s">
+      <c r="C54" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" s="26">
+        <v>0</v>
+      </c>
+      <c r="H54" s="26">
+        <v>0</v>
+      </c>
+      <c r="I54" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B55" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="C53" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H53" s="26">
-        <v>0</v>
-      </c>
-      <c r="I53" s="26">
-        <v>1</v>
-      </c>
-      <c r="J53" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="26" t="s">
+      <c r="C55" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G55" s="26">
+        <v>0</v>
+      </c>
+      <c r="H55" s="26">
+        <v>0</v>
+      </c>
+      <c r="I55" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B56" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H54" s="26">
-        <v>0</v>
-      </c>
-      <c r="I54" s="26">
-        <v>1</v>
-      </c>
-      <c r="J54" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="26" t="s">
+      <c r="C56" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" s="26">
+        <v>0</v>
+      </c>
+      <c r="H56" s="26">
+        <v>0</v>
+      </c>
+      <c r="I56" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C55" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H55" s="26">
-        <v>0</v>
-      </c>
-      <c r="I55" s="26">
-        <v>1</v>
-      </c>
-      <c r="J55" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="26" t="s">
+      <c r="C57" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" s="26">
+        <v>0</v>
+      </c>
+      <c r="H57" s="26">
+        <v>0</v>
+      </c>
+      <c r="I57" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B58" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H56" s="26">
-        <v>0</v>
-      </c>
-      <c r="I56" s="26">
-        <v>1</v>
-      </c>
-      <c r="J56" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="26" t="s">
+      <c r="C58" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="26">
+        <v>0</v>
+      </c>
+      <c r="H58" s="26">
+        <v>0</v>
+      </c>
+      <c r="I58" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B59" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H57" s="26">
-        <v>0</v>
-      </c>
-      <c r="I57" s="26">
-        <v>1</v>
-      </c>
-      <c r="J57" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="26" t="s">
+      <c r="C59" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G59" s="26">
+        <v>0</v>
+      </c>
+      <c r="H59" s="26">
+        <v>0</v>
+      </c>
+      <c r="I59" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B60" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H58" s="26">
-        <v>0</v>
-      </c>
-      <c r="I58" s="26">
-        <v>1</v>
-      </c>
-      <c r="J58" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="26" t="s">
+      <c r="C60" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="26">
+        <v>0</v>
+      </c>
+      <c r="H60" s="26">
+        <v>0</v>
+      </c>
+      <c r="I60" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B61" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H59" s="26">
-        <v>0</v>
-      </c>
-      <c r="I59" s="26">
-        <v>1</v>
-      </c>
-      <c r="J59" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="26" t="s">
+      <c r="C61" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G61" s="26">
+        <v>0</v>
+      </c>
+      <c r="H61" s="26">
+        <v>0</v>
+      </c>
+      <c r="I61" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B62" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H60" s="26">
-        <v>0</v>
-      </c>
-      <c r="I60" s="26">
-        <v>1</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="26" t="s">
+      <c r="C62" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G62" s="26">
+        <v>0</v>
+      </c>
+      <c r="H62" s="26">
+        <v>0</v>
+      </c>
+      <c r="I62" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B63" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="26">
-        <v>0</v>
-      </c>
-      <c r="I61" s="26">
-        <v>1</v>
-      </c>
-      <c r="J61" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="26" t="s">
+      <c r="C63" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="26">
+        <v>0</v>
+      </c>
+      <c r="H63" s="26">
+        <v>0</v>
+      </c>
+      <c r="I63" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B64" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C62" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H62" s="26">
-        <v>0</v>
-      </c>
-      <c r="I62" s="26">
-        <v>1</v>
-      </c>
-      <c r="J62" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="26" t="s">
+      <c r="C64" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G64" s="26">
+        <v>0</v>
+      </c>
+      <c r="H64" s="26">
+        <v>0</v>
+      </c>
+      <c r="I64" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B65" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H63" s="26">
-        <v>0</v>
-      </c>
-      <c r="I63" s="26">
-        <v>1</v>
-      </c>
-      <c r="J63" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="26" t="s">
+      <c r="C65" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G65" s="26">
+        <v>0</v>
+      </c>
+      <c r="H65" s="26">
+        <v>0</v>
+      </c>
+      <c r="I65" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B66" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G64" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H64" s="26">
-        <v>0</v>
-      </c>
-      <c r="I64" s="26">
-        <v>1</v>
-      </c>
-      <c r="J64" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="26" t="s">
+      <c r="C66" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G66" s="26">
+        <v>0</v>
+      </c>
+      <c r="H66" s="26">
+        <v>0</v>
+      </c>
+      <c r="I66" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B67" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H65" s="26">
-        <v>0</v>
-      </c>
-      <c r="I65" s="26">
-        <v>1</v>
-      </c>
-      <c r="J65" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="26" t="s">
+      <c r="C67" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" s="26">
+        <v>0</v>
+      </c>
+      <c r="H67" s="26">
+        <v>0</v>
+      </c>
+      <c r="I67" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B68" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H66" s="26">
-        <v>0</v>
-      </c>
-      <c r="I66" s="26">
-        <v>1</v>
-      </c>
-      <c r="J66" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="26" t="s">
+      <c r="C68" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G68" s="26">
+        <v>0</v>
+      </c>
+      <c r="H68" s="26">
+        <v>0</v>
+      </c>
+      <c r="I68" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B69" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H67" s="26">
-        <v>0</v>
-      </c>
-      <c r="I67" s="26">
-        <v>1</v>
-      </c>
-      <c r="J67" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="26" t="s">
+      <c r="C69" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" s="26">
+        <v>0</v>
+      </c>
+      <c r="H69" s="26">
+        <v>0</v>
+      </c>
+      <c r="I69" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B70" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G68" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H68" s="26">
-        <v>0</v>
-      </c>
-      <c r="I68" s="26">
-        <v>1</v>
-      </c>
-      <c r="J68" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="26" t="s">
+      <c r="C70" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G70" s="26">
+        <v>0</v>
+      </c>
+      <c r="H70" s="26">
+        <v>0</v>
+      </c>
+      <c r="I70" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B71" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C69" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H69" s="26">
-        <v>0</v>
-      </c>
-      <c r="I69" s="26">
-        <v>1</v>
-      </c>
-      <c r="J69" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="26" t="s">
+      <c r="C71" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G71" s="26">
+        <v>0</v>
+      </c>
+      <c r="H71" s="26">
+        <v>0</v>
+      </c>
+      <c r="I71" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B72" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G70" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H70" s="26">
-        <v>0</v>
-      </c>
-      <c r="I70" s="26">
-        <v>1</v>
-      </c>
-      <c r="J70" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="26" t="s">
+      <c r="C72" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G72" s="26">
+        <v>0</v>
+      </c>
+      <c r="H72" s="26">
+        <v>0</v>
+      </c>
+      <c r="I72" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B73" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C71" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" s="26">
-        <v>0</v>
-      </c>
-      <c r="I71" s="26">
-        <v>1</v>
-      </c>
-      <c r="J71" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="26" t="s">
+      <c r="C73" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G73" s="26">
+        <v>0</v>
+      </c>
+      <c r="H73" s="26">
+        <v>0</v>
+      </c>
+      <c r="I73" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B74" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72" s="26">
-        <v>0</v>
-      </c>
-      <c r="I72" s="26">
-        <v>1</v>
-      </c>
-      <c r="J72" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="26" t="s">
+      <c r="C74" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" s="26">
+        <v>0</v>
+      </c>
+      <c r="H74" s="26">
+        <v>0</v>
+      </c>
+      <c r="I74" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B75" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="C73" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H73" s="26">
-        <v>0</v>
-      </c>
-      <c r="I73" s="26">
-        <v>1</v>
-      </c>
-      <c r="J73" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="26" t="s">
+      <c r="C75" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G75" s="26">
+        <v>0</v>
+      </c>
+      <c r="H75" s="26">
+        <v>0</v>
+      </c>
+      <c r="I75" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B76" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C74" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H74" s="26">
-        <v>0</v>
-      </c>
-      <c r="I74" s="26">
-        <v>1</v>
-      </c>
-      <c r="J74" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="26" t="s">
+      <c r="C76" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G76" s="26">
+        <v>0</v>
+      </c>
+      <c r="H76" s="26">
+        <v>0</v>
+      </c>
+      <c r="I76" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B77" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="C75" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H75" s="26">
-        <v>0</v>
-      </c>
-      <c r="I75" s="26">
-        <v>1</v>
-      </c>
-      <c r="J75" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="26" t="s">
+      <c r="C77" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G77" s="26">
+        <v>0</v>
+      </c>
+      <c r="H77" s="26">
+        <v>0</v>
+      </c>
+      <c r="I77" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B78" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76" s="26">
-        <v>0</v>
-      </c>
-      <c r="I76" s="26">
-        <v>1</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="26" t="s">
+      <c r="C78" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G78" s="26">
+        <v>0</v>
+      </c>
+      <c r="H78" s="26">
+        <v>0</v>
+      </c>
+      <c r="I78" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B79" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C77" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G77" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" s="26">
-        <v>0</v>
-      </c>
-      <c r="I77" s="26">
-        <v>1</v>
-      </c>
-      <c r="J77" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="26" t="s">
+      <c r="C79" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G79" s="26">
+        <v>0</v>
+      </c>
+      <c r="H79" s="26">
+        <v>0</v>
+      </c>
+      <c r="I79" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B80" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G78" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H78" s="26">
-        <v>0</v>
-      </c>
-      <c r="I78" s="26">
-        <v>1</v>
-      </c>
-      <c r="J78" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="26" t="s">
+      <c r="C80" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G80" s="26">
+        <v>0</v>
+      </c>
+      <c r="H80" s="26">
+        <v>0</v>
+      </c>
+      <c r="I80" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B81" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H79" s="26">
-        <v>0</v>
-      </c>
-      <c r="I79" s="26">
-        <v>1</v>
-      </c>
-      <c r="J79" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="26" t="s">
+      <c r="C81" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G81" s="26">
+        <v>0</v>
+      </c>
+      <c r="H81" s="26">
+        <v>0</v>
+      </c>
+      <c r="I81" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B82" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="C80" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H80" s="26">
-        <v>0</v>
-      </c>
-      <c r="I80" s="26">
-        <v>1</v>
-      </c>
-      <c r="J80" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="26" t="s">
+      <c r="C82" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G82" s="26">
+        <v>0</v>
+      </c>
+      <c r="H82" s="26">
+        <v>0</v>
+      </c>
+      <c r="I82" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B83" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="C81" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F81" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H81" s="26">
-        <v>0</v>
-      </c>
-      <c r="I81" s="26">
-        <v>1</v>
-      </c>
-      <c r="J81" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="27" t="s">
+      <c r="C83" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G83" s="26">
+        <v>0</v>
+      </c>
+      <c r="H83" s="26">
+        <v>0</v>
+      </c>
+      <c r="I83" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B84" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C82" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F82" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H82" s="26">
-        <v>0</v>
-      </c>
-      <c r="I82" s="26">
-        <v>1</v>
-      </c>
-      <c r="J82" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="27" t="s">
+      <c r="C84" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G84" s="26">
+        <v>0</v>
+      </c>
+      <c r="H84" s="26">
+        <v>0</v>
+      </c>
+      <c r="I84" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B85" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C83" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G83" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H83" s="26">
-        <v>0</v>
-      </c>
-      <c r="I83" s="26">
-        <v>1</v>
-      </c>
-      <c r="J83" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="26" t="s">
+      <c r="C85" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G85" s="26">
+        <v>0</v>
+      </c>
+      <c r="H85" s="26">
+        <v>0</v>
+      </c>
+      <c r="I85" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B86" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C84" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F84" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G84" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H84" s="26">
-        <v>0</v>
-      </c>
-      <c r="I84" s="26">
-        <v>1</v>
-      </c>
-      <c r="J84" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="26" t="s">
+      <c r="C86" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G86" s="26">
+        <v>0</v>
+      </c>
+      <c r="H86" s="26">
+        <v>0</v>
+      </c>
+      <c r="I86" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B87" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F85" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G85" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H85" s="26">
-        <v>0</v>
-      </c>
-      <c r="I85" s="26">
-        <v>1</v>
-      </c>
-      <c r="J85" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="26" t="s">
+      <c r="C87" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G87" s="26">
+        <v>0</v>
+      </c>
+      <c r="H87" s="26">
+        <v>0</v>
+      </c>
+      <c r="I87" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B88" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="C86" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G86" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H86" s="26">
-        <v>0</v>
-      </c>
-      <c r="I86" s="26">
-        <v>1</v>
-      </c>
-      <c r="J86" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="26" t="s">
+      <c r="C88" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G88" s="26">
+        <v>0</v>
+      </c>
+      <c r="H88" s="26">
+        <v>0</v>
+      </c>
+      <c r="I88" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B89" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C87" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G87" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H87" s="26">
-        <v>0</v>
-      </c>
-      <c r="I87" s="26">
-        <v>1</v>
-      </c>
-      <c r="J87" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="26" t="s">
+      <c r="C89" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" s="26">
+        <v>0</v>
+      </c>
+      <c r="H89" s="26">
+        <v>0</v>
+      </c>
+      <c r="I89" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B90" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C88" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G88" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H88" s="26">
-        <v>0</v>
-      </c>
-      <c r="I88" s="26">
-        <v>1</v>
-      </c>
-      <c r="J88" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="26" t="s">
+      <c r="C90" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G90" s="26">
+        <v>0</v>
+      </c>
+      <c r="H90" s="26">
+        <v>0</v>
+      </c>
+      <c r="I90" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B91" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G89" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H89" s="26">
-        <v>0</v>
-      </c>
-      <c r="I89" s="26">
-        <v>1</v>
-      </c>
-      <c r="J89" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="26" t="s">
+      <c r="C91" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G91" s="26">
+        <v>0</v>
+      </c>
+      <c r="H91" s="26">
+        <v>0</v>
+      </c>
+      <c r="I91" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B92" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C90" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F90" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G90" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H90" s="26">
-        <v>0</v>
-      </c>
-      <c r="I90" s="26">
-        <v>1</v>
-      </c>
-      <c r="J90" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="26" t="s">
+      <c r="C92" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G92" s="26">
+        <v>0</v>
+      </c>
+      <c r="H92" s="26">
+        <v>0</v>
+      </c>
+      <c r="I92" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B93" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="C91" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G91" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H91" s="26">
-        <v>0</v>
-      </c>
-      <c r="I91" s="26">
-        <v>1</v>
-      </c>
-      <c r="J91" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="26" t="s">
+      <c r="C93" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G93" s="26">
+        <v>0</v>
+      </c>
+      <c r="H93" s="26">
+        <v>0</v>
+      </c>
+      <c r="I93" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B94" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C92" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G92" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H92" s="26">
-        <v>0</v>
-      </c>
-      <c r="I92" s="26">
-        <v>1</v>
-      </c>
-      <c r="J92" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="26" t="s">
+      <c r="C94" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G94" s="26">
+        <v>0</v>
+      </c>
+      <c r="H94" s="26">
+        <v>0</v>
+      </c>
+      <c r="I94" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B95" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="C93" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G93" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H93" s="26">
-        <v>0</v>
-      </c>
-      <c r="I93" s="26">
-        <v>1</v>
-      </c>
-      <c r="J93" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="26" t="s">
+      <c r="C95" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" s="26">
+        <v>0</v>
+      </c>
+      <c r="H95" s="26">
+        <v>0</v>
+      </c>
+      <c r="I95" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B96" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C94" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G94" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H94" s="26">
-        <v>0</v>
-      </c>
-      <c r="I94" s="26">
-        <v>1</v>
-      </c>
-      <c r="J94" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="26" t="s">
+      <c r="C96" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G96" s="26">
+        <v>0</v>
+      </c>
+      <c r="H96" s="26">
+        <v>0</v>
+      </c>
+      <c r="I96" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B97" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="C95" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G95" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H95" s="26">
-        <v>0</v>
-      </c>
-      <c r="I95" s="26">
-        <v>1</v>
-      </c>
-      <c r="J95" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="26" t="s">
+      <c r="C97" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F97" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G97" s="26">
+        <v>0</v>
+      </c>
+      <c r="H97" s="26">
+        <v>0</v>
+      </c>
+      <c r="I97" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B98" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C96" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F96" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H96" s="26">
-        <v>0</v>
-      </c>
-      <c r="I96" s="26">
-        <v>1</v>
-      </c>
-      <c r="J96" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="26" t="s">
+      <c r="C98" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G98" s="26">
+        <v>0</v>
+      </c>
+      <c r="H98" s="26">
+        <v>0</v>
+      </c>
+      <c r="I98" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B99" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="C97" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F97" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G97" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H97" s="26">
-        <v>0</v>
-      </c>
-      <c r="I97" s="26">
-        <v>1</v>
-      </c>
-      <c r="J97" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="26" t="s">
+      <c r="C99" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G99" s="26">
+        <v>0</v>
+      </c>
+      <c r="H99" s="26">
+        <v>0</v>
+      </c>
+      <c r="I99" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B100" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G98" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H98" s="26">
-        <v>0</v>
-      </c>
-      <c r="I98" s="26">
-        <v>1</v>
-      </c>
-      <c r="J98" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="26" t="s">
+      <c r="C100" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G100" s="26">
+        <v>0</v>
+      </c>
+      <c r="H100" s="26">
+        <v>0</v>
+      </c>
+      <c r="I100" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B101" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="C99" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F99" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H99" s="26">
-        <v>0</v>
-      </c>
-      <c r="I99" s="26">
-        <v>1</v>
-      </c>
-      <c r="J99" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="26" t="s">
+      <c r="C101" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F101" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G101" s="26">
+        <v>0</v>
+      </c>
+      <c r="H101" s="26">
+        <v>0</v>
+      </c>
+      <c r="I101" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B102" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="C100" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G100" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H100" s="26">
-        <v>0</v>
-      </c>
-      <c r="I100" s="26">
-        <v>1</v>
-      </c>
-      <c r="J100" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F101" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G101" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H101" s="26">
-        <v>0</v>
-      </c>
-      <c r="I101" s="26">
-        <v>1</v>
-      </c>
-      <c r="J101" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>320</v>
-      </c>
       <c r="C102" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F102" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G102" s="26" t="s">
-        <v>89</v>
+        <v>203</v>
+      </c>
+      <c r="F102" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G102" s="26">
+        <v>0</v>
       </c>
       <c r="H102" s="26">
         <v>0</v>
@@ -11743,56 +11660,53 @@
       <c r="I102" s="26">
         <v>1</v>
       </c>
-      <c r="J102" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+    </row>
+    <row r="103" spans="1:9">
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:9">
       <c r="C104" s="26"/>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:9">
       <c r="C105" s="26"/>
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:9">
       <c r="C106" s="26"/>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:9">
       <c r="C107" s="26"/>
       <c r="D107" s="26"/>
       <c r="E107" s="26"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:9">
       <c r="C108" s="26"/>
       <c r="D108" s="26"/>
       <c r="E108" s="26"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:9">
       <c r="C109" s="26"/>
       <c r="D109" s="26"/>
       <c r="E109" s="26"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:9">
       <c r="C110" s="26"/>
       <c r="D110" s="26"/>
       <c r="E110" s="26"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:9">
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:9">
       <c r="C112" s="26"/>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
@@ -11838,12 +11752,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11856,10 +11770,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>79</v>
@@ -11868,547 +11782,547 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B22" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B23" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C23" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B24" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B25" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B27" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B28" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B29" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B30" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B41" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -12417,11 +12331,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -12434,7 +12348,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>79</v>
@@ -12443,27 +12357,27 @@
         <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>354</v>
-      </c>
-      <c r="B2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>358</v>
       </c>
       <c r="D2" s="30">
         <v>4.0000000000000002E-4</v>
@@ -12481,13 +12395,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D3" s="30">
         <v>8.0000000000000004E-4</v>
@@ -12505,13 +12419,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D4" s="30">
         <v>1.1000000000000001E-3</v>
@@ -12529,13 +12443,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D5" s="30">
         <v>1.38E-2</v>
@@ -12553,13 +12467,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D6" s="30">
         <v>8.0000000000000002E-3</v>
@@ -12577,13 +12491,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D7" s="30">
         <v>0.36699999999999999</v>
@@ -12601,13 +12515,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D8" s="30">
         <v>0.20499999999999999</v>
@@ -12625,13 +12539,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D9">
         <v>5.6</v>
@@ -12649,13 +12563,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -12673,13 +12587,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12697,13 +12611,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12721,13 +12635,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D13">
         <v>3.49</v>
@@ -12745,13 +12659,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D14">
         <v>7.17</v>
@@ -12769,13 +12683,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D15">
         <v>0.24</v>
@@ -12793,13 +12707,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D16">
         <v>0.95</v>
@@ -12817,13 +12731,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -12841,13 +12755,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D18">
         <v>3.74</v>
@@ -12865,13 +12779,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D19">
         <v>1.5</v>
@@ -12889,13 +12803,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D20">
         <v>2.2000000000000002</v>
@@ -12913,13 +12827,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D21">
         <v>1.42</v>
@@ -12937,13 +12851,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D22">
         <v>2.14</v>
@@ -12961,13 +12875,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D23">
         <v>0.66</v>
@@ -12985,13 +12899,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D24">
         <v>0.2</v>
@@ -13009,13 +12923,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D25" s="30">
         <v>2.5999999999999999E-2</v>
@@ -13033,13 +12947,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D26" s="30">
         <v>0.15</v>
@@ -13057,13 +12971,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D27" s="30">
         <v>0.1</v>
@@ -13081,13 +12995,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D28" s="30">
         <v>5.2999999999999999E-2</v>
@@ -13105,13 +13019,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D29" s="30">
         <v>0.16200000000000001</v>
@@ -13129,13 +13043,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D30" s="30">
         <v>0.11700000000000001</v>
@@ -13153,13 +13067,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D31" s="30">
         <v>0.09</v>
@@ -13177,13 +13091,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D32" s="30">
         <v>0.111</v>
@@ -13201,13 +13115,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D33" s="30">
         <v>0.16</v>
@@ -13225,13 +13139,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D34" s="30">
         <v>3.5999999999999999E-3</v>
@@ -13249,13 +13163,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D35" s="30">
         <v>3.5999999999999999E-3</v>
@@ -13273,13 +13187,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D36" s="30">
         <v>5.7999999999999996E-3</v>
@@ -13297,13 +13211,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D37" s="30">
         <v>8.8000000000000005E-3</v>
@@ -13321,13 +13235,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D38" s="30">
         <v>5.8999999999999997E-2</v>
@@ -13345,13 +13259,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D39" s="30">
         <v>0.32300000000000001</v>
@@ -13369,13 +13283,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D40" s="30">
         <v>0.23</v>
@@ -13393,13 +13307,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D41" s="30">
         <v>0.48780000000000001</v>
@@ -13417,13 +13331,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D42" s="30">
         <v>2.17</v>
@@ -13441,13 +13355,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D43" s="32">
         <v>0.95</v>
@@ -13465,13 +13379,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D44" s="32">
         <v>0.57999999999999996</v>
@@ -13489,13 +13403,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D45" s="32">
         <v>0</v>
@@ -13513,13 +13427,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D46" s="32">
         <v>2.65</v>
@@ -13537,13 +13451,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D47" s="32">
         <v>0.54</v>
@@ -13561,13 +13475,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D48" s="32">
         <v>0.9</v>
@@ -13585,13 +13499,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D49" s="32">
         <v>0.73</v>
@@ -13609,13 +13523,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D50" s="32">
         <v>0.5</v>
@@ -13633,13 +13547,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D51" s="32">
         <v>0.92</v>
@@ -13657,13 +13571,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D52">
         <v>0.15</v>
@@ -13681,13 +13595,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D53">
         <v>0.01</v>
@@ -13705,13 +13619,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D54">
         <v>0.02</v>
@@ -13729,13 +13643,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D55">
         <v>7.0000000000000007E-2</v>
@@ -13753,13 +13667,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D56">
         <v>0.27</v>
@@ -13777,13 +13691,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D57">
         <v>0.55000000000000004</v>
@@ -13801,13 +13715,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B58" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C58" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D58">
         <v>0.05</v>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="427">
   <si>
     <t>Code Label</t>
   </si>
@@ -309,9 +309,6 @@
     <t>exp</t>
   </si>
   <si>
-    <t>Force-of-infection (unitless)</t>
-  </si>
-  <si>
     <t>force</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>meta</t>
   </si>
   <si>
-    <t>Inhomogeneity (unitless)</t>
-  </si>
-  <si>
     <t>inhomo</t>
   </si>
   <si>
@@ -855,15 +849,9 @@
     <t>deathgt200</t>
   </si>
   <si>
-    <t>Death rate for CD4&gt;50 (per year)</t>
-  </si>
-  <si>
     <t>deathgt50</t>
   </si>
   <si>
-    <t>Death rate for CD4&lt;50 (per year)</t>
-  </si>
-  <si>
     <t>deathlt50</t>
   </si>
   <si>
@@ -1297,6 +1285,21 @@
   </si>
   <si>
     <t>advanced</t>
+  </si>
+  <si>
+    <t>Force-of-infection</t>
+  </si>
+  <si>
+    <t>Inhomogeneity</t>
+  </si>
+  <si>
+    <t>Death rate for AIDS (CD4&gt;50) (per year)</t>
+  </si>
+  <si>
+    <t>Death rate for AIDS (CD4&lt;50) (per year)</t>
+  </si>
+  <si>
+    <t>numvlmon</t>
   </si>
 </sst>
 </file>
@@ -3616,7 +3619,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3688,6 +3691,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2016">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -6029,33 +6033,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6063,7 +6067,7 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6071,7 +6075,7 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6079,7 +6083,7 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6087,7 +6091,7 @@
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6095,7 +6099,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6103,7 +6107,7 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6111,15 +6115,15 @@
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6127,7 +6131,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6135,15 +6139,15 @@
         <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B26" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6151,7 +6155,7 @@
         <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -8685,8 +8689,8 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8720,10 +8724,10 @@
         <v>82</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>84</v>
@@ -8763,19 +8767,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>98</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>91</v>
@@ -8792,21 +8796,21 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>423</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>91</v>
       </c>
       <c r="G4" s="26">
@@ -8850,22 +8854,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="26">
         <v>1</v>
@@ -8879,22 +8883,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="26">
         <v>1</v>
@@ -8908,22 +8912,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>118</v>
-      </c>
       <c r="E8" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="26">
         <v>1</v>
@@ -8937,10 +8941,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>90</v>
@@ -8949,10 +8953,10 @@
         <v>91</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="26">
         <v>1</v>
@@ -8966,10 +8970,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>90</v>
@@ -8978,10 +8982,10 @@
         <v>91</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="26">
         <v>1</v>
@@ -8995,22 +8999,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="26">
         <v>1</v>
@@ -9024,22 +9028,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="26">
         <v>1</v>
@@ -9053,10 +9057,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>90</v>
@@ -9065,10 +9069,10 @@
         <v>91</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="26">
         <v>1</v>
@@ -9082,22 +9086,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="26">
         <v>1</v>
@@ -9111,22 +9115,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>131</v>
-      </c>
       <c r="E15" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="26">
         <v>1</v>
@@ -9140,22 +9144,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="G16" s="26">
         <v>1</v>
@@ -9169,51 +9173,51 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="26" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G17" s="26">
         <v>1</v>
       </c>
       <c r="H17" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="26" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="G18" s="26">
         <v>1</v>
@@ -9226,23 +9230,23 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="26" t="s">
-        <v>144</v>
+      <c r="A19" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="G19" s="26">
         <v>1</v>
@@ -9256,22 +9260,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>148</v>
+        <v>172</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="G20" s="26">
         <v>1</v>
@@ -9285,22 +9289,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>151</v>
+        <v>174</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="G21" s="26">
         <v>1</v>
@@ -9314,51 +9318,51 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="26" t="s">
-        <v>158</v>
+        <v>426</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="26">
-        <v>1</v>
-      </c>
-      <c r="H22" s="26">
-        <v>0</v>
-      </c>
-      <c r="I22" s="26">
+        <v>111</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="36">
+        <v>1</v>
+      </c>
+      <c r="H22" s="36">
+        <v>1</v>
+      </c>
+      <c r="I22" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="26" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G23" s="26">
         <v>1</v>
@@ -9367,27 +9371,27 @@
         <v>0</v>
       </c>
       <c r="I23" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="26" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G24" s="26">
         <v>1</v>
@@ -9396,27 +9400,27 @@
         <v>0</v>
       </c>
       <c r="I24" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="26" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G25" s="26">
         <v>1</v>
@@ -9425,56 +9429,56 @@
         <v>0</v>
       </c>
       <c r="I25" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="26" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G26" s="26">
         <v>1</v>
       </c>
       <c r="H26" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="26" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G27" s="26">
         <v>1</v>
@@ -9483,178 +9487,178 @@
         <v>0</v>
       </c>
       <c r="I27" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="26" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="G28" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="26">
         <v>0</v>
       </c>
       <c r="I28" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="26" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="G29" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="26">
         <v>0</v>
       </c>
       <c r="I29" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="27" t="s">
-        <v>172</v>
+      <c r="A30" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="G30" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="26">
         <v>0</v>
       </c>
       <c r="I30" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>173</v>
+        <v>195</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>194</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="G31" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="26">
         <v>0</v>
       </c>
       <c r="I31" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>175</v>
+        <v>197</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="G32" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="26">
         <v>0</v>
       </c>
       <c r="I32" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="26" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G33" s="26">
         <v>1</v>
       </c>
       <c r="H33" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="26">
         <v>0</v>
@@ -9662,22 +9666,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="26" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="G34" s="26">
         <v>1</v>
@@ -9686,27 +9690,27 @@
         <v>0</v>
       </c>
       <c r="I34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="26" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="G35" s="26">
         <v>1</v>
@@ -9715,27 +9719,27 @@
         <v>0</v>
       </c>
       <c r="I35" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="26" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="G36" s="26">
         <v>1</v>
@@ -9744,27 +9748,27 @@
         <v>0</v>
       </c>
       <c r="I36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="26" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="G37" s="26">
         <v>1</v>
@@ -9773,175 +9777,175 @@
         <v>0</v>
       </c>
       <c r="I37" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="26" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="G38" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="26">
         <v>0</v>
       </c>
       <c r="I38" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="26" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="G39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="26">
         <v>0</v>
       </c>
       <c r="I39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="26" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="G40" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="26">
         <v>0</v>
       </c>
       <c r="I40" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="26" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>191</v>
+        <v>111</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="G41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="26">
         <v>0</v>
       </c>
       <c r="I41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="26" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>191</v>
+        <v>111</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="G42" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="26" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G43" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="26">
         <v>0</v>
@@ -9952,22 +9956,22 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>106</v>
       </c>
       <c r="G44" s="26">
         <v>0</v>
@@ -9981,22 +9985,22 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>106</v>
       </c>
       <c r="G45" s="26">
         <v>0</v>
@@ -10010,22 +10014,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="26" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="G46" s="26">
         <v>0</v>
@@ -10039,22 +10043,22 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="26" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G47" s="26">
         <v>0</v>
@@ -10068,22 +10072,22 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E48" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G48" s="26">
         <v>0</v>
@@ -10097,22 +10101,22 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="26" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E49" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G49" s="26">
         <v>0</v>
@@ -10126,22 +10130,22 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="26" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E50" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G50" s="26">
         <v>0</v>
@@ -10155,22 +10159,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E51" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G51" s="26">
         <v>0</v>
@@ -10184,22 +10188,22 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E52" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G52" s="26">
         <v>0</v>
@@ -10213,22 +10217,22 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G53" s="26">
         <v>0</v>
@@ -10242,22 +10246,22 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G54" s="26">
         <v>0</v>
@@ -10271,22 +10275,22 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G55" s="26">
         <v>0</v>
@@ -10300,22 +10304,22 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G56" s="26">
         <v>0</v>
@@ -10329,22 +10333,22 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E57" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G57" s="26">
         <v>0</v>
@@ -10358,22 +10362,22 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E58" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G58" s="26">
         <v>0</v>
@@ -10387,22 +10391,22 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="26" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E59" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G59" s="26">
         <v>0</v>
@@ -10416,22 +10420,22 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="26" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E60" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G60" s="26">
         <v>0</v>
@@ -10445,22 +10449,22 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="26" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E61" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G61" s="26">
         <v>0</v>
@@ -10474,22 +10478,22 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E62" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G62" s="26">
         <v>0</v>
@@ -10503,22 +10507,22 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E63" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G63" s="26">
         <v>0</v>
@@ -10532,22 +10536,22 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>236</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E64" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G64" s="26">
         <v>0</v>
@@ -10561,22 +10565,22 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E65" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G65" s="26">
         <v>0</v>
@@ -10590,22 +10594,22 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="26" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E66" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G66" s="26">
         <v>0</v>
@@ -10619,22 +10623,22 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="26" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E67" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G67" s="26">
         <v>0</v>
@@ -10648,22 +10652,22 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E68" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G68" s="26">
         <v>0</v>
@@ -10677,22 +10681,22 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E69" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G69" s="26">
         <v>0</v>
@@ -10706,22 +10710,22 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E70" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G70" s="26">
         <v>0</v>
@@ -10735,22 +10739,22 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="26" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G71" s="26">
         <v>0</v>
@@ -10764,22 +10768,22 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>252</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G72" s="26">
         <v>0</v>
@@ -10793,22 +10797,22 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G73" s="26">
         <v>0</v>
@@ -10822,22 +10826,22 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G74" s="26">
         <v>0</v>
@@ -10851,22 +10855,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G75" s="26">
         <v>0</v>
@@ -10880,22 +10884,22 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G76" s="26">
         <v>0</v>
@@ -10909,22 +10913,22 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G77" s="26">
         <v>0</v>
@@ -10938,22 +10942,22 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F78" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G78" s="26">
         <v>0</v>
@@ -10967,22 +10971,22 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G79" s="26">
         <v>0</v>
@@ -10996,22 +11000,22 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G80" s="26">
         <v>0</v>
@@ -11025,22 +11029,22 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F81" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G81" s="26">
         <v>0</v>
@@ -11053,23 +11057,23 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>276</v>
+      <c r="A82" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F82" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G82" s="26">
         <v>0</v>
@@ -11083,51 +11087,51 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="27" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E83" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G83" s="26">
+        <v>0</v>
+      </c>
+      <c r="H83" s="26">
+        <v>0</v>
+      </c>
+      <c r="I83" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F84" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="G83" s="26">
-        <v>0</v>
-      </c>
-      <c r="H83" s="26">
-        <v>0</v>
-      </c>
-      <c r="I83" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F84" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G84" s="26">
         <v>0</v>
@@ -11141,22 +11145,22 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>425</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E85" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F85" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F85" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G85" s="26">
         <v>0</v>
@@ -11170,22 +11174,22 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E86" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G86" s="26">
         <v>0</v>
@@ -11199,22 +11203,22 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="26" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E87" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G87" s="26">
         <v>0</v>
@@ -11228,22 +11232,22 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="26" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G88" s="26">
         <v>0</v>
@@ -11257,22 +11261,22 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="26" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E89" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G89" s="26">
         <v>0</v>
@@ -11286,22 +11290,22 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="26" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E90" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F90" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F90" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G90" s="26">
         <v>0</v>
@@ -11315,22 +11319,22 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="26" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E91" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F91" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G91" s="26">
         <v>0</v>
@@ -11344,22 +11348,22 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="26" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E92" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G92" s="26">
         <v>0</v>
@@ -11373,22 +11377,22 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="26" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E93" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G93" s="26">
         <v>0</v>
@@ -11402,22 +11406,22 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="26" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E94" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F94" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G94" s="26">
         <v>0</v>
@@ -11431,22 +11435,22 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="26" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E95" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F95" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G95" s="26">
         <v>0</v>
@@ -11460,22 +11464,22 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E96" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F96" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="F96" s="36" t="s">
-        <v>425</v>
       </c>
       <c r="G96" s="26">
         <v>0</v>
@@ -11489,22 +11493,22 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="26" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G97" s="26">
         <v>0</v>
@@ -11518,22 +11522,22 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="26" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G98" s="26">
         <v>0</v>
@@ -11547,22 +11551,22 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="26" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F99" s="36" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G99" s="26">
         <v>0</v>
@@ -11576,22 +11580,22 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="26" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G100" s="26">
         <v>0</v>
@@ -11605,22 +11609,22 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="26" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F101" s="36" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G101" s="26">
         <v>0</v>
@@ -11634,22 +11638,22 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="26" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G102" s="26">
         <v>0</v>
@@ -11662,9 +11666,33 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
+      <c r="A103" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F103" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G103" s="26">
+        <v>0</v>
+      </c>
+      <c r="H103" s="26">
+        <v>0</v>
+      </c>
+      <c r="I103" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:9">
       <c r="C104" s="26"/>
@@ -11677,9 +11705,7 @@
       <c r="E105" s="26"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="C106" s="26"/>
       <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
     </row>
     <row r="107" spans="1:9">
       <c r="C107" s="26"/>
@@ -11770,10 +11796,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>79</v>
@@ -11782,21 +11808,21 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -11804,16 +11830,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11821,7 +11847,7 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
@@ -11832,497 +11858,497 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B21" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B23" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B25" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B27" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B28" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B35" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B36" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C43" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C45" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C46" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -12348,7 +12374,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>79</v>
@@ -12357,27 +12383,27 @@
         <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>350</v>
-      </c>
-      <c r="B2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>354</v>
       </c>
       <c r="D2" s="30">
         <v>4.0000000000000002E-4</v>
@@ -12395,13 +12421,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D3" s="30">
         <v>8.0000000000000004E-4</v>
@@ -12419,13 +12445,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D4" s="30">
         <v>1.1000000000000001E-3</v>
@@ -12443,13 +12469,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D5" s="30">
         <v>1.38E-2</v>
@@ -12467,13 +12493,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D6" s="30">
         <v>8.0000000000000002E-3</v>
@@ -12491,13 +12517,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D7" s="30">
         <v>0.36699999999999999</v>
@@ -12515,13 +12541,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D8" s="30">
         <v>0.20499999999999999</v>
@@ -12539,13 +12565,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D9">
         <v>5.6</v>
@@ -12563,13 +12589,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -12587,13 +12613,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12611,13 +12637,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12635,13 +12661,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D13">
         <v>3.49</v>
@@ -12659,13 +12685,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D14">
         <v>7.17</v>
@@ -12683,13 +12709,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D15">
         <v>0.24</v>
@@ -12707,13 +12733,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D16">
         <v>0.95</v>
@@ -12731,13 +12757,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -12755,13 +12781,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D18">
         <v>3.74</v>
@@ -12779,13 +12805,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D19">
         <v>1.5</v>
@@ -12803,13 +12829,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="31" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D20">
         <v>2.2000000000000002</v>
@@ -12827,13 +12853,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="31" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D21">
         <v>1.42</v>
@@ -12851,13 +12877,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="31" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D22">
         <v>2.14</v>
@@ -12875,13 +12901,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="31" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D23">
         <v>0.66</v>
@@ -12899,13 +12925,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="31" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D24">
         <v>0.2</v>
@@ -12923,13 +12949,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D25" s="30">
         <v>2.5999999999999999E-2</v>
@@ -12947,13 +12973,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D26" s="30">
         <v>0.15</v>
@@ -12971,13 +12997,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D27" s="30">
         <v>0.1</v>
@@ -12995,13 +13021,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D28" s="30">
         <v>5.2999999999999999E-2</v>
@@ -13019,13 +13045,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D29" s="30">
         <v>0.16200000000000001</v>
@@ -13043,13 +13069,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D30" s="30">
         <v>0.11700000000000001</v>
@@ -13067,13 +13093,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D31" s="30">
         <v>0.09</v>
@@ -13091,13 +13117,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D32" s="30">
         <v>0.111</v>
@@ -13115,13 +13141,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D33" s="30">
         <v>0.16</v>
@@ -13139,13 +13165,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D34" s="30">
         <v>3.5999999999999999E-3</v>
@@ -13163,13 +13189,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D35" s="30">
         <v>3.5999999999999999E-3</v>
@@ -13187,13 +13213,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D36" s="30">
         <v>5.7999999999999996E-3</v>
@@ -13211,13 +13237,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D37" s="30">
         <v>8.8000000000000005E-3</v>
@@ -13235,13 +13261,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D38" s="30">
         <v>5.8999999999999997E-2</v>
@@ -13259,13 +13285,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D39" s="30">
         <v>0.32300000000000001</v>
@@ -13283,13 +13309,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D40" s="30">
         <v>0.23</v>
@@ -13307,13 +13333,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D41" s="30">
         <v>0.48780000000000001</v>
@@ -13331,13 +13357,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D42" s="30">
         <v>2.17</v>
@@ -13355,13 +13381,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D43" s="32">
         <v>0.95</v>
@@ -13379,13 +13405,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D44" s="32">
         <v>0.57999999999999996</v>
@@ -13403,13 +13429,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D45" s="32">
         <v>0</v>
@@ -13427,13 +13453,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D46" s="32">
         <v>2.65</v>
@@ -13451,13 +13477,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D47" s="32">
         <v>0.54</v>
@@ -13475,13 +13501,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D48" s="32">
         <v>0.9</v>
@@ -13499,13 +13525,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D49" s="32">
         <v>0.73</v>
@@ -13523,13 +13549,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D50" s="32">
         <v>0.5</v>
@@ -13547,13 +13573,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D51" s="32">
         <v>0.92</v>
@@ -13571,13 +13597,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D52">
         <v>0.15</v>
@@ -13595,13 +13621,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D53">
         <v>0.01</v>
@@ -13619,13 +13645,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D54">
         <v>0.02</v>
@@ -13643,13 +13669,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D55">
         <v>7.0000000000000007E-2</v>
@@ -13667,13 +13693,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D56">
         <v>0.27</v>
@@ -13691,13 +13717,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D57">
         <v>0.55000000000000004</v>
@@ -13715,13 +13741,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D58">
         <v>0.05</v>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="429">
   <si>
     <t>Code Label</t>
   </si>
@@ -1300,6 +1300,12 @@
   </si>
   <si>
     <t>numvlmon</t>
+  </si>
+  <si>
+    <t>Number of VL tests recommended per person per year</t>
+  </si>
+  <si>
+    <t>requiredvl</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1607,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2016">
+  <cellStyleXfs count="2116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3618,6 +3624,106 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3693,7 +3799,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2016">
+  <cellStyles count="2116">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
     <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
     <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
@@ -4649,6 +4755,56 @@
     <cellStyle name="Followed Hyperlink" xfId="2011" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2013" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2015" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2017" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2019" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2021" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2023" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2025" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2027" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2029" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2031" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2033" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2035" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2037" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2039" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2041" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2043" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2045" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2047" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2049" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2051" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2053" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2055" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2057" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2059" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2061" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2063" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2065" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2067" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2069" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2071" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2073" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2075" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2077" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2079" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2081" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2083" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2085" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2087" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2089" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2091" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2093" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2095" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2097" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2099" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="70"/>
     <cellStyle name="Followed Hyperlink 11" xfId="71"/>
     <cellStyle name="Followed Hyperlink 12" xfId="72"/>
@@ -5686,6 +5842,56 @@
     <cellStyle name="Hyperlink" xfId="2010" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2012" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2014" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2016" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2018" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2020" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2022" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2024" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2026" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2028" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2030" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2032" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2034" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2036" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2038" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2040" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2042" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2044" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2046" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2048" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2050" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2052" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2054" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2056" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2058" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2060" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2062" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2064" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2066" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2068" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2070" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2072" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2074" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2076" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2078" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2080" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2082" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2084" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2086" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2088" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2090" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2092" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2094" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2096" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2098" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2114" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="45"/>
@@ -8689,8 +8895,8 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10739,13 +10945,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>250</v>
+        <v>428</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>116</v>
@@ -10753,25 +10959,25 @@
       <c r="E71" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F71" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="G71" s="26">
-        <v>0</v>
-      </c>
-      <c r="H71" s="26">
-        <v>0</v>
-      </c>
-      <c r="I71" s="26">
+      <c r="F71" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G71" s="36">
+        <v>0</v>
+      </c>
+      <c r="H71" s="36">
+        <v>0</v>
+      </c>
+      <c r="I71" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>102</v>
@@ -10797,10 +11003,10 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>252</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>102</v>
@@ -10826,10 +11032,10 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>102</v>
@@ -10855,10 +11061,10 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>102</v>
@@ -10884,10 +11090,10 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>102</v>
@@ -10913,10 +11119,10 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>102</v>
@@ -10942,10 +11148,10 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>102</v>
@@ -10971,10 +11177,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>102</v>
@@ -11000,10 +11206,10 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>102</v>
@@ -11029,10 +11235,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>102</v>
@@ -11058,10 +11264,10 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>102</v>
@@ -11086,11 +11292,11 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>274</v>
+      <c r="A83" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>102</v>
@@ -11116,10 +11322,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>424</v>
+        <v>275</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>102</v>
@@ -11130,8 +11336,8 @@
       <c r="E84" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="26" t="s">
-        <v>203</v>
+      <c r="F84" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G84" s="26">
         <v>0</v>
@@ -11144,11 +11350,11 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B85" s="36" t="s">
-        <v>425</v>
+      <c r="A85" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>424</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>102</v>
@@ -11174,13 +11380,13 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>425</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D86" s="26" t="s">
         <v>116</v>
@@ -11203,10 +11409,10 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>97</v>
@@ -11232,10 +11438,10 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>97</v>
@@ -11246,8 +11452,8 @@
       <c r="E88" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F88" s="36" t="s">
-        <v>421</v>
+      <c r="F88" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="G88" s="26">
         <v>0</v>
@@ -11261,13 +11467,13 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D89" s="26" t="s">
         <v>116</v>
@@ -11275,8 +11481,8 @@
       <c r="E89" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F89" s="26" t="s">
-        <v>203</v>
+      <c r="F89" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G89" s="26">
         <v>0</v>
@@ -11290,10 +11496,10 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>90</v>
@@ -11319,10 +11525,10 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>90</v>
@@ -11348,10 +11554,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>90</v>
@@ -11377,10 +11583,10 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>90</v>
@@ -11406,10 +11612,10 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>90</v>
@@ -11435,10 +11641,10 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>90</v>
@@ -11464,10 +11670,10 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>90</v>
@@ -11493,10 +11699,10 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>90</v>
@@ -11507,8 +11713,8 @@
       <c r="E97" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F97" s="36" t="s">
-        <v>421</v>
+      <c r="F97" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="G97" s="26">
         <v>0</v>
@@ -11522,10 +11728,10 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>90</v>
@@ -11551,10 +11757,10 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>90</v>
@@ -11580,10 +11786,10 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>90</v>
@@ -11609,10 +11815,10 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>90</v>
@@ -11638,10 +11844,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>90</v>
@@ -11667,10 +11873,10 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>90</v>
@@ -11695,14 +11901,36 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
+      <c r="A104" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F104" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G104" s="26">
+        <v>0</v>
+      </c>
+      <c r="H104" s="26">
+        <v>0</v>
+      </c>
+      <c r="I104" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="C105" s="26"/>
       <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
     </row>
     <row r="106" spans="1:9">
       <c r="D106" s="26"/>
@@ -11783,7 +12011,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12359,10 +12587,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12439,7 +12667,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="G3" t="b">
-        <f t="shared" ref="G3:G58" si="0">AND(D3&gt;=E3, D3&lt;=F3)</f>
+        <f t="shared" ref="G3:G59" si="0">AND(D3&gt;=E3, D3&lt;=F3)</f>
         <v>1</v>
       </c>
     </row>
@@ -12948,23 +13176,23 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>251</v>
+      <c r="A25" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>428</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D25" s="30">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E25" s="30">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F25" s="30">
-        <v>0.27500000000000002</v>
+        <v>427</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1.5</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
       </c>
       <c r="G25" t="b">
         <f t="shared" si="0"/>
@@ -12976,19 +13204,19 @@
         <v>394</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D26" s="30">
-        <v>0.15</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E26" s="30">
-        <v>3.7999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F26" s="30">
-        <v>0.88500000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G26" t="b">
         <f t="shared" si="0"/>
@@ -13000,19 +13228,19 @@
         <v>394</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D27" s="30">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E27" s="30">
-        <v>2.1999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F27" s="30">
-        <v>0.87</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="G27" t="b">
         <f t="shared" si="0"/>
@@ -13024,19 +13252,19 @@
         <v>394</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D28" s="30">
-        <v>5.2999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="30">
-        <v>8.0000000000000002E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F28" s="30">
-        <v>0.82699999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="G28" t="b">
         <f t="shared" si="0"/>
@@ -13048,19 +13276,19 @@
         <v>394</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D29" s="30">
-        <v>0.16200000000000001</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E29" s="30">
-        <v>0.05</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F29" s="30">
-        <v>0.86899999999999999</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="G29" t="b">
         <f t="shared" si="0"/>
@@ -13072,19 +13300,19 @@
         <v>394</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D30" s="30">
-        <v>0.11700000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="E30" s="30">
-        <v>3.2000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F30" s="30">
-        <v>0.68600000000000005</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="G30" t="b">
         <f t="shared" si="0"/>
@@ -13096,19 +13324,19 @@
         <v>394</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D31" s="30">
-        <v>0.09</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E31" s="30">
-        <v>1.9E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F31" s="30">
-        <v>0.72299999999999998</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="G31" t="b">
         <f t="shared" si="0"/>
@@ -13120,19 +13348,19 @@
         <v>394</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D32" s="30">
-        <v>0.111</v>
+        <v>0.09</v>
       </c>
       <c r="E32" s="30">
-        <v>4.7E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F32" s="30">
-        <v>0.56299999999999994</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="G32" t="b">
         <f t="shared" si="0"/>
@@ -13144,19 +13372,19 @@
         <v>394</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="D33" s="30">
-        <v>0.16</v>
+        <v>0.111</v>
       </c>
       <c r="E33" s="30">
-        <v>0.05</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F33" s="30">
-        <v>0.26</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="G33" t="b">
         <f t="shared" si="0"/>
@@ -13164,23 +13392,23 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="31" t="s">
-        <v>393</v>
+      <c r="A34" s="34" t="s">
+        <v>394</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>357</v>
+        <v>266</v>
       </c>
       <c r="D34" s="30">
-        <v>3.5999999999999999E-3</v>
+        <v>0.16</v>
       </c>
       <c r="E34" s="30">
-        <v>2.8999999999999998E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F34" s="30">
-        <v>4.4000000000000003E-3</v>
+        <v>0.26</v>
       </c>
       <c r="G34" t="b">
         <f t="shared" si="0"/>
@@ -13192,10 +13420,10 @@
         <v>393</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D35" s="30">
         <v>3.5999999999999999E-3</v>
@@ -13216,19 +13444,19 @@
         <v>393</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D36" s="30">
-        <v>5.7999999999999996E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="E36" s="30">
-        <v>4.7999999999999996E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F36" s="30">
-        <v>7.1000000000000004E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="G36" t="b">
         <f t="shared" si="0"/>
@@ -13240,19 +13468,19 @@
         <v>393</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D37" s="30">
-        <v>8.8000000000000005E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="E37" s="30">
-        <v>7.4999999999999997E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F37" s="30">
-        <v>1.01E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="G37" t="b">
         <f t="shared" si="0"/>
@@ -13264,19 +13492,19 @@
         <v>393</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D38" s="30">
-        <v>5.8999999999999997E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="E38" s="30">
-        <v>5.3999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F38" s="30">
-        <v>7.9000000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="G38" t="b">
         <f t="shared" si="0"/>
@@ -13288,19 +13516,19 @@
         <v>393</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D39" s="30">
-        <v>0.32300000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E39" s="30">
-        <v>0.29599999999999999</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F39" s="30">
-        <v>0.432</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="G39" t="b">
         <f t="shared" si="0"/>
@@ -13312,19 +13540,19 @@
         <v>393</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D40" s="30">
-        <v>0.23</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E40" s="30">
-        <v>0.15</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F40" s="30">
-        <v>0.3</v>
+        <v>0.432</v>
       </c>
       <c r="G40" t="b">
         <f t="shared" si="0"/>
@@ -13336,19 +13564,19 @@
         <v>393</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D41" s="30">
-        <v>0.48780000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="E41" s="30">
-        <v>0.28349999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="F41" s="30">
-        <v>0.8417</v>
+        <v>0.3</v>
       </c>
       <c r="G41" t="b">
         <f t="shared" si="0"/>
@@ -13360,19 +13588,19 @@
         <v>393</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D42" s="30">
-        <v>2.17</v>
+        <v>0.48780000000000001</v>
       </c>
       <c r="E42" s="30">
-        <v>1.27</v>
+        <v>0.28349999999999997</v>
       </c>
       <c r="F42" s="30">
-        <v>3.71</v>
+        <v>0.8417</v>
       </c>
       <c r="G42" t="b">
         <f t="shared" si="0"/>
@@ -13381,22 +13609,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="D43" s="32">
-        <v>0.95</v>
-      </c>
-      <c r="E43" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="F43" s="32">
-        <v>0.98</v>
+        <v>374</v>
+      </c>
+      <c r="D43" s="30">
+        <v>2.17</v>
+      </c>
+      <c r="E43" s="30">
+        <v>1.27</v>
+      </c>
+      <c r="F43" s="30">
+        <v>3.71</v>
       </c>
       <c r="G43" t="b">
         <f t="shared" si="0"/>
@@ -13408,19 +13636,19 @@
         <v>392</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D44" s="32">
-        <v>0.57999999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="E44" s="32">
-        <v>0.47</v>
+        <v>0.8</v>
       </c>
       <c r="F44" s="32">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
         <f t="shared" si="0"/>
@@ -13432,19 +13660,19 @@
         <v>392</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D45" s="32">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E45" s="32">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F45" s="32">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="G45" t="b">
         <f t="shared" si="0"/>
@@ -13456,19 +13684,19 @@
         <v>392</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D46" s="32">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="E46" s="32">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="F46" s="32">
-        <v>5.19</v>
+        <v>0.68</v>
       </c>
       <c r="G46" t="b">
         <f t="shared" si="0"/>
@@ -13480,19 +13708,19 @@
         <v>392</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D47" s="32">
-        <v>0.54</v>
+        <v>2.65</v>
       </c>
       <c r="E47" s="32">
-        <v>0.33</v>
+        <v>1.35</v>
       </c>
       <c r="F47" s="32">
-        <v>0.68</v>
+        <v>5.19</v>
       </c>
       <c r="G47" t="b">
         <f t="shared" si="0"/>
@@ -13504,19 +13732,19 @@
         <v>392</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D48" s="32">
-        <v>0.9</v>
+        <v>0.54</v>
       </c>
       <c r="E48" s="32">
-        <v>0.82</v>
+        <v>0.33</v>
       </c>
       <c r="F48" s="32">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="G48" t="b">
         <f t="shared" si="0"/>
@@ -13528,19 +13756,19 @@
         <v>392</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D49" s="32">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="E49" s="32">
-        <v>0.65</v>
+        <v>0.82</v>
       </c>
       <c r="F49" s="32">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="G49" t="b">
         <f t="shared" si="0"/>
@@ -13552,16 +13780,16 @@
         <v>392</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D50" s="32">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="E50" s="32">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="F50" s="32">
         <v>0.8</v>
@@ -13576,19 +13804,19 @@
         <v>392</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D51" s="32">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="F51" s="32">
         <v>0.8</v>
-      </c>
-      <c r="F51" s="32">
-        <v>0.95</v>
       </c>
       <c r="G51" t="b">
         <f t="shared" si="0"/>
@@ -13596,23 +13824,23 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="11" t="s">
-        <v>391</v>
+      <c r="A52" s="31" t="s">
+        <v>392</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D52">
-        <v>0.15</v>
-      </c>
-      <c r="E52">
-        <v>0.1</v>
-      </c>
-      <c r="F52">
-        <v>0.21</v>
+        <v>383</v>
+      </c>
+      <c r="D52" s="32">
+        <v>0.92</v>
+      </c>
+      <c r="E52" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="F52" s="32">
+        <v>0.95</v>
       </c>
       <c r="G52" t="b">
         <f t="shared" si="0"/>
@@ -13624,19 +13852,19 @@
         <v>391</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D53">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="E53">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F53">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
       <c r="G53" t="b">
         <f t="shared" si="0"/>
@@ -13648,19 +13876,19 @@
         <v>391</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D54">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E54">
         <v>0.01</v>
       </c>
       <c r="F54">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G54" t="b">
         <f t="shared" si="0"/>
@@ -13672,19 +13900,19 @@
         <v>391</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D55">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E55">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F55">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="G55" t="b">
         <f t="shared" si="0"/>
@@ -13699,16 +13927,16 @@
         <v>307</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D56">
-        <v>0.27</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E56">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="F56">
-        <v>0.47</v>
+        <v>0.09</v>
       </c>
       <c r="G56" t="b">
         <f t="shared" si="0"/>
@@ -13720,19 +13948,19 @@
         <v>391</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D57">
-        <v>0.55000000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="E57">
-        <v>0.38</v>
+        <v>0.11</v>
       </c>
       <c r="F57">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="G57" t="b">
         <f t="shared" si="0"/>
@@ -13743,22 +13971,46 @@
       <c r="A58" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D58">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E58">
+        <v>0.38</v>
+      </c>
+      <c r="F58">
+        <v>0.72</v>
+      </c>
+      <c r="G58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B59" t="s">
         <v>313</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>390</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>0.05</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>0.03</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>0.08</v>
       </c>
-      <c r="G58" t="b">
+      <c r="G59" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="429">
   <si>
     <t>Code Label</t>
   </si>
@@ -8892,11 +8892,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9436,17 +9436,17 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>169</v>
+      <c r="A19" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>111</v>
@@ -9466,16 +9466,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>111</v>
@@ -9495,13 +9495,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>173</v>
+        <v>426</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>116</v>
@@ -9509,28 +9509,28 @@
       <c r="E21" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="26">
-        <v>1</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0</v>
-      </c>
-      <c r="I21" s="26">
+      <c r="G21" s="36">
+        <v>1</v>
+      </c>
+      <c r="H21" s="36">
+        <v>1</v>
+      </c>
+      <c r="I21" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="26" t="s">
-        <v>426</v>
+        <v>176</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>116</v>
@@ -9538,25 +9538,25 @@
       <c r="E22" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="36">
-        <v>1</v>
-      </c>
-      <c r="H22" s="36">
-        <v>1</v>
-      </c>
-      <c r="I22" s="36">
-        <v>1</v>
+      <c r="F22" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>90</v>
@@ -9582,10 +9582,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>90</v>
@@ -9611,10 +9611,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>90</v>
@@ -9640,10 +9640,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>90</v>
@@ -9669,25 +9669,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>116</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G27" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="26">
         <v>0</v>
@@ -9698,10 +9698,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="26" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>187</v>
@@ -9727,10 +9727,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>187</v>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>187</v>
@@ -9785,10 +9785,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>187</v>
@@ -9814,28 +9814,28 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="26" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="G32" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="26">
         <v>0</v>
@@ -9843,13 +9843,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>132</v>
@@ -9857,31 +9857,31 @@
       <c r="E33" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="26" t="s">
-        <v>104</v>
+      <c r="F33" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="G33" s="26">
         <v>1</v>
       </c>
       <c r="H33" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="26" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>111</v>
@@ -9901,10 +9901,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>144</v>
@@ -9930,10 +9930,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>144</v>
@@ -9959,13 +9959,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="26" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>145</v>
@@ -9973,7 +9973,7 @@
       <c r="E37" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G37" s="26">
@@ -9988,10 +9988,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>90</v>
@@ -10017,10 +10017,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>90</v>
@@ -10046,13 +10046,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="26" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>145</v>
@@ -10060,7 +10060,7 @@
       <c r="E40" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="36" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="26">
@@ -10075,16 +10075,16 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="26" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>111</v>
@@ -10096,7 +10096,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="26">
         <v>1</v>
@@ -10104,28 +10104,28 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G42" s="26">
         <v>1</v>
       </c>
       <c r="H42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="26">
         <v>1</v>
@@ -10133,25 +10133,25 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="26" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G43" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="26">
         <v>0</v>
@@ -10162,10 +10162,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="26" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>102</v>
@@ -10191,10 +10191,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>102</v>
@@ -10220,22 +10220,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="26" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="G46" s="26">
         <v>0</v>
@@ -10249,10 +10249,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>90</v>
@@ -10278,10 +10278,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>90</v>
@@ -10307,10 +10307,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>90</v>
@@ -10336,10 +10336,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>90</v>
@@ -10365,10 +10365,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>90</v>
@@ -10394,10 +10394,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>90</v>
@@ -10423,13 +10423,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>116</v>
@@ -10452,10 +10452,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>97</v>
@@ -10481,10 +10481,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>97</v>
@@ -10510,10 +10510,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>97</v>
@@ -10539,10 +10539,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>97</v>
@@ -10568,10 +10568,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>97</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>97</v>
@@ -10626,13 +10626,13 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>116</v>
@@ -10655,10 +10655,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>165</v>
@@ -10684,10 +10684,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>165</v>
@@ -10713,10 +10713,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>165</v>
@@ -10742,10 +10742,10 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>238</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>165</v>
@@ -10771,10 +10771,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>165</v>
@@ -10800,10 +10800,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>165</v>
@@ -10829,10 +10829,10 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>165</v>
@@ -10858,10 +10858,10 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>165</v>
@@ -10887,10 +10887,10 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>165</v>
@@ -10916,13 +10916,13 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>248</v>
+        <v>428</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D70" s="26" t="s">
         <v>116</v>
@@ -10933,25 +10933,25 @@
       <c r="F70" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="G70" s="26">
-        <v>0</v>
-      </c>
-      <c r="H70" s="26">
-        <v>0</v>
-      </c>
-      <c r="I70" s="26">
+      <c r="G70" s="36">
+        <v>0</v>
+      </c>
+      <c r="H70" s="36">
+        <v>0</v>
+      </c>
+      <c r="I70" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>427</v>
+        <v>251</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>250</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>116</v>
@@ -10959,25 +10959,25 @@
       <c r="E71" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F71" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="G71" s="36">
-        <v>0</v>
-      </c>
-      <c r="H71" s="36">
-        <v>0</v>
-      </c>
-      <c r="I71" s="36">
+      <c r="F71" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G71" s="26">
+        <v>0</v>
+      </c>
+      <c r="H71" s="26">
+        <v>0</v>
+      </c>
+      <c r="I71" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>102</v>
@@ -11003,10 +11003,10 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>254</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>102</v>
@@ -11032,10 +11032,10 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>102</v>
@@ -11061,10 +11061,10 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>102</v>
@@ -11090,10 +11090,10 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>102</v>
@@ -11119,10 +11119,10 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>102</v>
@@ -11148,10 +11148,10 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="26" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>102</v>
@@ -11177,10 +11177,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="26" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>102</v>
@@ -11206,10 +11206,10 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="26" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>102</v>
@@ -11235,10 +11235,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="26" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>102</v>
@@ -11264,10 +11264,10 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>102</v>
@@ -11292,11 +11292,11 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>272</v>
+      <c r="A83" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>102</v>
@@ -11322,10 +11322,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>424</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>102</v>
@@ -11336,8 +11336,8 @@
       <c r="E84" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="36" t="s">
-        <v>421</v>
+      <c r="F84" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="G84" s="26">
         <v>0</v>
@@ -11350,11 +11350,11 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>424</v>
+      <c r="A85" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>425</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>102</v>
@@ -11380,13 +11380,13 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>425</v>
+        <v>279</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>278</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D86" s="26" t="s">
         <v>116</v>
@@ -11409,10 +11409,10 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>97</v>
@@ -11438,10 +11438,10 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>97</v>
@@ -11452,8 +11452,8 @@
       <c r="E88" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F88" s="26" t="s">
-        <v>203</v>
+      <c r="F88" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G88" s="26">
         <v>0</v>
@@ -11467,13 +11467,13 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="26" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D89" s="26" t="s">
         <v>116</v>
@@ -11481,8 +11481,8 @@
       <c r="E89" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F89" s="36" t="s">
-        <v>421</v>
+      <c r="F89" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="G89" s="26">
         <v>0</v>
@@ -11496,10 +11496,10 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>90</v>
@@ -11525,10 +11525,10 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>90</v>
@@ -11554,10 +11554,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="26" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>90</v>
@@ -11583,10 +11583,10 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>90</v>
@@ -11612,10 +11612,10 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>90</v>
@@ -11641,10 +11641,10 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>90</v>
@@ -11670,10 +11670,10 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>90</v>
@@ -11699,10 +11699,10 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>90</v>
@@ -11713,8 +11713,8 @@
       <c r="E97" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F97" s="26" t="s">
-        <v>203</v>
+      <c r="F97" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="G97" s="26">
         <v>0</v>
@@ -11728,10 +11728,10 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>90</v>
@@ -11757,10 +11757,10 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>90</v>
@@ -11786,10 +11786,10 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>90</v>
@@ -11815,10 +11815,10 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>90</v>
@@ -11844,10 +11844,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>90</v>
@@ -11873,10 +11873,10 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>90</v>
@@ -11901,39 +11901,15 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="F104" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="G104" s="26">
-        <v>0</v>
-      </c>
-      <c r="H104" s="26">
-        <v>0</v>
-      </c>
-      <c r="I104" s="26">
-        <v>1</v>
-      </c>
+      <c r="D104" s="26"/>
     </row>
     <row r="105" spans="1:9">
       <c r="D105" s="26"/>
     </row>
     <row r="106" spans="1:9">
+      <c r="C106" s="26"/>
       <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
     </row>
     <row r="107" spans="1:9">
       <c r="C107" s="26"/>
@@ -11989,11 +11965,6 @@
       <c r="C117" s="26"/>
       <c r="D117" s="26"/>
       <c r="E117" s="26"/>
-    </row>
-    <row r="118" spans="3:5">
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="Compartments" sheetId="1" r:id="rId2"/>
     <sheet name="Transitions" sheetId="2" r:id="rId3"/>
-    <sheet name="Parameters" sheetId="3" r:id="rId4"/>
+    <sheet name="Model parameters" sheetId="3" r:id="rId4"/>
     <sheet name="Data inputs" sheetId="4" r:id="rId5"/>
     <sheet name="Data constants" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="430">
   <si>
     <t>Code Label</t>
   </si>
@@ -1269,12 +1269,6 @@
     <t>2017feb02</t>
   </si>
   <si>
-    <t>1. Update the table on the "Parameters" sheet.</t>
-  </si>
-  <si>
-    <t>2. Update the example spreadsheets (e.g. simple.xlsx, concentrated.xlsx, and generalized.xlsx) in the tests folder to have the correct parameters.</t>
-  </si>
-  <si>
     <t>Updating parameters is easy Here's how you do it.</t>
   </si>
   <si>
@@ -1306,6 +1300,15 @@
   </si>
   <si>
     <t>requiredvl</t>
+  </si>
+  <si>
+    <t>1. Update the table on the "Model parameters" sheet.</t>
+  </si>
+  <si>
+    <t>2. If the parameter is from data, update "Data inputs" or "Data constants".</t>
+  </si>
+  <si>
+    <t>3. Update the example spreadsheets (e.g. simple.xlsx, concentrated.xlsx, and generalized.xlsx) in the tests folder to have the correct parameters.</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1320,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1490,6 +1493,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3725,7 +3743,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3798,6 +3816,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2116">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -6227,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6250,17 +6270,22 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6711,8 +6736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8894,9 +8919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8930,10 +8955,10 @@
         <v>82</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>84</v>
@@ -8976,7 +9001,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>97</v>
@@ -9005,7 +9030,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>97</v>
@@ -9495,7 +9520,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>169</v>
@@ -10916,10 +10941,10 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>144</v>
@@ -10960,7 +10985,7 @@
         <v>201</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G71" s="26">
         <v>0</v>
@@ -10989,7 +11014,7 @@
         <v>201</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G72" s="26">
         <v>0</v>
@@ -11018,7 +11043,7 @@
         <v>201</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G73" s="26">
         <v>0</v>
@@ -11047,7 +11072,7 @@
         <v>201</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G74" s="26">
         <v>0</v>
@@ -11076,7 +11101,7 @@
         <v>201</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G75" s="26">
         <v>0</v>
@@ -11105,7 +11130,7 @@
         <v>201</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G76" s="26">
         <v>0</v>
@@ -11134,7 +11159,7 @@
         <v>201</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G77" s="26">
         <v>0</v>
@@ -11163,7 +11188,7 @@
         <v>201</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G78" s="26">
         <v>0</v>
@@ -11192,7 +11217,7 @@
         <v>201</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G79" s="26">
         <v>0</v>
@@ -11221,7 +11246,7 @@
         <v>201</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G80" s="26">
         <v>0</v>
@@ -11250,7 +11275,7 @@
         <v>201</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G81" s="26">
         <v>0</v>
@@ -11279,7 +11304,7 @@
         <v>201</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G82" s="26">
         <v>0</v>
@@ -11308,7 +11333,7 @@
         <v>201</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G83" s="26">
         <v>0</v>
@@ -11325,7 +11350,7 @@
         <v>276</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>102</v>
@@ -11354,7 +11379,7 @@
         <v>277</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>102</v>
@@ -11453,7 +11478,7 @@
         <v>201</v>
       </c>
       <c r="F88" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G88" s="26">
         <v>0</v>
@@ -11714,7 +11739,7 @@
         <v>201</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G97" s="26">
         <v>0</v>
@@ -11743,7 +11768,7 @@
         <v>201</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G98" s="26">
         <v>0</v>
@@ -11772,7 +11797,7 @@
         <v>201</v>
       </c>
       <c r="F99" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G99" s="26">
         <v>0</v>
@@ -11801,7 +11826,7 @@
         <v>201</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G100" s="26">
         <v>0</v>
@@ -11830,7 +11855,7 @@
         <v>201</v>
       </c>
       <c r="F101" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G101" s="26">
         <v>0</v>
@@ -11859,7 +11884,7 @@
         <v>201</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G102" s="26">
         <v>0</v>
@@ -11888,7 +11913,7 @@
         <v>201</v>
       </c>
       <c r="F103" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G103" s="26">
         <v>0</v>
@@ -11982,7 +12007,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12561,7 +12586,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12590,7 +12615,7 @@
       <c r="F1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="38" t="s">
         <v>398</v>
       </c>
     </row>
@@ -12613,7 +12638,7 @@
       <c r="F2" s="30">
         <v>1.4E-3</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" s="39" t="b">
         <f>AND(D2&gt;=E2, D2&lt;=F2)</f>
         <v>1</v>
       </c>
@@ -12637,7 +12662,7 @@
       <c r="F3" s="30">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="39" t="b">
         <f t="shared" ref="G3:G59" si="0">AND(D3&gt;=E3, D3&lt;=F3)</f>
         <v>1</v>
       </c>
@@ -12661,7 +12686,7 @@
       <c r="F4" s="30">
         <v>2.8E-3</v>
       </c>
-      <c r="G4" t="b">
+      <c r="G4" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12685,7 +12710,7 @@
       <c r="F5" s="30">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12709,7 +12734,7 @@
       <c r="F6" s="30">
         <v>2.4E-2</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12733,7 +12758,7 @@
       <c r="F7" s="30">
         <v>0.44</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G7" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12757,7 +12782,7 @@
       <c r="F8" s="30">
         <v>0.27</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12781,7 +12806,7 @@
       <c r="F9">
         <v>9.1</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12805,7 +12830,7 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="b">
+      <c r="G10" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12829,7 +12854,7 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12853,7 +12878,7 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="b">
+      <c r="G12" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12877,7 +12902,7 @@
       <c r="F13">
         <v>6.92</v>
       </c>
-      <c r="G13" t="b">
+      <c r="G13" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12901,7 +12926,7 @@
       <c r="F14">
         <v>12.08</v>
       </c>
-      <c r="G14" t="b">
+      <c r="G14" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12925,7 +12950,7 @@
       <c r="F15">
         <v>0.5</v>
       </c>
-      <c r="G15" t="b">
+      <c r="G15" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12949,7 +12974,7 @@
       <c r="F16">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G16" t="b">
+      <c r="G16" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12973,7 +12998,7 @@
       <c r="F17">
         <v>3.16</v>
       </c>
-      <c r="G17" t="b">
+      <c r="G17" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12997,7 +13022,7 @@
       <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" t="b">
+      <c r="G18" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13021,7 +13046,7 @@
       <c r="F19">
         <v>2.25</v>
       </c>
-      <c r="G19" t="b">
+      <c r="G19" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13045,7 +13070,7 @@
       <c r="F20">
         <v>7.28</v>
       </c>
-      <c r="G20" t="b">
+      <c r="G20" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13069,7 +13094,7 @@
       <c r="F21">
         <v>3.42</v>
       </c>
-      <c r="G21" t="b">
+      <c r="G21" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13093,7 +13118,7 @@
       <c r="F22">
         <v>3.58</v>
       </c>
-      <c r="G22" t="b">
+      <c r="G22" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13117,7 +13142,7 @@
       <c r="F23">
         <v>0.94</v>
       </c>
-      <c r="G23" t="b">
+      <c r="G23" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13141,7 +13166,7 @@
       <c r="F24">
         <v>0.3</v>
       </c>
-      <c r="G24" t="b">
+      <c r="G24" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13151,10 +13176,10 @@
         <v>395</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -13165,7 +13190,7 @@
       <c r="F25">
         <v>2.5</v>
       </c>
-      <c r="G25" t="b">
+      <c r="G25" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13189,7 +13214,7 @@
       <c r="F26" s="30">
         <v>0.27500000000000002</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G26" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13213,7 +13238,7 @@
       <c r="F27" s="30">
         <v>0.88500000000000001</v>
       </c>
-      <c r="G27" t="b">
+      <c r="G27" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13237,7 +13262,7 @@
       <c r="F28" s="30">
         <v>0.87</v>
       </c>
-      <c r="G28" t="b">
+      <c r="G28" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13261,7 +13286,7 @@
       <c r="F29" s="30">
         <v>0.82699999999999996</v>
       </c>
-      <c r="G29" t="b">
+      <c r="G29" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13285,7 +13310,7 @@
       <c r="F30" s="30">
         <v>0.86899999999999999</v>
       </c>
-      <c r="G30" t="b">
+      <c r="G30" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13309,7 +13334,7 @@
       <c r="F31" s="30">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G31" t="b">
+      <c r="G31" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13333,7 +13358,7 @@
       <c r="F32" s="30">
         <v>0.72299999999999998</v>
       </c>
-      <c r="G32" t="b">
+      <c r="G32" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13357,7 +13382,7 @@
       <c r="F33" s="30">
         <v>0.56299999999999994</v>
       </c>
-      <c r="G33" t="b">
+      <c r="G33" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13381,7 +13406,7 @@
       <c r="F34" s="30">
         <v>0.26</v>
       </c>
-      <c r="G34" t="b">
+      <c r="G34" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13405,7 +13430,7 @@
       <c r="F35" s="30">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G35" t="b">
+      <c r="G35" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13429,7 +13454,7 @@
       <c r="F36" s="30">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G36" t="b">
+      <c r="G36" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13453,7 +13478,7 @@
       <c r="F37" s="30">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G37" t="b">
+      <c r="G37" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13477,7 +13502,7 @@
       <c r="F38" s="30">
         <v>1.01E-2</v>
       </c>
-      <c r="G38" t="b">
+      <c r="G38" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13501,7 +13526,7 @@
       <c r="F39" s="30">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G39" t="b">
+      <c r="G39" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13525,7 +13550,7 @@
       <c r="F40" s="30">
         <v>0.432</v>
       </c>
-      <c r="G40" t="b">
+      <c r="G40" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13549,7 +13574,7 @@
       <c r="F41" s="30">
         <v>0.3</v>
       </c>
-      <c r="G41" t="b">
+      <c r="G41" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13573,7 +13598,7 @@
       <c r="F42" s="30">
         <v>0.8417</v>
       </c>
-      <c r="G42" t="b">
+      <c r="G42" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13597,7 +13622,7 @@
       <c r="F43" s="30">
         <v>3.71</v>
       </c>
-      <c r="G43" t="b">
+      <c r="G43" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13621,7 +13646,7 @@
       <c r="F44" s="32">
         <v>0.98</v>
       </c>
-      <c r="G44" t="b">
+      <c r="G44" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13645,7 +13670,7 @@
       <c r="F45" s="32">
         <v>0.67</v>
       </c>
-      <c r="G45" t="b">
+      <c r="G45" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13669,7 +13694,7 @@
       <c r="F46" s="32">
         <v>0.68</v>
       </c>
-      <c r="G46" t="b">
+      <c r="G46" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13693,7 +13718,7 @@
       <c r="F47" s="32">
         <v>5.19</v>
       </c>
-      <c r="G47" t="b">
+      <c r="G47" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13717,7 +13742,7 @@
       <c r="F48" s="32">
         <v>0.68</v>
       </c>
-      <c r="G48" t="b">
+      <c r="G48" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13741,7 +13766,7 @@
       <c r="F49" s="32">
         <v>0.93</v>
       </c>
-      <c r="G49" t="b">
+      <c r="G49" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13765,7 +13790,7 @@
       <c r="F50" s="32">
         <v>0.8</v>
       </c>
-      <c r="G50" t="b">
+      <c r="G50" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13789,7 +13814,7 @@
       <c r="F51" s="32">
         <v>0.8</v>
       </c>
-      <c r="G51" t="b">
+      <c r="G51" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13813,7 +13838,7 @@
       <c r="F52" s="32">
         <v>0.95</v>
       </c>
-      <c r="G52" t="b">
+      <c r="G52" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13837,7 +13862,7 @@
       <c r="F53">
         <v>0.21</v>
       </c>
-      <c r="G53" t="b">
+      <c r="G53" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13861,7 +13886,7 @@
       <c r="F54">
         <v>0.01</v>
       </c>
-      <c r="G54" t="b">
+      <c r="G54" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13885,7 +13910,7 @@
       <c r="F55">
         <v>0.03</v>
       </c>
-      <c r="G55" t="b">
+      <c r="G55" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13909,7 +13934,7 @@
       <c r="F56">
         <v>0.09</v>
       </c>
-      <c r="G56" t="b">
+      <c r="G56" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13933,7 +13958,7 @@
       <c r="F57">
         <v>0.47</v>
       </c>
-      <c r="G57" t="b">
+      <c r="G57" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13957,7 +13982,7 @@
       <c r="F58">
         <v>0.72</v>
       </c>
-      <c r="G58" t="b">
+      <c r="G58" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13981,7 +14006,7 @@
       <c r="F59">
         <v>0.08</v>
       </c>
-      <c r="G59" t="b">
+      <c r="G59" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -6838,8 +6838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6859,16 +6859,16 @@
     <col min="17" max="19" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="8.85546875" style="2"/>
-    <col min="38" max="38" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.140625" style="2"/>
+    <col min="26" max="26" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -6933,59 +6933,59 @@
       <c r="U1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="AC1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="AD1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="AE1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="AF1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AG1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AH1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AI1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AK1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AL1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AM1" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
@@ -7714,8 +7714,12 @@
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
       <c r="U16" s="36"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
+      <c r="V16" s="21">
+        <v>1</v>
+      </c>
+      <c r="W16" s="21">
+        <v>1</v>
+      </c>
       <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
@@ -7726,12 +7730,8 @@
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
       <c r="AG16" s="36"/>
-      <c r="AH16" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="21">
-        <v>1</v>
-      </c>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
       <c r="AJ16" s="33"/>
       <c r="AK16" s="33"/>
       <c r="AL16" s="33"/>
@@ -7766,8 +7766,12 @@
       <c r="T17" s="33"/>
       <c r="U17" s="36"/>
       <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
+      <c r="W17" s="21">
+        <v>1</v>
+      </c>
+      <c r="X17" s="21">
+        <v>1</v>
+      </c>
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
       <c r="AA17" s="36"/>
@@ -7778,12 +7782,8 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="33"/>
-      <c r="AI17" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="21">
-        <v>1</v>
-      </c>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
       <c r="AK17" s="33"/>
       <c r="AL17" s="33"/>
       <c r="AM17" s="36"/>
@@ -7818,8 +7818,12 @@
       <c r="U18" s="36"/>
       <c r="V18" s="33"/>
       <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
+      <c r="X18" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>1</v>
+      </c>
       <c r="Z18" s="33"/>
       <c r="AA18" s="36"/>
       <c r="AB18" s="33"/>
@@ -7830,12 +7834,8 @@
       <c r="AG18" s="36"/>
       <c r="AH18" s="33"/>
       <c r="AI18" s="33"/>
-      <c r="AJ18" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="21">
-        <v>1</v>
-      </c>
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
       <c r="AL18" s="33"/>
       <c r="AM18" s="36"/>
     </row>
@@ -7870,8 +7870,12 @@
       <c r="V19" s="33"/>
       <c r="W19" s="33"/>
       <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
+      <c r="Y19" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>1</v>
+      </c>
       <c r="AA19" s="36"/>
       <c r="AB19" s="33"/>
       <c r="AC19" s="33"/>
@@ -7882,12 +7886,8 @@
       <c r="AH19" s="33"/>
       <c r="AI19" s="33"/>
       <c r="AJ19" s="33"/>
-      <c r="AK19" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="21">
-        <v>1</v>
-      </c>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
       <c r="AM19" s="36"/>
     </row>
     <row r="20" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
@@ -7922,8 +7922,12 @@
       <c r="W20" s="33"/>
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="36"/>
+      <c r="Z20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="39">
+        <v>1</v>
+      </c>
       <c r="AB20" s="33"/>
       <c r="AC20" s="33"/>
       <c r="AD20" s="33"/>
@@ -7934,12 +7938,8 @@
       <c r="AI20" s="33"/>
       <c r="AJ20" s="33"/>
       <c r="AK20" s="33"/>
-      <c r="AL20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="39">
-        <v>1</v>
-      </c>
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="36"/>
     </row>
     <row r="21" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
@@ -7972,7 +7972,9 @@
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
-      <c r="AA21" s="38"/>
+      <c r="AA21" s="37">
+        <v>1</v>
+      </c>
       <c r="AB21" s="34"/>
       <c r="AC21" s="34"/>
       <c r="AD21" s="34"/>
@@ -7984,13 +7986,11 @@
       <c r="AJ21" s="34"/>
       <c r="AK21" s="34"/>
       <c r="AL21" s="34"/>
-      <c r="AM21" s="37">
-        <v>1</v>
-      </c>
+      <c r="AM21" s="38"/>
     </row>
     <row r="22" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>23</v>
+      <c r="A22" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="36"/>
@@ -8006,8 +8006,12 @@
       <c r="M22" s="33"/>
       <c r="N22" s="33"/>
       <c r="O22" s="36"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
+      <c r="P22" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>1</v>
+      </c>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
@@ -8022,26 +8026,22 @@
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
       <c r="AA22" s="36"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
       <c r="AD22" s="33"/>
       <c r="AE22" s="33"/>
       <c r="AF22" s="33"/>
       <c r="AG22" s="36"/>
-      <c r="AH22" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="21">
-        <v>1</v>
-      </c>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
       <c r="AJ22" s="33"/>
       <c r="AK22" s="33"/>
       <c r="AL22" s="33"/>
       <c r="AM22" s="36"/>
     </row>
     <row r="23" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>24</v>
+      <c r="A23" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="36"/>
@@ -8058,8 +8058,12 @@
       <c r="N23" s="33"/>
       <c r="O23" s="36"/>
       <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
+      <c r="Q23" s="21">
+        <v>1</v>
+      </c>
+      <c r="R23" s="21">
+        <v>1</v>
+      </c>
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
       <c r="U23" s="36"/>
@@ -8074,25 +8078,21 @@
       <c r="Z23" s="33"/>
       <c r="AA23" s="36"/>
       <c r="AB23" s="33"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
       <c r="AE23" s="33"/>
       <c r="AF23" s="33"/>
       <c r="AG23" s="36"/>
       <c r="AH23" s="33"/>
-      <c r="AI23" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="21">
-        <v>1</v>
-      </c>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
       <c r="AK23" s="33"/>
       <c r="AL23" s="33"/>
       <c r="AM23" s="36"/>
     </row>
     <row r="24" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>25</v>
+      <c r="A24" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="36"/>
@@ -8110,14 +8110,16 @@
       <c r="O24" s="36"/>
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
+      <c r="R24" s="21">
+        <v>1</v>
+      </c>
+      <c r="S24" s="21">
+        <v>1</v>
+      </c>
       <c r="T24" s="33"/>
       <c r="U24" s="36"/>
       <c r="V24" s="33"/>
-      <c r="W24" s="21">
-        <v>1</v>
-      </c>
+      <c r="W24" s="33"/>
       <c r="X24" s="21">
         <v>1</v>
       </c>
@@ -8127,27 +8129,21 @@
       <c r="Z24" s="33"/>
       <c r="AA24" s="36"/>
       <c r="AB24" s="33"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
       <c r="AF24" s="33"/>
       <c r="AG24" s="36"/>
       <c r="AH24" s="33"/>
-      <c r="AI24" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="21">
-        <v>1</v>
-      </c>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
       <c r="AL24" s="33"/>
       <c r="AM24" s="36"/>
     </row>
     <row r="25" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>26</v>
+      <c r="A25" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="36"/>
@@ -8166,14 +8162,16 @@
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
       <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
+      <c r="S25" s="21">
+        <v>1</v>
+      </c>
+      <c r="T25" s="21">
+        <v>1</v>
+      </c>
       <c r="U25" s="36"/>
       <c r="V25" s="33"/>
       <c r="W25" s="33"/>
-      <c r="X25" s="21">
-        <v>1</v>
-      </c>
+      <c r="X25" s="33"/>
       <c r="Y25" s="21">
         <v>1</v>
       </c>
@@ -8183,26 +8181,20 @@
       <c r="AA25" s="36"/>
       <c r="AB25" s="33"/>
       <c r="AC25" s="33"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
       <c r="AG25" s="36"/>
       <c r="AH25" s="33"/>
       <c r="AI25" s="33"/>
-      <c r="AJ25" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="21">
-        <v>1</v>
-      </c>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="33"/>
       <c r="AM25" s="36"/>
     </row>
     <row r="26" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>27</v>
+      <c r="A26" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="36"/>
@@ -8222,14 +8214,16 @@
       <c r="Q26" s="33"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="36"/>
+      <c r="T26" s="21">
+        <v>1</v>
+      </c>
+      <c r="U26" s="39">
+        <v>1</v>
+      </c>
       <c r="V26" s="33"/>
       <c r="W26" s="33"/>
       <c r="X26" s="33"/>
-      <c r="Y26" s="21">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="33"/>
       <c r="Z26" s="21">
         <v>1</v>
       </c>
@@ -8239,25 +8233,19 @@
       <c r="AB26" s="33"/>
       <c r="AC26" s="33"/>
       <c r="AD26" s="33"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="39"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="36"/>
       <c r="AH26" s="33"/>
       <c r="AI26" s="33"/>
       <c r="AJ26" s="33"/>
-      <c r="AK26" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="39">
-        <v>1</v>
-      </c>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="36"/>
     </row>
     <row r="27" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>28</v>
+      <c r="A27" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="38"/>
@@ -8278,14 +8266,14 @@
       <c r="R27" s="34"/>
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
-      <c r="U27" s="38"/>
+      <c r="U27" s="37">
+        <v>1</v>
+      </c>
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
       <c r="X27" s="34"/>
       <c r="Y27" s="34"/>
-      <c r="Z27" s="35">
-        <v>1</v>
-      </c>
+      <c r="Z27" s="34"/>
       <c r="AA27" s="37">
         <v>1</v>
       </c>
@@ -8293,22 +8281,18 @@
       <c r="AC27" s="34"/>
       <c r="AD27" s="34"/>
       <c r="AE27" s="34"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="37"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="38"/>
       <c r="AH27" s="34"/>
       <c r="AI27" s="34"/>
       <c r="AJ27" s="34"/>
       <c r="AK27" s="34"/>
-      <c r="AL27" s="35">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="37">
-        <v>1</v>
-      </c>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="38"/>
     </row>
     <row r="28" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>29</v>
+      <c r="A28" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="36"/>
@@ -8350,20 +8334,16 @@
       <c r="AE28" s="33"/>
       <c r="AF28" s="33"/>
       <c r="AG28" s="36"/>
-      <c r="AH28" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="21">
-        <v>1</v>
-      </c>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
       <c r="AJ28" s="33"/>
       <c r="AK28" s="33"/>
       <c r="AL28" s="33"/>
       <c r="AM28" s="36"/>
     </row>
     <row r="29" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>30</v>
+      <c r="A29" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="36"/>
@@ -8389,7 +8369,9 @@
       <c r="W29" s="21">
         <v>1</v>
       </c>
-      <c r="X29" s="33"/>
+      <c r="X29" s="21">
+        <v>1</v>
+      </c>
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
       <c r="AA29" s="36"/>
@@ -8397,22 +8379,22 @@
       <c r="AC29" s="21">
         <v>1</v>
       </c>
-      <c r="AD29" s="33"/>
+      <c r="AD29" s="21">
+        <v>1</v>
+      </c>
       <c r="AE29" s="33"/>
       <c r="AF29" s="33"/>
       <c r="AG29" s="36"/>
       <c r="AH29" s="33"/>
-      <c r="AI29" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="33"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="21"/>
       <c r="AK29" s="33"/>
       <c r="AL29" s="33"/>
       <c r="AM29" s="36"/>
     </row>
     <row r="30" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>31</v>
+      <c r="A30" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="36"/>
@@ -8441,7 +8423,9 @@
       <c r="X30" s="21">
         <v>1</v>
       </c>
-      <c r="Y30" s="33"/>
+      <c r="Y30" s="21">
+        <v>1</v>
+      </c>
       <c r="Z30" s="33"/>
       <c r="AA30" s="36"/>
       <c r="AB30" s="33"/>
@@ -8451,23 +8435,21 @@
       <c r="AD30" s="21">
         <v>1</v>
       </c>
-      <c r="AE30" s="33"/>
+      <c r="AE30" s="21">
+        <v>1</v>
+      </c>
       <c r="AF30" s="33"/>
       <c r="AG30" s="36"/>
       <c r="AH30" s="33"/>
-      <c r="AI30" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="33"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
       <c r="AL30" s="33"/>
       <c r="AM30" s="36"/>
     </row>
     <row r="31" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>32</v>
+      <c r="A31" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="36"/>
@@ -8497,7 +8479,9 @@
       <c r="Y31" s="21">
         <v>1</v>
       </c>
-      <c r="Z31" s="33"/>
+      <c r="Z31" s="21">
+        <v>1</v>
+      </c>
       <c r="AA31" s="36"/>
       <c r="AB31" s="33"/>
       <c r="AC31" s="33"/>
@@ -8507,22 +8491,20 @@
       <c r="AE31" s="21">
         <v>1</v>
       </c>
-      <c r="AF31" s="33"/>
+      <c r="AF31" s="21">
+        <v>1</v>
+      </c>
       <c r="AG31" s="36"/>
       <c r="AH31" s="33"/>
       <c r="AI31" s="33"/>
-      <c r="AJ31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="33"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
       <c r="AM31" s="36"/>
     </row>
     <row r="32" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>33</v>
+      <c r="A32" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="36"/>
@@ -8553,7 +8535,9 @@
       <c r="Z32" s="21">
         <v>1</v>
       </c>
-      <c r="AA32" s="36"/>
+      <c r="AA32" s="39">
+        <v>1</v>
+      </c>
       <c r="AB32" s="33"/>
       <c r="AC32" s="33"/>
       <c r="AD32" s="33"/>
@@ -8563,21 +8547,19 @@
       <c r="AF32" s="21">
         <v>1</v>
       </c>
-      <c r="AG32" s="36"/>
+      <c r="AG32" s="39">
+        <v>1</v>
+      </c>
       <c r="AH32" s="33"/>
       <c r="AI32" s="33"/>
       <c r="AJ32" s="33"/>
-      <c r="AK32" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL32" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM32" s="36"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="21"/>
+      <c r="AM32" s="39"/>
     </row>
     <row r="33" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>34</v>
+      <c r="A33" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="38"/>
@@ -8623,16 +8605,12 @@
       <c r="AI33" s="34"/>
       <c r="AJ33" s="34"/>
       <c r="AK33" s="34"/>
-      <c r="AL33" s="35">
-        <v>1</v>
-      </c>
-      <c r="AM33" s="37">
-        <v>1</v>
-      </c>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="37"/>
     </row>
     <row r="34" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>35</v>
+      <c r="A34" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="36"/>
@@ -8648,24 +8626,28 @@
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
       <c r="O34" s="36"/>
-      <c r="P34" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="21">
-        <v>1</v>
-      </c>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
       <c r="U34" s="36"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
+      <c r="V34" s="21">
+        <v>1</v>
+      </c>
+      <c r="W34" s="21">
+        <v>1</v>
+      </c>
       <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
       <c r="AA34" s="36"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
+      <c r="AB34" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="21">
+        <v>1</v>
+      </c>
       <c r="AD34" s="33"/>
       <c r="AE34" s="33"/>
       <c r="AF34" s="33"/>
@@ -8682,8 +8664,8 @@
       <c r="AM34" s="36"/>
     </row>
     <row r="35" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>36</v>
+      <c r="A35" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="36"/>
@@ -8700,23 +8682,23 @@
       <c r="N35" s="33"/>
       <c r="O35" s="36"/>
       <c r="P35" s="33"/>
-      <c r="Q35" s="21">
-        <v>1</v>
-      </c>
-      <c r="R35" s="21">
-        <v>1</v>
-      </c>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
       <c r="S35" s="33"/>
       <c r="T35" s="33"/>
       <c r="U35" s="36"/>
       <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
+      <c r="W35" s="21">
+        <v>1</v>
+      </c>
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
       <c r="AA35" s="36"/>
       <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
+      <c r="AC35" s="21">
+        <v>1</v>
+      </c>
       <c r="AD35" s="33"/>
       <c r="AE35" s="33"/>
       <c r="AF35" s="33"/>
@@ -8725,16 +8707,14 @@
       <c r="AI35" s="21">
         <v>1</v>
       </c>
-      <c r="AJ35" s="21">
-        <v>1</v>
-      </c>
+      <c r="AJ35" s="33"/>
       <c r="AK35" s="33"/>
       <c r="AL35" s="33"/>
       <c r="AM35" s="36"/>
     </row>
     <row r="36" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>37</v>
+      <c r="A36" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="36"/>
@@ -8752,40 +8732,44 @@
       <c r="O36" s="36"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="33"/>
-      <c r="R36" s="21">
-        <v>1</v>
-      </c>
-      <c r="S36" s="21">
-        <v>1</v>
-      </c>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
       <c r="T36" s="33"/>
       <c r="U36" s="36"/>
       <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
+      <c r="W36" s="21">
+        <v>1</v>
+      </c>
+      <c r="X36" s="21">
+        <v>1</v>
+      </c>
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="36"/>
       <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
+      <c r="AC36" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="21">
+        <v>1</v>
+      </c>
       <c r="AE36" s="33"/>
       <c r="AF36" s="33"/>
       <c r="AG36" s="36"/>
       <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
+      <c r="AI36" s="21">
+        <v>1</v>
+      </c>
       <c r="AJ36" s="21">
         <v>1</v>
       </c>
-      <c r="AK36" s="21">
-        <v>1</v>
-      </c>
+      <c r="AK36" s="33"/>
       <c r="AL36" s="33"/>
       <c r="AM36" s="36"/>
     </row>
     <row r="37" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>38</v>
+      <c r="A37" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="36"/>
@@ -8804,39 +8788,43 @@
       <c r="P37" s="33"/>
       <c r="Q37" s="33"/>
       <c r="R37" s="33"/>
-      <c r="S37" s="21">
-        <v>1</v>
-      </c>
-      <c r="T37" s="21">
-        <v>1</v>
-      </c>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
       <c r="U37" s="36"/>
       <c r="V37" s="33"/>
       <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
+      <c r="X37" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="21">
+        <v>1</v>
+      </c>
       <c r="Z37" s="33"/>
       <c r="AA37" s="36"/>
       <c r="AB37" s="33"/>
       <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
+      <c r="AD37" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="21">
+        <v>1</v>
+      </c>
       <c r="AF37" s="33"/>
       <c r="AG37" s="36"/>
       <c r="AH37" s="33"/>
       <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
+      <c r="AJ37" s="21">
+        <v>1</v>
+      </c>
       <c r="AK37" s="21">
         <v>1</v>
       </c>
-      <c r="AL37" s="21">
-        <v>1</v>
-      </c>
+      <c r="AL37" s="33"/>
       <c r="AM37" s="36"/>
     </row>
     <row r="38" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>39</v>
+      <c r="A38" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="36"/>
@@ -8856,38 +8844,42 @@
       <c r="Q38" s="33"/>
       <c r="R38" s="33"/>
       <c r="S38" s="33"/>
-      <c r="T38" s="21">
-        <v>1</v>
-      </c>
-      <c r="U38" s="39">
-        <v>1</v>
-      </c>
+      <c r="T38" s="33"/>
+      <c r="U38" s="36"/>
       <c r="V38" s="33"/>
       <c r="W38" s="33"/>
       <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
+      <c r="Y38" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="21">
+        <v>1</v>
+      </c>
       <c r="AA38" s="36"/>
       <c r="AB38" s="33"/>
       <c r="AC38" s="33"/>
       <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
+      <c r="AE38" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="21">
+        <v>1</v>
+      </c>
       <c r="AG38" s="36"/>
       <c r="AH38" s="33"/>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
+      <c r="AK38" s="21">
+        <v>1</v>
+      </c>
       <c r="AL38" s="21">
         <v>1</v>
       </c>
-      <c r="AM38" s="39">
-        <v>1</v>
-      </c>
+      <c r="AM38" s="36"/>
     </row>
     <row r="39" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>40</v>
+      <c r="A39" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="38"/>
@@ -8908,26 +8900,34 @@
       <c r="R39" s="34"/>
       <c r="S39" s="34"/>
       <c r="T39" s="34"/>
-      <c r="U39" s="37">
-        <v>1</v>
-      </c>
+      <c r="U39" s="38"/>
       <c r="V39" s="34"/>
       <c r="W39" s="34"/>
       <c r="X39" s="34"/>
       <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="38"/>
+      <c r="Z39" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="37">
+        <v>1</v>
+      </c>
       <c r="AB39" s="34"/>
       <c r="AC39" s="34"/>
       <c r="AD39" s="34"/>
       <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="38"/>
+      <c r="AF39" s="35">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="37">
+        <v>1</v>
+      </c>
       <c r="AH39" s="34"/>
       <c r="AI39" s="34"/>
       <c r="AJ39" s="34"/>
       <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
+      <c r="AL39" s="35">
+        <v>1</v>
+      </c>
       <c r="AM39" s="37">
         <v>1</v>
       </c>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="432">
   <si>
     <t>Code Label</t>
   </si>
@@ -1309,6 +1309,12 @@
   </si>
   <si>
     <t>3. Update the example spreadsheets (e.g. simple.xlsx, concentrated.xlsx, and generalized.xlsx) in the tests folder to have the correct parameters.</t>
+  </si>
+  <si>
+    <t>transnorm</t>
+  </si>
+  <si>
+    <t>Transmission normalization factor</t>
   </si>
 </sst>
 </file>
@@ -6838,7 +6844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -8945,11 +8951,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10273,13 +10279,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>202</v>
+        <v>430</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>200</v>
+        <v>431</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>116</v>
@@ -10297,15 +10303,15 @@
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>90</v>
@@ -10331,10 +10337,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>90</v>
@@ -10360,10 +10366,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>90</v>
@@ -10389,10 +10395,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>90</v>
@@ -10418,10 +10424,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>90</v>
@@ -10447,10 +10453,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>90</v>
@@ -10476,13 +10482,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>116</v>
@@ -10505,10 +10511,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>97</v>
@@ -10534,10 +10540,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>97</v>
@@ -10563,10 +10569,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>97</v>
@@ -10592,10 +10598,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>97</v>
@@ -10621,10 +10627,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>97</v>
@@ -10650,10 +10656,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>97</v>
@@ -10679,13 +10685,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>116</v>
@@ -10708,10 +10714,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>165</v>
@@ -10737,10 +10743,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>165</v>
@@ -10766,10 +10772,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>165</v>
@@ -10795,10 +10801,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>165</v>
@@ -10824,10 +10830,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>165</v>
@@ -10853,10 +10859,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>165</v>
@@ -10882,10 +10888,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>165</v>
@@ -10911,10 +10917,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>165</v>
@@ -10940,10 +10946,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>165</v>
@@ -10969,13 +10975,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>425</v>
+        <v>249</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>116</v>
@@ -10986,25 +10992,25 @@
       <c r="F70" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G70" s="17">
-        <v>0</v>
-      </c>
-      <c r="H70" s="17">
-        <v>0</v>
-      </c>
-      <c r="I70" s="17">
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>250</v>
+        <v>426</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>425</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>116</v>
@@ -11012,25 +11018,25 @@
       <c r="E71" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F71" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="G71" s="7">
-        <v>0</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7">
+      <c r="F71" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G71" s="17">
+        <v>0</v>
+      </c>
+      <c r="H71" s="17">
+        <v>0</v>
+      </c>
+      <c r="I71" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>102</v>
@@ -11056,10 +11062,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>102</v>
@@ -11085,10 +11091,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>102</v>
@@ -11114,10 +11120,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>102</v>
@@ -11143,10 +11149,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>102</v>
@@ -11172,10 +11178,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>102</v>
@@ -11201,10 +11207,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>102</v>
@@ -11230,10 +11236,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>102</v>
@@ -11259,10 +11265,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>102</v>
@@ -11288,10 +11294,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>102</v>
@@ -11317,10 +11323,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>102</v>
@@ -11345,11 +11351,11 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>274</v>
+      <c r="A83" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>102</v>
@@ -11375,10 +11381,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>422</v>
+        <v>275</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>102</v>
@@ -11389,8 +11395,8 @@
       <c r="E84" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>203</v>
+      <c r="F84" s="17" t="s">
+        <v>419</v>
       </c>
       <c r="G84" s="7">
         <v>0</v>
@@ -11403,11 +11409,11 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>423</v>
+      <c r="A85" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>422</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>102</v>
@@ -11433,13 +11439,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>423</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>116</v>
@@ -11462,10 +11468,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>97</v>
@@ -11491,10 +11497,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>97</v>
@@ -11505,8 +11511,8 @@
       <c r="E88" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F88" s="17" t="s">
-        <v>419</v>
+      <c r="F88" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="G88" s="7">
         <v>0</v>
@@ -11520,13 +11526,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>116</v>
@@ -11534,8 +11540,8 @@
       <c r="E89" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>203</v>
+      <c r="F89" s="17" t="s">
+        <v>419</v>
       </c>
       <c r="G89" s="7">
         <v>0</v>
@@ -11549,10 +11555,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>90</v>
@@ -11578,10 +11584,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>90</v>
@@ -11607,10 +11613,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>90</v>
@@ -11636,10 +11642,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>90</v>
@@ -11665,10 +11671,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>90</v>
@@ -11694,10 +11700,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>90</v>
@@ -11723,10 +11729,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>90</v>
@@ -11752,10 +11758,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>90</v>
@@ -11766,8 +11772,8 @@
       <c r="E97" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F97" s="17" t="s">
-        <v>419</v>
+      <c r="F97" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="G97" s="7">
         <v>0</v>
@@ -11781,10 +11787,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>90</v>
@@ -11810,10 +11816,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>90</v>
@@ -11839,10 +11845,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>90</v>
@@ -11868,10 +11874,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>90</v>
@@ -11897,10 +11903,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>90</v>
@@ -11926,10 +11932,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>90</v>
@@ -11954,15 +11960,39 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D104" s="7"/>
+      <c r="A104" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="G104" s="7">
+        <v>0</v>
+      </c>
+      <c r="H104" s="7">
+        <v>0</v>
+      </c>
+      <c r="I104" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C106" s="7"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C107" s="7"/>
@@ -12018,6 +12048,11 @@
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="435">
   <si>
     <t>Code Label</t>
   </si>
@@ -531,9 +531,6 @@
     <t>Viral load monitoring (number/year)</t>
   </si>
   <si>
-    <t>freqvlmon</t>
-  </si>
-  <si>
     <t>Loss to follow-up rate (per year)</t>
   </si>
   <si>
@@ -1315,6 +1312,18 @@
   </si>
   <si>
     <t>Transmission normalization factor</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>partcas</t>
+  </si>
+  <si>
+    <t>condomreg</t>
+  </si>
+  <si>
+    <t>optprev</t>
   </si>
 </sst>
 </file>
@@ -6367,38 +6376,38 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" t="s">
         <v>399</v>
       </c>
-      <c r="B1" t="s">
-        <v>400</v>
-      </c>
       <c r="C1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6406,7 +6415,7 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6414,7 +6423,7 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6422,7 +6431,7 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6430,7 +6439,7 @@
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6438,7 +6447,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6446,7 +6455,7 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6454,7 +6463,7 @@
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6462,7 +6471,7 @@
         <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6470,7 +6479,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6478,15 +6487,15 @@
         <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26" t="s">
         <v>412</v>
-      </c>
-      <c r="B26" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6494,7 +6503,7 @@
         <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -8953,7 +8962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
@@ -8989,10 +8998,10 @@
         <v>82</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>417</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>418</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>84</v>
@@ -9035,7 +9044,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>97</v>
@@ -9064,7 +9073,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>97</v>
@@ -9409,10 +9418,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>94</v>
@@ -9496,10 +9505,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>102</v>
@@ -9525,10 +9534,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>102</v>
@@ -9554,7 +9563,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>169</v>
@@ -9583,10 +9592,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>90</v>
@@ -9612,10 +9621,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>90</v>
@@ -9641,10 +9650,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>90</v>
@@ -9670,10 +9679,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>90</v>
@@ -9699,10 +9708,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>90</v>
@@ -9728,22 +9737,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -9757,22 +9766,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -9786,22 +9795,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -9815,22 +9824,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -9844,22 +9853,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -10279,10 +10288,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>97</v>
@@ -10291,10 +10300,10 @@
         <v>116</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
@@ -10308,10 +10317,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>90</v>
@@ -10320,10 +10329,10 @@
         <v>116</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -10337,10 +10346,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>90</v>
@@ -10349,10 +10358,10 @@
         <v>116</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G48" s="7">
         <v>0</v>
@@ -10366,10 +10375,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>90</v>
@@ -10378,10 +10387,10 @@
         <v>116</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G49" s="7">
         <v>0</v>
@@ -10395,10 +10404,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>90</v>
@@ -10407,10 +10416,10 @@
         <v>116</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
@@ -10424,10 +10433,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>90</v>
@@ -10436,10 +10445,10 @@
         <v>116</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
@@ -10453,10 +10462,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>90</v>
@@ -10465,10 +10474,10 @@
         <v>116</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G52" s="7">
         <v>0</v>
@@ -10482,10 +10491,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>90</v>
@@ -10494,10 +10503,10 @@
         <v>116</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G53" s="7">
         <v>0</v>
@@ -10511,10 +10520,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>97</v>
@@ -10523,10 +10532,10 @@
         <v>116</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G54" s="7">
         <v>0</v>
@@ -10540,10 +10549,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>97</v>
@@ -10552,10 +10561,10 @@
         <v>116</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G55" s="7">
         <v>0</v>
@@ -10569,10 +10578,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>97</v>
@@ -10581,10 +10590,10 @@
         <v>116</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G56" s="7">
         <v>0</v>
@@ -10598,10 +10607,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>97</v>
@@ -10610,10 +10619,10 @@
         <v>116</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G57" s="7">
         <v>0</v>
@@ -10627,10 +10636,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>97</v>
@@ -10639,10 +10648,10 @@
         <v>116</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G58" s="7">
         <v>0</v>
@@ -10656,10 +10665,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>97</v>
@@ -10668,10 +10677,10 @@
         <v>116</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G59" s="7">
         <v>0</v>
@@ -10685,10 +10694,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>97</v>
@@ -10697,10 +10706,10 @@
         <v>116</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G60" s="7">
         <v>0</v>
@@ -10714,10 +10723,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>165</v>
@@ -10726,10 +10735,10 @@
         <v>116</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G61" s="7">
         <v>0</v>
@@ -10743,10 +10752,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>165</v>
@@ -10755,10 +10764,10 @@
         <v>116</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G62" s="7">
         <v>0</v>
@@ -10772,10 +10781,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>165</v>
@@ -10784,10 +10793,10 @@
         <v>116</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G63" s="7">
         <v>0</v>
@@ -10801,10 +10810,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>165</v>
@@ -10813,10 +10822,10 @@
         <v>116</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G64" s="7">
         <v>0</v>
@@ -10830,10 +10839,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>165</v>
@@ -10842,10 +10851,10 @@
         <v>116</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G65" s="7">
         <v>0</v>
@@ -10859,10 +10868,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>165</v>
@@ -10871,10 +10880,10 @@
         <v>116</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G66" s="7">
         <v>0</v>
@@ -10888,10 +10897,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>165</v>
@@ -10900,10 +10909,10 @@
         <v>116</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G67" s="7">
         <v>0</v>
@@ -10917,10 +10926,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>165</v>
@@ -10929,10 +10938,10 @@
         <v>116</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G68" s="7">
         <v>0</v>
@@ -10946,10 +10955,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>165</v>
@@ -10958,10 +10967,10 @@
         <v>116</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G69" s="7">
         <v>0</v>
@@ -10975,10 +10984,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>165</v>
@@ -10987,10 +10996,10 @@
         <v>116</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G70" s="7">
         <v>0</v>
@@ -11004,10 +11013,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>144</v>
@@ -11016,10 +11025,10 @@
         <v>116</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G71" s="17">
         <v>0</v>
@@ -11033,10 +11042,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>102</v>
@@ -11045,10 +11054,10 @@
         <v>116</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G72" s="7">
         <v>0</v>
@@ -11062,10 +11071,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>102</v>
@@ -11074,10 +11083,10 @@
         <v>116</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G73" s="7">
         <v>0</v>
@@ -11091,10 +11100,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>102</v>
@@ -11103,10 +11112,10 @@
         <v>116</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G74" s="7">
         <v>0</v>
@@ -11120,10 +11129,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>102</v>
@@ -11132,10 +11141,10 @@
         <v>116</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G75" s="7">
         <v>0</v>
@@ -11149,10 +11158,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>102</v>
@@ -11161,10 +11170,10 @@
         <v>116</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G76" s="7">
         <v>0</v>
@@ -11178,10 +11187,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>102</v>
@@ -11190,10 +11199,10 @@
         <v>116</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G77" s="7">
         <v>0</v>
@@ -11207,10 +11216,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>102</v>
@@ -11219,10 +11228,10 @@
         <v>116</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G78" s="7">
         <v>0</v>
@@ -11236,10 +11245,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>102</v>
@@ -11248,10 +11257,10 @@
         <v>116</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G79" s="7">
         <v>0</v>
@@ -11265,10 +11274,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>102</v>
@@ -11277,10 +11286,10 @@
         <v>116</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G80" s="7">
         <v>0</v>
@@ -11294,10 +11303,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>102</v>
@@ -11306,10 +11315,10 @@
         <v>116</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G81" s="7">
         <v>0</v>
@@ -11323,10 +11332,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>102</v>
@@ -11335,10 +11344,10 @@
         <v>116</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G82" s="7">
         <v>0</v>
@@ -11352,10 +11361,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>102</v>
@@ -11364,10 +11373,10 @@
         <v>116</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G83" s="7">
         <v>0</v>
@@ -11381,10 +11390,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>102</v>
@@ -11393,10 +11402,10 @@
         <v>116</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G84" s="7">
         <v>0</v>
@@ -11410,10 +11419,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>102</v>
@@ -11422,10 +11431,10 @@
         <v>116</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G85" s="7">
         <v>0</v>
@@ -11439,10 +11448,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>102</v>
@@ -11451,10 +11460,10 @@
         <v>116</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G86" s="7">
         <v>0</v>
@@ -11468,10 +11477,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>97</v>
@@ -11480,10 +11489,10 @@
         <v>116</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G87" s="7">
         <v>0</v>
@@ -11497,10 +11506,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>97</v>
@@ -11509,10 +11518,10 @@
         <v>116</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G88" s="7">
         <v>0</v>
@@ -11526,10 +11535,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>97</v>
@@ -11538,10 +11547,10 @@
         <v>116</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G89" s="7">
         <v>0</v>
@@ -11555,10 +11564,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>90</v>
@@ -11567,10 +11576,10 @@
         <v>116</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G90" s="7">
         <v>0</v>
@@ -11584,10 +11593,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>90</v>
@@ -11596,10 +11605,10 @@
         <v>116</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G91" s="7">
         <v>0</v>
@@ -11613,10 +11622,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>90</v>
@@ -11625,10 +11634,10 @@
         <v>116</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G92" s="7">
         <v>0</v>
@@ -11642,10 +11651,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>90</v>
@@ -11654,10 +11663,10 @@
         <v>116</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G93" s="7">
         <v>0</v>
@@ -11671,10 +11680,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>90</v>
@@ -11683,10 +11692,10 @@
         <v>116</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G94" s="7">
         <v>0</v>
@@ -11700,10 +11709,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>90</v>
@@ -11712,10 +11721,10 @@
         <v>116</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G95" s="7">
         <v>0</v>
@@ -11729,10 +11738,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>90</v>
@@ -11741,10 +11750,10 @@
         <v>116</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G96" s="7">
         <v>0</v>
@@ -11758,10 +11767,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>90</v>
@@ -11770,10 +11779,10 @@
         <v>116</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G97" s="7">
         <v>0</v>
@@ -11787,10 +11796,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>90</v>
@@ -11799,10 +11808,10 @@
         <v>116</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G98" s="7">
         <v>0</v>
@@ -11816,10 +11825,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>90</v>
@@ -11828,10 +11837,10 @@
         <v>116</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G99" s="7">
         <v>0</v>
@@ -11845,10 +11854,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>90</v>
@@ -11857,10 +11866,10 @@
         <v>116</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G100" s="7">
         <v>0</v>
@@ -11874,10 +11883,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>90</v>
@@ -11886,10 +11895,10 @@
         <v>116</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G101" s="7">
         <v>0</v>
@@ -11903,10 +11912,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>90</v>
@@ -11915,10 +11924,10 @@
         <v>116</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G102" s="7">
         <v>0</v>
@@ -11932,10 +11941,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>90</v>
@@ -11944,10 +11953,10 @@
         <v>116</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G103" s="7">
         <v>0</v>
@@ -11961,10 +11970,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>90</v>
@@ -11973,10 +11982,10 @@
         <v>116</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G104" s="7">
         <v>0</v>
@@ -12069,8 +12078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12083,10 +12092,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>79</v>
@@ -12095,18 +12104,18 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>98</v>
@@ -12114,19 +12123,22 @@
       <c r="C2" t="s">
         <v>91</v>
       </c>
+      <c r="D2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" t="s">
         <v>333</v>
       </c>
-      <c r="B3" t="s">
-        <v>334</v>
-      </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12134,21 +12146,18 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C5" t="s">
         <v>110</v>
@@ -12156,10 +12165,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C6" t="s">
         <v>118</v>
@@ -12167,10 +12176,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" t="s">
         <v>120</v>
@@ -12178,10 +12187,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
         <v>113</v>
@@ -12189,10 +12198,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
@@ -12200,10 +12209,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
@@ -12211,21 +12220,21 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" t="s">
         <v>140</v>
@@ -12233,10 +12242,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C13" t="s">
         <v>124</v>
@@ -12244,10 +12253,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
@@ -12255,10 +12264,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
         <v>126</v>
@@ -12266,142 +12275,142 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" t="s">
-        <v>316</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C28" t="s">
         <v>164</v>
@@ -12409,10 +12418,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C29" t="s">
         <v>168</v>
@@ -12420,43 +12429,43 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C33" t="s">
         <v>143</v>
@@ -12464,10 +12473,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C34" t="s">
         <v>148</v>
@@ -12475,10 +12484,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C35" t="s">
         <v>151</v>
@@ -12486,21 +12495,21 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C37" t="s">
         <v>159</v>
@@ -12508,10 +12517,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C38" t="s">
         <v>162</v>
@@ -12519,10 +12528,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
         <v>131</v>
@@ -12530,10 +12539,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C40" t="s">
         <v>154</v>
@@ -12541,10 +12550,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C41" t="s">
         <v>138</v>
@@ -12552,10 +12561,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C42" t="s">
         <v>136</v>
@@ -12563,54 +12572,54 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="C43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="C44" t="s">
-        <v>325</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="C45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="C46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="C47" t="s">
         <v>108</v>
@@ -12618,10 +12627,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="C48" t="s">
         <v>106</v>
@@ -12629,13 +12638,13 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -12648,8 +12657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12661,7 +12670,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>79</v>
@@ -12670,27 +12679,27 @@
         <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" s="11">
         <v>4.0000000000000002E-4</v>
@@ -12708,13 +12717,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D3" s="11">
         <v>8.0000000000000004E-4</v>
@@ -12732,13 +12741,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D4" s="11">
         <v>1.1000000000000001E-3</v>
@@ -12756,13 +12765,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D5" s="11">
         <v>1.38E-2</v>
@@ -12780,13 +12789,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D6" s="11">
         <v>8.0000000000000002E-3</v>
@@ -12804,13 +12813,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D7" s="11">
         <v>0.36699999999999999</v>
@@ -12828,13 +12837,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D8" s="11">
         <v>0.20499999999999999</v>
@@ -12852,13 +12861,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D9">
         <v>5.6</v>
@@ -12876,13 +12885,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -12900,13 +12909,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12924,13 +12933,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12948,13 +12957,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D13">
         <v>3.49</v>
@@ -12972,13 +12981,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D14">
         <v>7.17</v>
@@ -12996,13 +13005,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D15">
         <v>0.24</v>
@@ -13020,13 +13029,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D16">
         <v>0.95</v>
@@ -13044,13 +13053,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -13068,13 +13077,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D18">
         <v>3.74</v>
@@ -13092,13 +13101,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D19">
         <v>1.5</v>
@@ -13116,13 +13125,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D20">
         <v>2.2000000000000002</v>
@@ -13140,13 +13149,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D21">
         <v>1.42</v>
@@ -13164,13 +13173,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D22">
         <v>2.14</v>
@@ -13188,13 +13197,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D23">
         <v>0.66</v>
@@ -13212,13 +13221,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D24">
         <v>0.2</v>
@@ -13236,13 +13245,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -13260,13 +13269,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D26" s="11">
         <v>2.5999999999999999E-2</v>
@@ -13284,13 +13293,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D27" s="11">
         <v>0.15</v>
@@ -13308,13 +13317,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D28" s="11">
         <v>0.1</v>
@@ -13332,13 +13341,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D29" s="11">
         <v>5.2999999999999999E-2</v>
@@ -13356,13 +13365,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D30" s="11">
         <v>0.16200000000000001</v>
@@ -13380,13 +13389,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D31" s="11">
         <v>0.11700000000000001</v>
@@ -13404,13 +13413,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D32" s="11">
         <v>0.09</v>
@@ -13428,13 +13437,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D33" s="11">
         <v>0.111</v>
@@ -13452,13 +13461,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D34" s="11">
         <v>0.16</v>
@@ -13476,13 +13485,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D35" s="11">
         <v>3.5999999999999999E-3</v>
@@ -13500,13 +13509,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D36" s="11">
         <v>3.5999999999999999E-3</v>
@@ -13524,13 +13533,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D37" s="11">
         <v>5.7999999999999996E-3</v>
@@ -13548,13 +13557,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D38" s="11">
         <v>8.8000000000000005E-3</v>
@@ -13572,13 +13581,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D39" s="11">
         <v>5.8999999999999997E-2</v>
@@ -13596,13 +13605,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D40" s="11">
         <v>0.32300000000000001</v>
@@ -13620,13 +13629,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D41" s="11">
         <v>0.23</v>
@@ -13644,13 +13653,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D42" s="11">
         <v>0.48780000000000001</v>
@@ -13668,13 +13677,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D43" s="11">
         <v>2.17</v>
@@ -13692,13 +13701,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D44" s="13">
         <v>0.95</v>
@@ -13716,13 +13725,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D45" s="13">
         <v>0.57999999999999996</v>
@@ -13740,13 +13749,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
@@ -13764,13 +13773,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D47" s="13">
         <v>2.65</v>
@@ -13788,13 +13797,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D48" s="13">
         <v>0.54</v>
@@ -13812,13 +13821,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D49" s="13">
         <v>0.9</v>
@@ -13836,13 +13845,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D50" s="13">
         <v>0.73</v>
@@ -13860,13 +13869,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D51" s="13">
         <v>0.5</v>
@@ -13884,13 +13893,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D52" s="13">
         <v>0.92</v>
@@ -13908,13 +13917,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D53">
         <v>0.15</v>
@@ -13932,13 +13941,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D54">
         <v>0.01</v>
@@ -13956,13 +13965,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D55">
         <v>0.02</v>
@@ -13980,13 +13989,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D56">
         <v>7.0000000000000007E-2</v>
@@ -14004,13 +14013,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D57">
         <v>0.27</v>
@@ -14028,13 +14037,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D58">
         <v>0.55000000000000004</v>
@@ -14052,13 +14061,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D59">
         <v>0.05</v>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="436">
   <si>
     <t>Code Label</t>
   </si>
@@ -1324,6 +1324,9 @@
   </si>
   <si>
     <t>optprev</t>
+  </si>
+  <si>
+    <t>checkupper</t>
   </si>
 </sst>
 </file>
@@ -8963,8 +8966,8 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12076,10 +12079,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12088,9 +12091,10 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>327</v>
       </c>
@@ -12104,16 +12108,19 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -12123,11 +12130,8 @@
       <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>332</v>
       </c>
@@ -12138,10 +12142,13 @@
         <v>335</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -12151,8 +12158,14 @@
       <c r="C4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>336</v>
       </c>
@@ -12162,8 +12175,11 @@
       <c r="C5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -12173,8 +12189,11 @@
       <c r="C6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>336</v>
       </c>
@@ -12184,8 +12203,11 @@
       <c r="C7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>338</v>
       </c>
@@ -12195,8 +12217,11 @@
       <c r="C8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -12206,8 +12231,11 @@
       <c r="C9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -12217,8 +12245,11 @@
       <c r="C10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>338</v>
       </c>
@@ -12228,8 +12259,11 @@
       <c r="C11" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>338</v>
       </c>
@@ -12239,8 +12273,11 @@
       <c r="C12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>338</v>
       </c>
@@ -12250,8 +12287,11 @@
       <c r="C13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>338</v>
       </c>
@@ -12261,8 +12301,11 @@
       <c r="C14" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -12272,8 +12315,11 @@
       <c r="C15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>339</v>
       </c>
@@ -12283,8 +12329,11 @@
       <c r="C16" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>339</v>
       </c>
@@ -12294,8 +12343,11 @@
       <c r="C17" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>339</v>
       </c>
@@ -12305,8 +12357,11 @@
       <c r="C18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>339</v>
       </c>
@@ -12316,8 +12371,11 @@
       <c r="C19" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>339</v>
       </c>
@@ -12327,8 +12385,11 @@
       <c r="C20" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>339</v>
       </c>
@@ -12338,8 +12399,11 @@
       <c r="C21" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>339</v>
       </c>
@@ -12349,8 +12413,11 @@
       <c r="C22" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>339</v>
       </c>
@@ -12360,8 +12427,11 @@
       <c r="C23" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>339</v>
       </c>
@@ -12371,8 +12441,11 @@
       <c r="C24" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>339</v>
       </c>
@@ -12382,8 +12455,11 @@
       <c r="C25" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>339</v>
       </c>
@@ -12393,8 +12469,11 @@
       <c r="C26" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>339</v>
       </c>
@@ -12404,8 +12483,11 @@
       <c r="C27" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -12415,8 +12497,11 @@
       <c r="C28" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -12426,8 +12511,11 @@
       <c r="C29" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>340</v>
       </c>
@@ -12437,8 +12525,11 @@
       <c r="C30" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>340</v>
       </c>
@@ -12448,8 +12539,11 @@
       <c r="C31" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -12459,8 +12553,11 @@
       <c r="C32" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>341</v>
       </c>
@@ -12470,8 +12567,11 @@
       <c r="C33" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>341</v>
       </c>
@@ -12481,8 +12581,11 @@
       <c r="C34" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>341</v>
       </c>
@@ -12492,8 +12595,11 @@
       <c r="C35" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>341</v>
       </c>
@@ -12503,8 +12609,11 @@
       <c r="C36" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>341</v>
       </c>
@@ -12514,8 +12623,11 @@
       <c r="C37" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>341</v>
       </c>
@@ -12525,8 +12637,11 @@
       <c r="C38" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>341</v>
       </c>
@@ -12536,8 +12651,11 @@
       <c r="C39" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>342</v>
       </c>
@@ -12547,8 +12665,11 @@
       <c r="C40" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>342</v>
       </c>
@@ -12558,8 +12679,11 @@
       <c r="C41" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -12569,8 +12693,11 @@
       <c r="C42" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -12580,8 +12707,11 @@
       <c r="C43" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>343</v>
       </c>
@@ -12591,8 +12721,11 @@
       <c r="C44" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>343</v>
       </c>
@@ -12602,8 +12735,11 @@
       <c r="C45" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>343</v>
       </c>
@@ -12613,8 +12749,11 @@
       <c r="C46" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>343</v>
       </c>
@@ -12624,8 +12763,11 @@
       <c r="C47" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>343</v>
       </c>
@@ -12635,8 +12777,11 @@
       <c r="C48" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>343</v>
       </c>
@@ -12645,6 +12790,9 @@
       </c>
       <c r="C49" t="s">
         <v>101</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12657,8 +12805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="438">
   <si>
     <t>Code Label</t>
   </si>
@@ -1311,9 +1311,6 @@
     <t>transnorm</t>
   </si>
   <si>
-    <t>Transmission normalization factor</t>
-  </si>
-  <si>
     <t>matrix</t>
   </si>
   <si>
@@ -1327,6 +1324,15 @@
   </si>
   <si>
     <t>checkupper</t>
+  </si>
+  <si>
+    <t>Normalization factor for transmissibility</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -8966,8 +8972,8 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L65" sqref="L65"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10294,7 +10300,7 @@
         <v>429</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>97</v>
@@ -12081,8 +12087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12108,7 +12114,7 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>330</v>
@@ -12369,7 +12375,7 @@
         <v>334</v>
       </c>
       <c r="C19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -12607,7 +12613,7 @@
         <v>334</v>
       </c>
       <c r="C36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -12702,7 +12708,7 @@
         <v>343</v>
       </c>
       <c r="B43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C43" t="s">
         <v>324</v>
@@ -12716,10 +12722,10 @@
         <v>343</v>
       </c>
       <c r="B44" t="s">
+        <v>430</v>
+      </c>
+      <c r="C44" t="s">
         <v>431</v>
-      </c>
-      <c r="C44" t="s">
-        <v>432</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -12730,7 +12736,7 @@
         <v>343</v>
       </c>
       <c r="B45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C45" t="s">
         <v>325</v>
@@ -12744,7 +12750,7 @@
         <v>343</v>
       </c>
       <c r="B46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C46" t="s">
         <v>326</v>
@@ -12758,7 +12764,7 @@
         <v>343</v>
       </c>
       <c r="B47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C47" t="s">
         <v>108</v>
@@ -12772,7 +12778,7 @@
         <v>343</v>
       </c>
       <c r="B48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C48" t="s">
         <v>106</v>
@@ -12786,7 +12792,7 @@
         <v>343</v>
       </c>
       <c r="B49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C49" t="s">
         <v>101</v>
@@ -12803,10 +12809,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12814,9 +12820,10 @@
     <col min="1" max="1" width="62.5703125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>344</v>
       </c>
@@ -12838,8 +12845,11 @@
       <c r="G1" s="19" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -12862,8 +12872,11 @@
         <f>AND(D2&gt;=E2, D2&lt;=F2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>345</v>
       </c>
@@ -12886,8 +12899,11 @@
         <f t="shared" ref="G3:G59" si="0">AND(D3&gt;=E3, D3&lt;=F3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>345</v>
       </c>
@@ -12910,8 +12926,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>345</v>
       </c>
@@ -12934,8 +12953,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>345</v>
       </c>
@@ -12958,8 +12980,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>345</v>
       </c>
@@ -12982,8 +13007,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>345</v>
       </c>
@@ -13006,8 +13034,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>396</v>
       </c>
@@ -13030,8 +13061,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>396</v>
       </c>
@@ -13054,8 +13088,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>396</v>
       </c>
@@ -13078,8 +13115,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>396</v>
       </c>
@@ -13102,8 +13142,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>396</v>
       </c>
@@ -13126,8 +13169,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>396</v>
       </c>
@@ -13150,8 +13196,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>395</v>
       </c>
@@ -13174,8 +13223,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>395</v>
       </c>
@@ -13198,8 +13250,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>395</v>
       </c>
@@ -13222,8 +13277,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>395</v>
       </c>
@@ -13246,8 +13304,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>395</v>
       </c>
@@ -13270,8 +13331,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>394</v>
       </c>
@@ -13294,8 +13358,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>394</v>
       </c>
@@ -13318,8 +13385,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>394</v>
       </c>
@@ -13342,8 +13412,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>394</v>
       </c>
@@ -13366,8 +13439,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>394</v>
       </c>
@@ -13390,8 +13466,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>394</v>
       </c>
@@ -13414,8 +13493,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>393</v>
       </c>
@@ -13438,8 +13520,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>393</v>
       </c>
@@ -13462,8 +13547,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>393</v>
       </c>
@@ -13486,8 +13574,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>393</v>
       </c>
@@ -13510,8 +13601,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>393</v>
       </c>
@@ -13534,8 +13628,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>393</v>
       </c>
@@ -13558,8 +13655,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>393</v>
       </c>
@@ -13582,8 +13682,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>393</v>
       </c>
@@ -13606,8 +13709,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>393</v>
       </c>
@@ -13630,8 +13736,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>392</v>
       </c>
@@ -13654,8 +13763,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>392</v>
       </c>
@@ -13678,8 +13790,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>392</v>
       </c>
@@ -13702,8 +13817,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>392</v>
       </c>
@@ -13726,8 +13844,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>392</v>
       </c>
@@ -13750,8 +13871,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>392</v>
       </c>
@@ -13774,8 +13898,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>392</v>
       </c>
@@ -13798,8 +13925,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>392</v>
       </c>
@@ -13822,8 +13952,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>392</v>
       </c>
@@ -13846,8 +13979,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>391</v>
       </c>
@@ -13870,8 +14006,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>391</v>
       </c>
@@ -13894,8 +14033,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>391</v>
       </c>
@@ -13918,8 +14060,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>391</v>
       </c>
@@ -13942,8 +14087,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>391</v>
       </c>
@@ -13966,8 +14114,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>391</v>
       </c>
@@ -13990,8 +14141,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>391</v>
       </c>
@@ -14014,8 +14168,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>391</v>
       </c>
@@ -14038,8 +14195,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>391</v>
       </c>
@@ -14062,8 +14222,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>390</v>
       </c>
@@ -14086,8 +14249,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>390</v>
       </c>
@@ -14110,8 +14276,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>390</v>
       </c>
@@ -14134,8 +14303,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>390</v>
       </c>
@@ -14158,8 +14330,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>390</v>
       </c>
@@ -14182,8 +14357,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>390</v>
       </c>
@@ -14206,8 +14384,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>390</v>
       </c>
@@ -14229,6 +14410,9 @@
       <c r="G59" s="20" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="439">
   <si>
     <t>Code Label</t>
   </si>
@@ -1333,6 +1333,9 @@
   </si>
   <si>
     <t>percentage</t>
+  </si>
+  <si>
+    <t>decimal</t>
   </si>
 </sst>
 </file>
@@ -12811,8 +12814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12873,7 +12876,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -12900,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -12927,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12954,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -12981,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -13008,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -13035,7 +13038,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -13764,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -13791,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -13818,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -13845,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -13872,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -13899,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="440">
   <si>
     <t>Code Label</t>
   </si>
@@ -1336,6 +1336,9 @@
   </si>
   <si>
     <t>decimal</t>
+  </si>
+  <si>
+    <t>general</t>
   </si>
 </sst>
 </file>
@@ -12090,8 +12093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12101,6 +12104,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12156,6 +12160,9 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="G3" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -12173,6 +12180,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="G4" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -12187,6 +12197,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -12201,6 +12214,9 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="G6" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -12215,6 +12231,9 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="G7" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -12229,6 +12248,9 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="G8" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -12243,6 +12265,9 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="G9" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -12257,6 +12282,9 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="G10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -12271,6 +12299,9 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="G11" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -12285,6 +12316,9 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="G12" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -12299,6 +12333,9 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="G13" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -12313,6 +12350,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="G14" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -12327,6 +12367,9 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="G15" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -12341,8 +12384,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>339</v>
       </c>
@@ -12355,8 +12401,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>339</v>
       </c>
@@ -12369,8 +12418,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>339</v>
       </c>
@@ -12383,8 +12435,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>339</v>
       </c>
@@ -12397,8 +12452,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>339</v>
       </c>
@@ -12411,8 +12469,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>339</v>
       </c>
@@ -12425,8 +12486,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>339</v>
       </c>
@@ -12439,8 +12503,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>339</v>
       </c>
@@ -12453,8 +12520,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>339</v>
       </c>
@@ -12467,8 +12537,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>339</v>
       </c>
@@ -12481,8 +12554,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>339</v>
       </c>
@@ -12495,8 +12571,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -12509,8 +12588,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -12523,8 +12605,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>340</v>
       </c>
@@ -12537,8 +12622,11 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>340</v>
       </c>
@@ -12551,8 +12639,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -12565,8 +12656,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>341</v>
       </c>
@@ -12579,8 +12673,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>341</v>
       </c>
@@ -12593,8 +12690,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>341</v>
       </c>
@@ -12607,8 +12707,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>341</v>
       </c>
@@ -12621,8 +12724,11 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>341</v>
       </c>
@@ -12635,8 +12741,11 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>341</v>
       </c>
@@ -12649,8 +12758,11 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>341</v>
       </c>
@@ -12663,8 +12775,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>342</v>
       </c>
@@ -12677,8 +12792,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>342</v>
       </c>
@@ -12691,8 +12809,11 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -12705,8 +12826,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -12719,8 +12843,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>343</v>
       </c>
@@ -12733,8 +12860,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>343</v>
       </c>
@@ -12747,8 +12877,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>343</v>
       </c>
@@ -12761,8 +12894,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>343</v>
       </c>
@@ -12775,8 +12911,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>343</v>
       </c>
@@ -12789,8 +12928,11 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>343</v>
       </c>
@@ -12802,6 +12944,9 @@
       </c>
       <c r="E49">
         <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -12814,8 +12959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="441">
   <si>
     <t>Code Label</t>
   </si>
@@ -1339,6 +1339,9 @@
   </si>
   <si>
     <t>general</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -12094,7 +12097,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12142,6 +12145,21 @@
       </c>
       <c r="C2" t="s">
         <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="444">
   <si>
     <t>Code Label</t>
   </si>
@@ -1005,12 +1005,6 @@
     <t>sheet</t>
   </si>
   <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
     <t>method</t>
   </si>
   <si>
@@ -1341,7 +1335,22 @@
     <t>general</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>rowformat</t>
+  </si>
+  <si>
+    <t>range1</t>
+  </si>
+  <si>
+    <t>range2</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>females</t>
+  </si>
+  <si>
+    <t>allpops</t>
   </si>
 </sst>
 </file>
@@ -6394,38 +6403,38 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6433,7 +6442,7 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,7 +6450,7 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6449,7 +6458,7 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6457,7 +6466,7 @@
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6465,7 +6474,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6473,7 +6482,7 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6481,7 +6490,7 @@
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6489,7 +6498,7 @@
         <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6497,7 +6506,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6505,15 +6514,15 @@
         <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6521,7 +6530,7 @@
         <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -9016,10 +9025,10 @@
         <v>82</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>84</v>
@@ -9062,7 +9071,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>97</v>
@@ -9091,7 +9100,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>97</v>
@@ -9581,7 +9590,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>169</v>
@@ -10306,10 +10315,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>97</v>
@@ -11031,10 +11040,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>144</v>
@@ -11075,7 +11084,7 @@
         <v>200</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G72" s="7">
         <v>0</v>
@@ -11104,7 +11113,7 @@
         <v>200</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G73" s="7">
         <v>0</v>
@@ -11133,7 +11142,7 @@
         <v>200</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G74" s="7">
         <v>0</v>
@@ -11162,7 +11171,7 @@
         <v>200</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G75" s="7">
         <v>0</v>
@@ -11191,7 +11200,7 @@
         <v>200</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G76" s="7">
         <v>0</v>
@@ -11220,7 +11229,7 @@
         <v>200</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G77" s="7">
         <v>0</v>
@@ -11249,7 +11258,7 @@
         <v>200</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G78" s="7">
         <v>0</v>
@@ -11278,7 +11287,7 @@
         <v>200</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G79" s="7">
         <v>0</v>
@@ -11307,7 +11316,7 @@
         <v>200</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G80" s="7">
         <v>0</v>
@@ -11336,7 +11345,7 @@
         <v>200</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G81" s="7">
         <v>0</v>
@@ -11365,7 +11374,7 @@
         <v>200</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G82" s="7">
         <v>0</v>
@@ -11394,7 +11403,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G83" s="7">
         <v>0</v>
@@ -11423,7 +11432,7 @@
         <v>200</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G84" s="7">
         <v>0</v>
@@ -11440,7 +11449,7 @@
         <v>275</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>102</v>
@@ -11469,7 +11478,7 @@
         <v>276</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>102</v>
@@ -11568,7 +11577,7 @@
         <v>200</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G89" s="7">
         <v>0</v>
@@ -11829,7 +11838,7 @@
         <v>200</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G98" s="7">
         <v>0</v>
@@ -11858,7 +11867,7 @@
         <v>200</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G99" s="7">
         <v>0</v>
@@ -11887,7 +11896,7 @@
         <v>200</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G100" s="7">
         <v>0</v>
@@ -11916,7 +11925,7 @@
         <v>200</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G101" s="7">
         <v>0</v>
@@ -11945,7 +11954,7 @@
         <v>200</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G102" s="7">
         <v>0</v>
@@ -11974,7 +11983,7 @@
         <v>200</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G103" s="7">
         <v>0</v>
@@ -12003,7 +12012,7 @@
         <v>200</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G104" s="7">
         <v>0</v>
@@ -12094,10 +12103,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12105,40 +12114,43 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>328</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>98</v>
@@ -12147,824 +12159,989 @@
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="I2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
         <v>333</v>
       </c>
-      <c r="C3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>92</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>437</v>
+      </c>
+      <c r="I4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C5" t="s">
         <v>110</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>436</v>
+      </c>
+      <c r="I5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
         <v>118</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
         <v>120</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>436</v>
+      </c>
+      <c r="I7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
         <v>113</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>435</v>
+      </c>
+      <c r="I9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>437</v>
+      </c>
+      <c r="I10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
         <v>198</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>437</v>
+      </c>
+      <c r="I11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C12" t="s">
         <v>140</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>435</v>
+      </c>
+      <c r="I12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
         <v>124</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>437</v>
+      </c>
+      <c r="I13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>434</v>
+      </c>
+      <c r="I14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C15" t="s">
         <v>126</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>435</v>
+      </c>
+      <c r="I15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
         <v>313</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>437</v>
+      </c>
+      <c r="I16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
         <v>314</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>437</v>
+      </c>
+      <c r="I17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
         <v>315</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>437</v>
+      </c>
+      <c r="I18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C19" t="s">
-        <v>433</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>435</v>
+      </c>
+      <c r="I19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
         <v>316</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>437</v>
+      </c>
+      <c r="I20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C21" t="s">
         <v>317</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>437</v>
+      </c>
+      <c r="I21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C22" t="s">
         <v>318</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>437</v>
+      </c>
+      <c r="I22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C23" t="s">
         <v>319</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>435</v>
+      </c>
+      <c r="I23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C24" t="s">
         <v>320</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>435</v>
+      </c>
+      <c r="I24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C25" t="s">
         <v>321</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>435</v>
+      </c>
+      <c r="I25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C26" t="s">
         <v>322</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>435</v>
+      </c>
+      <c r="I26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
         <v>323</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>435</v>
+      </c>
+      <c r="I27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C28" t="s">
         <v>164</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>437</v>
+      </c>
+      <c r="I28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
         <v>168</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>437</v>
+      </c>
+      <c r="I29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
         <v>171</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>435</v>
+      </c>
+      <c r="I30" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
         <v>173</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>435</v>
+      </c>
+      <c r="I31" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>340</v>
-      </c>
-      <c r="B32" t="s">
-        <v>334</v>
-      </c>
-      <c r="C32" t="s">
-        <v>423</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C33" t="s">
         <v>143</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>437</v>
+      </c>
+      <c r="I33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
         <v>148</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>437</v>
+      </c>
+      <c r="I34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C35" t="s">
         <v>151</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>437</v>
+      </c>
+      <c r="I35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C36" t="s">
-        <v>432</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>435</v>
+      </c>
+      <c r="I36" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C37" t="s">
         <v>159</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>435</v>
+      </c>
+      <c r="I37" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C38" t="s">
         <v>162</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>435</v>
+      </c>
+      <c r="I38" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
         <v>131</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>435</v>
+      </c>
+      <c r="I39" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C40" t="s">
         <v>154</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>437</v>
+      </c>
+      <c r="I40" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C41" t="s">
         <v>138</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>435</v>
+      </c>
+      <c r="I41" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C42" t="s">
         <v>136</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>437</v>
+      </c>
+      <c r="I42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C43" t="s">
         <v>324</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>437</v>
+      </c>
+      <c r="H43" t="s">
+        <v>443</v>
+      </c>
+      <c r="I43" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C44" t="s">
-        <v>431</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>437</v>
+      </c>
+      <c r="H44" t="s">
+        <v>443</v>
+      </c>
+      <c r="I44" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C45" t="s">
         <v>325</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>437</v>
+      </c>
+      <c r="H45" t="s">
+        <v>443</v>
+      </c>
+      <c r="I45" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C46" t="s">
         <v>326</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>437</v>
+      </c>
+      <c r="H46" t="s">
+        <v>443</v>
+      </c>
+      <c r="I46" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C47" t="s">
         <v>108</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>437</v>
+      </c>
+      <c r="H47" t="s">
+        <v>442</v>
+      </c>
+      <c r="I47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C48" t="s">
         <v>106</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>437</v>
+      </c>
+      <c r="H48" t="s">
+        <v>443</v>
+      </c>
+      <c r="I48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C49" t="s">
         <v>101</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>439</v>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>437</v>
+      </c>
+      <c r="H49" t="s">
+        <v>443</v>
+      </c>
+      <c r="I49" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -12978,7 +13155,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12991,7 +13168,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>79</v>
@@ -13000,30 +13177,30 @@
         <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
         <v>201</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D2" s="11">
         <v>4.0000000000000002E-4</v>
@@ -13039,18 +13216,18 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
         <v>204</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D3" s="11">
         <v>8.0000000000000004E-4</v>
@@ -13066,18 +13243,18 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
         <v>206</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D4" s="11">
         <v>1.1000000000000001E-3</v>
@@ -13093,18 +13270,18 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>208</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D5" s="11">
         <v>1.38E-2</v>
@@ -13120,18 +13297,18 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
         <v>210</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D6" s="11">
         <v>8.0000000000000002E-3</v>
@@ -13147,18 +13324,18 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
         <v>212</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D7" s="11">
         <v>0.36699999999999999</v>
@@ -13174,18 +13351,18 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>214</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D8" s="11">
         <v>0.20499999999999999</v>
@@ -13201,18 +13378,18 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D9">
         <v>5.6</v>
@@ -13228,18 +13405,18 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -13255,18 +13432,18 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -13282,18 +13459,18 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -13309,18 +13486,18 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D13">
         <v>3.49</v>
@@ -13336,18 +13513,18 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D14">
         <v>7.17</v>
@@ -13363,18 +13540,18 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D15">
         <v>0.24</v>
@@ -13390,18 +13567,18 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D16">
         <v>0.95</v>
@@ -13417,18 +13594,18 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -13444,18 +13621,18 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D18">
         <v>3.74</v>
@@ -13471,18 +13648,18 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D19">
         <v>1.5</v>
@@ -13498,18 +13675,18 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D20">
         <v>2.2000000000000002</v>
@@ -13525,18 +13702,18 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D21">
         <v>1.42</v>
@@ -13552,18 +13729,18 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D22">
         <v>2.14</v>
@@ -13579,18 +13756,18 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D23">
         <v>0.66</v>
@@ -13606,12 +13783,12 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>248</v>
@@ -13633,18 +13810,18 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -13660,18 +13837,18 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D26" s="11">
         <v>2.5999999999999999E-2</v>
@@ -13687,18 +13864,18 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D27" s="11">
         <v>0.15</v>
@@ -13714,18 +13891,18 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D28" s="11">
         <v>0.1</v>
@@ -13741,18 +13918,18 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D29" s="11">
         <v>5.2999999999999999E-2</v>
@@ -13768,18 +13945,18 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D30" s="11">
         <v>0.16200000000000001</v>
@@ -13795,18 +13972,18 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D31" s="11">
         <v>0.11700000000000001</v>
@@ -13822,18 +13999,18 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D32" s="11">
         <v>0.09</v>
@@ -13849,18 +14026,18 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D33" s="11">
         <v>0.111</v>
@@ -13876,12 +14053,12 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>266</v>
@@ -13903,18 +14080,18 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D35" s="11">
         <v>3.5999999999999999E-3</v>
@@ -13930,18 +14107,18 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D36" s="11">
         <v>3.5999999999999999E-3</v>
@@ -13957,18 +14134,18 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D37" s="11">
         <v>5.7999999999999996E-3</v>
@@ -13984,18 +14161,18 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D38" s="11">
         <v>8.8000000000000005E-3</v>
@@ -14011,18 +14188,18 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D39" s="11">
         <v>5.8999999999999997E-2</v>
@@ -14038,18 +14215,18 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D40" s="11">
         <v>0.32300000000000001</v>
@@ -14065,18 +14242,18 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D41" s="11">
         <v>0.23</v>
@@ -14092,18 +14269,18 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D42" s="11">
         <v>0.48780000000000001</v>
@@ -14119,18 +14296,18 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D43" s="11">
         <v>2.17</v>
@@ -14146,18 +14323,18 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D44" s="13">
         <v>0.95</v>
@@ -14173,18 +14350,18 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D45" s="13">
         <v>0.57999999999999996</v>
@@ -14200,18 +14377,18 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
@@ -14227,18 +14404,18 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D47" s="13">
         <v>2.65</v>
@@ -14254,18 +14431,18 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D48" s="13">
         <v>0.54</v>
@@ -14281,18 +14458,18 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D49" s="13">
         <v>0.9</v>
@@ -14308,18 +14485,18 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D50" s="13">
         <v>0.73</v>
@@ -14335,18 +14512,18 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D51" s="13">
         <v>0.5</v>
@@ -14362,18 +14539,18 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D52" s="13">
         <v>0.92</v>
@@ -14389,18 +14566,18 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D53">
         <v>0.15</v>
@@ -14416,18 +14593,18 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D54">
         <v>0.01</v>
@@ -14443,18 +14620,18 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D55">
         <v>0.02</v>
@@ -14470,18 +14647,18 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D56">
         <v>7.0000000000000007E-2</v>
@@ -14497,18 +14674,18 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D57">
         <v>0.27</v>
@@ -14524,18 +14701,18 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>310</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D58">
         <v>0.55000000000000004</v>
@@ -14551,18 +14728,18 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s">
         <v>312</v>
       </c>
       <c r="C59" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D59">
         <v>0.05</v>
@@ -14578,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="451">
   <si>
     <t>Code Label</t>
   </si>
@@ -1351,6 +1351,27 @@
   </si>
   <si>
     <t>allpops</t>
+  </si>
+  <si>
+    <t>Interactions between regular partners</t>
+  </si>
+  <si>
+    <t>Interactions between casual partners</t>
+  </si>
+  <si>
+    <t>Interactions between commercial partners</t>
+  </si>
+  <si>
+    <t>Interactions between people who inject drugs</t>
+  </si>
+  <si>
+    <t>Births</t>
+  </si>
+  <si>
+    <t>Aging</t>
+  </si>
+  <si>
+    <t>Risk-related transitions (years before movement)</t>
   </si>
 </sst>
 </file>
@@ -12106,7 +12127,8 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12115,7 +12137,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12996,6 +13018,9 @@
       <c r="D43">
         <v>0</v>
       </c>
+      <c r="E43" t="s">
+        <v>444</v>
+      </c>
       <c r="F43" t="s">
         <v>437</v>
       </c>
@@ -13019,6 +13044,9 @@
       <c r="D44">
         <v>0</v>
       </c>
+      <c r="E44" t="s">
+        <v>445</v>
+      </c>
       <c r="F44" t="s">
         <v>437</v>
       </c>
@@ -13042,6 +13070,9 @@
       <c r="D45">
         <v>0</v>
       </c>
+      <c r="E45" t="s">
+        <v>446</v>
+      </c>
       <c r="F45" t="s">
         <v>437</v>
       </c>
@@ -13065,6 +13096,9 @@
       <c r="D46">
         <v>0</v>
       </c>
+      <c r="E46" t="s">
+        <v>447</v>
+      </c>
       <c r="F46" t="s">
         <v>437</v>
       </c>
@@ -13088,6 +13122,9 @@
       <c r="D47">
         <v>0</v>
       </c>
+      <c r="E47" t="s">
+        <v>448</v>
+      </c>
       <c r="F47" t="s">
         <v>437</v>
       </c>
@@ -13111,6 +13148,9 @@
       <c r="D48">
         <v>0</v>
       </c>
+      <c r="E48" t="s">
+        <v>449</v>
+      </c>
       <c r="F48" t="s">
         <v>437</v>
       </c>
@@ -13133,6 +13173,9 @@
       </c>
       <c r="D49">
         <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>450</v>
       </c>
       <c r="F49" t="s">
         <v>437</v>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="483">
   <si>
     <t>Code Label</t>
   </si>
@@ -1371,7 +1371,103 @@
     <t>Aging</t>
   </si>
   <si>
-    <t>Risk-related transitions (years before movement)</t>
+    <t>Risk-related population transitions (average number of years before movement)</t>
+  </si>
+  <si>
+    <t>Percentage of people who die from non-HIV-related causes per year</t>
+  </si>
+  <si>
+    <t>Prevalence of any ulcerative STIs</t>
+  </si>
+  <si>
+    <t>Percentage of population tested for HIV in the last 12 months</t>
+  </si>
+  <si>
+    <t>Probability of a person with CD4 &lt;200 being tested per year</t>
+  </si>
+  <si>
+    <t>Percentage of people covered by pre-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Number of women on PMTCT (Option B/B+)</t>
+  </si>
+  <si>
+    <t>Birth rate (births per woman per year)</t>
+  </si>
+  <si>
+    <t>Percentage of HIV-positive women who breastfeed</t>
+  </si>
+  <si>
+    <t>Number of HIV tests per year</t>
+  </si>
+  <si>
+    <t>Number of HIV diagnoses per year</t>
+  </si>
+  <si>
+    <t>Modeled estimate of new HIV infections per year</t>
+  </si>
+  <si>
+    <t>Modeled estimate of HIV prevalence</t>
+  </si>
+  <si>
+    <t>Modeled estimate of number of PLHIV</t>
+  </si>
+  <si>
+    <t>Number of HIV-related deaths</t>
+  </si>
+  <si>
+    <t>Number of people initiating ART each year</t>
+  </si>
+  <si>
+    <t>PLHIV aware of their status (%)</t>
+  </si>
+  <si>
+    <t>Diagnosed PLHIV in care (%)</t>
+  </si>
+  <si>
+    <t>PLHIV in care on treatment (%)</t>
+  </si>
+  <si>
+    <t>Pregnant women on PMTCT (%)</t>
+  </si>
+  <si>
+    <t>People on ART with viral suppression (%)</t>
+  </si>
+  <si>
+    <t>Percentage of people in care who are lost to follow-up per year (%/year)</t>
+  </si>
+  <si>
+    <t>Percentage of people with CD4&lt;200 lost to follow-up (%/year)</t>
+  </si>
+  <si>
+    <t>Average number of acts with regular partners per person per year</t>
+  </si>
+  <si>
+    <t>Average number of acts with casual partners per person per year</t>
+  </si>
+  <si>
+    <t>Average number of acts with commercial partners per person per year</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with regular partners</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with casual partners</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with commercial partners</t>
+  </si>
+  <si>
+    <t>Percentage of males who have been circumcised</t>
+  </si>
+  <si>
+    <t>Average number of injections per person per year</t>
+  </si>
+  <si>
+    <t>Number of people who inject drugs who are on opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>Percentage of people who receptively shared a needle/syringe at last injection</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1793,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2162">
+  <cellStyleXfs count="6302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3860,8 +3956,4148 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3937,8 +8173,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2162">
+  <cellStyles count="6302">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
     <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
     <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
@@ -4967,6 +9204,2076 @@
     <cellStyle name="Followed Hyperlink" xfId="2157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2159" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2625" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2627" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2629" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2631" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2635" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2637" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2639" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2641" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2643" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2645" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2647" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2649" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2653" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2655" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2657" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2659" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2661" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2663" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2665" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2667" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2669" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2671" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2673" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2675" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2677" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2679" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2681" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2683" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2685" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2689" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2691" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2693" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2695" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2697" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2985" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2987" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2989" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2991" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2993" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2995" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2997" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2999" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3001" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3003" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3005" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3007" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3009" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3011" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3013" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3015" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3017" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3019" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3021" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3023" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3025" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3027" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3029" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3031" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3033" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3035" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3037" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3039" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3041" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3043" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3045" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3047" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3049" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3051" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3053" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3055" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3057" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3059" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3061" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3063" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3065" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3067" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3069" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3071" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3073" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3075" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3715" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3717" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3719" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3805" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3897" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3899" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3901" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3903" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3905" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3907" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3909" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3911" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3913" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3915" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3917" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3919" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3921" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3923" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3925" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3927" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3929" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3931" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3933" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3935" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3937" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3939" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3941" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3943" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3945" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3947" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3949" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3951" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3953" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3955" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3957" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3959" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3961" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3963" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3965" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3967" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3969" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3971" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3973" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3975" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3977" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3979" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3981" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3983" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3985" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3987" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4079" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4081" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4083" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4085" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4087" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4089" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4091" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4093" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4095" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4097" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4099" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4685" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4689" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4691" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4693" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4695" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4697" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4699" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4701" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4703" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4705" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4707" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4709" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4711" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4713" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4715" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4717" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4719" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4971" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4973" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4975" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4977" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4979" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4981" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4983" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4985" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4987" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4989" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4991" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4993" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4995" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4997" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4999" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5001" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5003" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5005" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5007" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5009" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5011" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5013" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5015" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5017" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5019" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5021" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5023" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5025" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5027" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5029" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5031" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5033" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5035" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5037" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5039" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5041" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5043" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5045" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5047" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5049" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5051" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5053" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5055" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5057" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5059" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5061" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5701" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5703" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5705" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5707" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5709" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5711" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5713" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5715" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5717" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5719" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5883" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5885" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5887" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5889" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5891" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5893" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5895" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5897" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5899" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5901" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5903" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5905" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5907" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5909" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5911" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5913" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5915" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5917" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5919" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5921" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5923" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5925" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5927" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5929" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5931" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5933" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5935" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5937" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5939" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5941" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5943" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5945" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5947" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5949" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5951" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5953" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5955" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5957" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5959" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5961" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5963" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5965" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5967" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5969" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5971" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5973" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6065" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6067" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6069" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6071" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6073" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6075" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6077" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6079" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6081" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6083" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6085" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6087" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6089" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6091" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6093" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6095" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6097" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6099" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6301" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="70"/>
     <cellStyle name="Followed Hyperlink 11" xfId="71"/>
     <cellStyle name="Followed Hyperlink 12" xfId="72"/>
@@ -6077,6 +12384,2076 @@
     <cellStyle name="Hyperlink" xfId="2156" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2158" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2624" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2626" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2628" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2630" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2632" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2634" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2636" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2638" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2640" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2642" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2644" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2646" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2648" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2650" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2652" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2654" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2656" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2658" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2660" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2662" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2664" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2666" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2668" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2670" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2672" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2674" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2676" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2678" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2680" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2682" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2684" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2686" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2688" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2690" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2692" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2694" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2696" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2986" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2988" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2990" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2992" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2994" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2996" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2998" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3000" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3002" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3004" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3006" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3008" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3010" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3012" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3014" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3016" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3018" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3020" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3022" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3024" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3026" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3028" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3030" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3032" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3034" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3036" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3038" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3040" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3042" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3044" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3046" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3048" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3050" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3052" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3054" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3056" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3058" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3060" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3062" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3064" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3066" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3068" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3070" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3072" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3074" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3716" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3718" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3802" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3804" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3898" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3900" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3902" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3904" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3906" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3908" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3910" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3912" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3914" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3916" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3918" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3920" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3922" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3924" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3926" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3928" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3930" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3932" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3934" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3936" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3938" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3940" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3942" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3944" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3946" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3948" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3950" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3952" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3954" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3956" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3958" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3960" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3962" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3964" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3966" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3968" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3970" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3972" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3974" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3976" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3978" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3980" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3982" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3984" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3986" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4080" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4082" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4084" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4086" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4088" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4090" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4092" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4094" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4096" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4098" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4686" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4688" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4690" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4692" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4694" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4696" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4698" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4700" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4702" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4704" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4706" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4708" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4710" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4712" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4714" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4716" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4718" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4972" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4974" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4976" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4978" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4980" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4982" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4984" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4986" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4988" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4990" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4992" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4994" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4996" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4998" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5000" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5002" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5004" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5006" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5008" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5010" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5012" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5014" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5016" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5018" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5020" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5022" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5024" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5026" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5028" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5030" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5032" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5034" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5036" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5038" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5040" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5042" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5044" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5046" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5048" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5050" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5052" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5054" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5056" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5058" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5060" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5702" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5704" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5706" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5708" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5710" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5712" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5714" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5716" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5718" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5884" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5886" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5888" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5890" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5892" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5894" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5896" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5898" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5900" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5902" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5904" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5906" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5908" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5910" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5912" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5914" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5916" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5918" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5920" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5922" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5924" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5926" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5928" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5930" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5932" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5934" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5936" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5938" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5940" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5942" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5944" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5946" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5948" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5950" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5952" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5954" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5956" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5958" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5960" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5962" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5964" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5966" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5968" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5970" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5972" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6066" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6068" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6070" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6072" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6074" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6076" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6078" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6080" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6082" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6084" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6086" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6088" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6090" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6092" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6094" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6096" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6098" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6300" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="45"/>
@@ -9010,8 +17387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -12126,9 +20503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12137,7 +20514,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="76.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12235,7 +20612,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="41" t="s">
         <v>92</v>
       </c>
       <c r="F4" t="s">
@@ -12258,6 +20635,9 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5" s="41" t="s">
+        <v>451</v>
+      </c>
       <c r="F5" t="s">
         <v>436</v>
       </c>
@@ -12278,6 +20658,9 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" s="41" t="s">
+        <v>452</v>
+      </c>
       <c r="F6" t="s">
         <v>436</v>
       </c>
@@ -12298,6 +20681,9 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7" s="41" t="s">
+        <v>119</v>
+      </c>
       <c r="F7" t="s">
         <v>436</v>
       </c>
@@ -12318,6 +20704,9 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8" s="41" t="s">
+        <v>453</v>
+      </c>
       <c r="F8" t="s">
         <v>435</v>
       </c>
@@ -12338,6 +20727,9 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9" s="41" t="s">
+        <v>454</v>
+      </c>
       <c r="F9" t="s">
         <v>435</v>
       </c>
@@ -12358,6 +20750,9 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10" s="41" t="s">
+        <v>121</v>
+      </c>
       <c r="F10" t="s">
         <v>437</v>
       </c>
@@ -12378,6 +20773,9 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11" s="41" t="s">
+        <v>197</v>
+      </c>
       <c r="F11" t="s">
         <v>437</v>
       </c>
@@ -12398,6 +20796,9 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12" s="41" t="s">
+        <v>455</v>
+      </c>
       <c r="F12" t="s">
         <v>435</v>
       </c>
@@ -12418,6 +20819,9 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13" s="41" t="s">
+        <v>456</v>
+      </c>
       <c r="F13" t="s">
         <v>437</v>
       </c>
@@ -12438,6 +20842,9 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14" s="41" t="s">
+        <v>457</v>
+      </c>
       <c r="F14" t="s">
         <v>434</v>
       </c>
@@ -12458,6 +20865,9 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15" s="41" t="s">
+        <v>458</v>
+      </c>
       <c r="F15" t="s">
         <v>435</v>
       </c>
@@ -12478,6 +20888,9 @@
       <c r="D16">
         <v>0</v>
       </c>
+      <c r="E16" s="41" t="s">
+        <v>459</v>
+      </c>
       <c r="F16" t="s">
         <v>437</v>
       </c>
@@ -12498,6 +20911,9 @@
       <c r="D17">
         <v>0</v>
       </c>
+      <c r="E17" s="41" t="s">
+        <v>460</v>
+      </c>
       <c r="F17" t="s">
         <v>437</v>
       </c>
@@ -12518,6 +20934,9 @@
       <c r="D18">
         <v>0</v>
       </c>
+      <c r="E18" s="41" t="s">
+        <v>461</v>
+      </c>
       <c r="F18" t="s">
         <v>437</v>
       </c>
@@ -12538,6 +20957,9 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19" s="41" t="s">
+        <v>462</v>
+      </c>
       <c r="F19" t="s">
         <v>435</v>
       </c>
@@ -12558,6 +20980,9 @@
       <c r="D20">
         <v>0</v>
       </c>
+      <c r="E20" s="41" t="s">
+        <v>463</v>
+      </c>
       <c r="F20" t="s">
         <v>437</v>
       </c>
@@ -12578,6 +21003,9 @@
       <c r="D21">
         <v>0</v>
       </c>
+      <c r="E21" s="41" t="s">
+        <v>464</v>
+      </c>
       <c r="F21" t="s">
         <v>437</v>
       </c>
@@ -12598,6 +21026,9 @@
       <c r="D22">
         <v>0</v>
       </c>
+      <c r="E22" s="41" t="s">
+        <v>465</v>
+      </c>
       <c r="F22" t="s">
         <v>437</v>
       </c>
@@ -12618,6 +21049,9 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23" s="41" t="s">
+        <v>466</v>
+      </c>
       <c r="F23" t="s">
         <v>435</v>
       </c>
@@ -12638,6 +21072,9 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24" s="41" t="s">
+        <v>467</v>
+      </c>
       <c r="F24" t="s">
         <v>435</v>
       </c>
@@ -12658,6 +21095,9 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="E25" s="41" t="s">
+        <v>468</v>
+      </c>
       <c r="F25" t="s">
         <v>435</v>
       </c>
@@ -12678,6 +21118,9 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26" s="41" t="s">
+        <v>469</v>
+      </c>
       <c r="F26" t="s">
         <v>435</v>
       </c>
@@ -12698,6 +21141,9 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27" s="41" t="s">
+        <v>470</v>
+      </c>
       <c r="F27" t="s">
         <v>435</v>
       </c>
@@ -12718,6 +21164,9 @@
       <c r="D28">
         <v>0</v>
       </c>
+      <c r="E28" s="41" t="s">
+        <v>163</v>
+      </c>
       <c r="F28" t="s">
         <v>437</v>
       </c>
@@ -12738,6 +21187,9 @@
       <c r="D29">
         <v>0</v>
       </c>
+      <c r="E29" s="41" t="s">
+        <v>167</v>
+      </c>
       <c r="F29" t="s">
         <v>437</v>
       </c>
@@ -12758,6 +21210,9 @@
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="E30" s="41" t="s">
+        <v>471</v>
+      </c>
       <c r="F30" t="s">
         <v>435</v>
       </c>
@@ -12778,6 +21233,9 @@
       <c r="D31">
         <v>1</v>
       </c>
+      <c r="E31" s="41" t="s">
+        <v>472</v>
+      </c>
       <c r="F31" t="s">
         <v>435</v>
       </c>
@@ -12798,6 +21256,9 @@
       <c r="D32">
         <v>0</v>
       </c>
+      <c r="E32" s="41" t="s">
+        <v>169</v>
+      </c>
       <c r="F32" t="s">
         <v>437</v>
       </c>
@@ -12818,6 +21279,9 @@
       <c r="D33">
         <v>0</v>
       </c>
+      <c r="E33" s="41" t="s">
+        <v>473</v>
+      </c>
       <c r="F33" t="s">
         <v>437</v>
       </c>
@@ -12838,6 +21302,9 @@
       <c r="D34">
         <v>0</v>
       </c>
+      <c r="E34" s="41" t="s">
+        <v>474</v>
+      </c>
       <c r="F34" t="s">
         <v>437</v>
       </c>
@@ -12858,6 +21325,9 @@
       <c r="D35">
         <v>0</v>
       </c>
+      <c r="E35" s="41" t="s">
+        <v>475</v>
+      </c>
       <c r="F35" t="s">
         <v>437</v>
       </c>
@@ -12878,6 +21348,9 @@
       <c r="D36">
         <v>1</v>
       </c>
+      <c r="E36" s="41" t="s">
+        <v>476</v>
+      </c>
       <c r="F36" t="s">
         <v>435</v>
       </c>
@@ -12898,6 +21371,9 @@
       <c r="D37">
         <v>1</v>
       </c>
+      <c r="E37" s="41" t="s">
+        <v>477</v>
+      </c>
       <c r="F37" t="s">
         <v>435</v>
       </c>
@@ -12918,6 +21394,9 @@
       <c r="D38">
         <v>1</v>
       </c>
+      <c r="E38" s="41" t="s">
+        <v>478</v>
+      </c>
       <c r="F38" t="s">
         <v>435</v>
       </c>
@@ -12938,6 +21417,9 @@
       <c r="D39">
         <v>1</v>
       </c>
+      <c r="E39" s="41" t="s">
+        <v>479</v>
+      </c>
       <c r="F39" t="s">
         <v>435</v>
       </c>
@@ -12958,6 +21440,9 @@
       <c r="D40">
         <v>0</v>
       </c>
+      <c r="E40" s="41" t="s">
+        <v>480</v>
+      </c>
       <c r="F40" t="s">
         <v>437</v>
       </c>
@@ -12978,6 +21463,9 @@
       <c r="D41">
         <v>1</v>
       </c>
+      <c r="E41" s="41" t="s">
+        <v>482</v>
+      </c>
       <c r="F41" t="s">
         <v>435</v>
       </c>
@@ -12998,6 +21486,9 @@
       <c r="D42">
         <v>0</v>
       </c>
+      <c r="E42" s="41" t="s">
+        <v>481</v>
+      </c>
       <c r="F42" t="s">
         <v>437</v>
       </c>
@@ -13018,7 +21509,7 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="41" t="s">
         <v>444</v>
       </c>
       <c r="F43" t="s">
@@ -13044,7 +21535,7 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="41" t="s">
         <v>445</v>
       </c>
       <c r="F44" t="s">
@@ -13070,7 +21561,7 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="41" t="s">
         <v>446</v>
       </c>
       <c r="F45" t="s">
@@ -13096,7 +21587,7 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="41" t="s">
         <v>447</v>
       </c>
       <c r="F46" t="s">
@@ -13122,7 +21613,7 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="41" t="s">
         <v>448</v>
       </c>
       <c r="F47" t="s">
@@ -13148,7 +21639,7 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="41" t="s">
         <v>449</v>
       </c>
       <c r="F48" t="s">
@@ -13174,7 +21665,7 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="41" t="s">
         <v>450</v>
       </c>
       <c r="F49" t="s">

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="27480" windowHeight="15465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="484">
   <si>
     <t>Code Label</t>
   </si>
@@ -1317,9 +1317,6 @@
     <t>optprev</t>
   </si>
   <si>
-    <t>checkupper</t>
-  </si>
-  <si>
     <t>Normalization factor for transmissibility</t>
   </si>
   <si>
@@ -1338,12 +1335,6 @@
     <t>rowformat</t>
   </si>
   <si>
-    <t>range1</t>
-  </si>
-  <si>
-    <t>range2</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -1468,6 +1459,18 @@
   </si>
   <si>
     <t>Percentage of people who receptively shared a needle/syringe at last injection</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>rownames</t>
+  </si>
+  <si>
+    <t>colnames</t>
   </si>
 </sst>
 </file>
@@ -8097,7 +8100,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8174,6 +8177,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6302">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -17385,11 +17391,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17406,7 +17412,7 @@
     <col min="10" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>79</v>
       </c>
@@ -17434,8 +17440,9 @@
       <c r="I1" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
@@ -17464,7 +17471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>96</v>
       </c>
@@ -17493,7 +17500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>99</v>
       </c>
@@ -17522,7 +17529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>93</v>
       </c>
@@ -17551,7 +17558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>110</v>
       </c>
@@ -17580,7 +17587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>113</v>
       </c>
@@ -17609,7 +17616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>115</v>
       </c>
@@ -17638,7 +17645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>118</v>
       </c>
@@ -17667,7 +17674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>120</v>
       </c>
@@ -17696,7 +17703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>122</v>
       </c>
@@ -17725,7 +17732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>124</v>
       </c>
@@ -17754,7 +17761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>140</v>
       </c>
@@ -17783,7 +17790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -17812,7 +17819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>128</v>
       </c>
@@ -17841,7 +17848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>198</v>
       </c>
@@ -18716,7 +18723,7 @@
         <v>427</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>97</v>
@@ -20490,7 +20497,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -20501,11 +20508,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20513,12 +20520,13 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="76.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>327</v>
       </c>
@@ -20529,25 +20537,22 @@
         <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>438</v>
+        <v>328</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>328</v>
+        <v>482</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -20558,25 +20563,22 @@
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>330</v>
       </c>
@@ -20586,20 +20588,17 @@
       <c r="C3" t="s">
         <v>333</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>330</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F3" t="s">
-        <v>436</v>
-      </c>
-      <c r="I3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="H3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -20609,20 +20608,17 @@
       <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="F4" t="s">
-        <v>437</v>
-      </c>
-      <c r="I4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -20632,20 +20628,17 @@
       <c r="C5" t="s">
         <v>110</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>451</v>
-      </c>
-      <c r="F5" t="s">
-        <v>436</v>
-      </c>
-      <c r="I5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="E5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>334</v>
       </c>
@@ -20655,20 +20648,17 @@
       <c r="C6" t="s">
         <v>118</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" t="s">
-        <v>436</v>
-      </c>
-      <c r="I6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>334</v>
       </c>
@@ -20678,20 +20668,17 @@
       <c r="C7" t="s">
         <v>120</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="41" t="s">
+      <c r="D7" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="F7" t="s">
-        <v>436</v>
-      </c>
-      <c r="I7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>336</v>
       </c>
@@ -20701,20 +20688,17 @@
       <c r="C8" t="s">
         <v>113</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>453</v>
-      </c>
-      <c r="F8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>336</v>
       </c>
@@ -20724,20 +20708,17 @@
       <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="F9" t="s">
-        <v>435</v>
-      </c>
-      <c r="I9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" t="s">
+        <v>434</v>
+      </c>
+      <c r="H9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -20747,20 +20728,17 @@
       <c r="C10" t="s">
         <v>122</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="41" t="s">
+      <c r="D10" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="F10" t="s">
-        <v>437</v>
-      </c>
-      <c r="I10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>436</v>
+      </c>
+      <c r="H10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>336</v>
       </c>
@@ -20770,20 +20748,17 @@
       <c r="C11" t="s">
         <v>198</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="F11" t="s">
-        <v>437</v>
-      </c>
-      <c r="I11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -20793,20 +20768,17 @@
       <c r="C12" t="s">
         <v>140</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>455</v>
-      </c>
-      <c r="F12" t="s">
-        <v>435</v>
-      </c>
-      <c r="I12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" t="s">
+        <v>434</v>
+      </c>
+      <c r="H12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>336</v>
       </c>
@@ -20816,20 +20788,17 @@
       <c r="C13" t="s">
         <v>124</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>456</v>
-      </c>
-      <c r="F13" t="s">
-        <v>437</v>
-      </c>
-      <c r="I13" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13" t="s">
+        <v>436</v>
+      </c>
+      <c r="H13" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>336</v>
       </c>
@@ -20839,20 +20808,17 @@
       <c r="C14" t="s">
         <v>128</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>457</v>
-      </c>
-      <c r="F14" t="s">
-        <v>434</v>
-      </c>
-      <c r="I14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -20862,20 +20828,17 @@
       <c r="C15" t="s">
         <v>126</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>458</v>
-      </c>
-      <c r="F15" t="s">
-        <v>435</v>
-      </c>
-      <c r="I15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="E15" t="s">
+        <v>434</v>
+      </c>
+      <c r="H15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>337</v>
       </c>
@@ -20885,20 +20848,17 @@
       <c r="C16" t="s">
         <v>313</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>459</v>
-      </c>
-      <c r="F16" t="s">
-        <v>437</v>
-      </c>
-      <c r="I16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" t="s">
+        <v>436</v>
+      </c>
+      <c r="H16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>337</v>
       </c>
@@ -20908,20 +20868,17 @@
       <c r="C17" t="s">
         <v>314</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>460</v>
-      </c>
-      <c r="F17" t="s">
-        <v>437</v>
-      </c>
-      <c r="I17" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -20931,20 +20888,17 @@
       <c r="C18" t="s">
         <v>315</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>461</v>
-      </c>
-      <c r="F18" t="s">
-        <v>437</v>
-      </c>
-      <c r="I18" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="E18" t="s">
+        <v>436</v>
+      </c>
+      <c r="H18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>337</v>
       </c>
@@ -20954,20 +20908,17 @@
       <c r="C19" t="s">
         <v>431</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>462</v>
-      </c>
-      <c r="F19" t="s">
-        <v>435</v>
-      </c>
-      <c r="I19" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="E19" t="s">
+        <v>434</v>
+      </c>
+      <c r="H19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>337</v>
       </c>
@@ -20977,20 +20928,17 @@
       <c r="C20" t="s">
         <v>316</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>463</v>
-      </c>
-      <c r="F20" t="s">
-        <v>437</v>
-      </c>
-      <c r="I20" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="E20" t="s">
+        <v>436</v>
+      </c>
+      <c r="H20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>337</v>
       </c>
@@ -21000,20 +20948,17 @@
       <c r="C21" t="s">
         <v>317</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" t="s">
-        <v>437</v>
-      </c>
-      <c r="I21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="E21" t="s">
+        <v>436</v>
+      </c>
+      <c r="H21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>337</v>
       </c>
@@ -21023,20 +20968,17 @@
       <c r="C22" t="s">
         <v>318</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>465</v>
-      </c>
-      <c r="F22" t="s">
-        <v>437</v>
-      </c>
-      <c r="I22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" t="s">
+        <v>436</v>
+      </c>
+      <c r="H22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -21046,20 +20988,17 @@
       <c r="C23" t="s">
         <v>319</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>466</v>
-      </c>
-      <c r="F23" t="s">
-        <v>435</v>
-      </c>
-      <c r="I23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="E23" t="s">
+        <v>434</v>
+      </c>
+      <c r="H23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>337</v>
       </c>
@@ -21069,20 +21008,17 @@
       <c r="C24" t="s">
         <v>320</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>467</v>
-      </c>
-      <c r="F24" t="s">
-        <v>435</v>
-      </c>
-      <c r="I24" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="E24" t="s">
+        <v>434</v>
+      </c>
+      <c r="H24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -21092,20 +21028,17 @@
       <c r="C25" t="s">
         <v>321</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>468</v>
-      </c>
-      <c r="F25" t="s">
-        <v>435</v>
-      </c>
-      <c r="I25" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="E25" t="s">
+        <v>434</v>
+      </c>
+      <c r="H25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>337</v>
       </c>
@@ -21115,20 +21048,17 @@
       <c r="C26" t="s">
         <v>322</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="F26" t="s">
-        <v>435</v>
-      </c>
-      <c r="I26" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="E26" t="s">
+        <v>434</v>
+      </c>
+      <c r="H26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>337</v>
       </c>
@@ -21138,20 +21068,17 @@
       <c r="C27" t="s">
         <v>323</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>470</v>
-      </c>
-      <c r="F27" t="s">
-        <v>435</v>
-      </c>
-      <c r="I27" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="E27" t="s">
+        <v>434</v>
+      </c>
+      <c r="H27" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>338</v>
       </c>
@@ -21161,20 +21088,17 @@
       <c r="C28" t="s">
         <v>164</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="41" t="s">
+      <c r="D28" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="F28" t="s">
-        <v>437</v>
-      </c>
-      <c r="I28" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>338</v>
       </c>
@@ -21184,20 +21108,17 @@
       <c r="C29" t="s">
         <v>168</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="41" t="s">
+      <c r="D29" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="F29" t="s">
-        <v>437</v>
-      </c>
-      <c r="I29" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>436</v>
+      </c>
+      <c r="H29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>338</v>
       </c>
@@ -21207,20 +21128,17 @@
       <c r="C30" t="s">
         <v>171</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="F30" t="s">
-        <v>435</v>
-      </c>
-      <c r="I30" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="E30" t="s">
+        <v>434</v>
+      </c>
+      <c r="H30" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>338</v>
       </c>
@@ -21230,20 +21148,17 @@
       <c r="C31" t="s">
         <v>173</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>472</v>
-      </c>
-      <c r="F31" t="s">
-        <v>435</v>
-      </c>
-      <c r="I31" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="E31" t="s">
+        <v>434</v>
+      </c>
+      <c r="H31" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>338</v>
       </c>
@@ -21253,20 +21168,17 @@
       <c r="C32" t="s">
         <v>421</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" s="41" t="s">
+      <c r="D32" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F32" t="s">
-        <v>437</v>
-      </c>
-      <c r="I32" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>436</v>
+      </c>
+      <c r="H32" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>339</v>
       </c>
@@ -21276,20 +21188,17 @@
       <c r="C33" t="s">
         <v>143</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>473</v>
-      </c>
-      <c r="F33" t="s">
-        <v>437</v>
-      </c>
-      <c r="I33" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="E33" t="s">
+        <v>436</v>
+      </c>
+      <c r="H33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>339</v>
       </c>
@@ -21299,20 +21208,17 @@
       <c r="C34" t="s">
         <v>148</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="F34" t="s">
-        <v>437</v>
-      </c>
-      <c r="I34" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="E34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -21322,20 +21228,17 @@
       <c r="C35" t="s">
         <v>151</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>475</v>
-      </c>
-      <c r="F35" t="s">
-        <v>437</v>
-      </c>
-      <c r="I35" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="E35" t="s">
+        <v>436</v>
+      </c>
+      <c r="H35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -21345,20 +21248,17 @@
       <c r="C36" t="s">
         <v>430</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="F36" t="s">
-        <v>435</v>
-      </c>
-      <c r="I36" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="E36" t="s">
+        <v>434</v>
+      </c>
+      <c r="H36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>339</v>
       </c>
@@ -21368,20 +21268,17 @@
       <c r="C37" t="s">
         <v>159</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="F37" t="s">
-        <v>435</v>
-      </c>
-      <c r="I37" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="E37" t="s">
+        <v>434</v>
+      </c>
+      <c r="H37" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>339</v>
       </c>
@@ -21391,20 +21288,17 @@
       <c r="C38" t="s">
         <v>162</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="F38" t="s">
-        <v>435</v>
-      </c>
-      <c r="I38" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="E38" t="s">
+        <v>434</v>
+      </c>
+      <c r="H38" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -21414,20 +21308,17 @@
       <c r="C39" t="s">
         <v>131</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="F39" t="s">
-        <v>435</v>
-      </c>
-      <c r="I39" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="E39" t="s">
+        <v>434</v>
+      </c>
+      <c r="H39" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -21437,20 +21328,23 @@
       <c r="C40" t="s">
         <v>154</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>480</v>
+      <c r="D40" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="E40" t="s">
+        <v>436</v>
       </c>
       <c r="F40" t="s">
-        <v>437</v>
-      </c>
-      <c r="I40" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="G40" t="s">
+        <v>440</v>
+      </c>
+      <c r="H40" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -21460,20 +21354,23 @@
       <c r="C41" t="s">
         <v>138</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>482</v>
+      <c r="D41" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="E41" t="s">
+        <v>434</v>
       </c>
       <c r="F41" t="s">
-        <v>435</v>
-      </c>
-      <c r="I41" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="G41" t="s">
+        <v>440</v>
+      </c>
+      <c r="H41" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>340</v>
       </c>
@@ -21483,20 +21380,23 @@
       <c r="C42" t="s">
         <v>136</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" s="41" t="s">
+      <c r="D42" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="E42" t="s">
+        <v>436</v>
+      </c>
+      <c r="F42" t="s">
         <v>481</v>
       </c>
-      <c r="F42" t="s">
-        <v>437</v>
-      </c>
-      <c r="I42" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>480</v>
+      </c>
+      <c r="H42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>341</v>
       </c>
@@ -21506,23 +21406,23 @@
       <c r="C43" t="s">
         <v>324</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>444</v>
+      <c r="D43" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="E43" t="s">
+        <v>436</v>
       </c>
       <c r="F43" t="s">
-        <v>437</v>
+        <v>428</v>
+      </c>
+      <c r="G43" t="s">
+        <v>440</v>
       </c>
       <c r="H43" t="s">
-        <v>443</v>
-      </c>
-      <c r="I43" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>341</v>
       </c>
@@ -21532,23 +21432,23 @@
       <c r="C44" t="s">
         <v>429</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>445</v>
+      <c r="D44" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="E44" t="s">
+        <v>436</v>
       </c>
       <c r="F44" t="s">
-        <v>437</v>
+        <v>428</v>
+      </c>
+      <c r="G44" t="s">
+        <v>440</v>
       </c>
       <c r="H44" t="s">
-        <v>443</v>
-      </c>
-      <c r="I44" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>341</v>
       </c>
@@ -21558,23 +21458,23 @@
       <c r="C45" t="s">
         <v>325</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>446</v>
+      <c r="D45" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="E45" t="s">
+        <v>436</v>
       </c>
       <c r="F45" t="s">
-        <v>437</v>
+        <v>428</v>
+      </c>
+      <c r="G45" t="s">
+        <v>440</v>
       </c>
       <c r="H45" t="s">
-        <v>443</v>
-      </c>
-      <c r="I45" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>341</v>
       </c>
@@ -21584,23 +21484,23 @@
       <c r="C46" t="s">
         <v>326</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>447</v>
+      <c r="D46" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="E46" t="s">
+        <v>436</v>
       </c>
       <c r="F46" t="s">
-        <v>437</v>
+        <v>428</v>
+      </c>
+      <c r="G46" t="s">
+        <v>440</v>
       </c>
       <c r="H46" t="s">
-        <v>443</v>
-      </c>
-      <c r="I46" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>341</v>
       </c>
@@ -21610,23 +21510,23 @@
       <c r="C47" t="s">
         <v>108</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>448</v>
+      <c r="D47" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="E47" t="s">
+        <v>436</v>
       </c>
       <c r="F47" t="s">
-        <v>437</v>
+        <v>428</v>
+      </c>
+      <c r="G47" t="s">
+        <v>439</v>
       </c>
       <c r="H47" t="s">
-        <v>442</v>
-      </c>
-      <c r="I47" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>341</v>
       </c>
@@ -21636,23 +21536,23 @@
       <c r="C48" t="s">
         <v>106</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>449</v>
+      <c r="D48" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="E48" t="s">
+        <v>436</v>
       </c>
       <c r="F48" t="s">
-        <v>437</v>
+        <v>428</v>
+      </c>
+      <c r="G48" t="s">
+        <v>440</v>
       </c>
       <c r="H48" t="s">
-        <v>443</v>
-      </c>
-      <c r="I48" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>341</v>
       </c>
@@ -21662,20 +21562,20 @@
       <c r="C49" t="s">
         <v>101</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>450</v>
+      <c r="D49" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="E49" t="s">
+        <v>436</v>
       </c>
       <c r="F49" t="s">
-        <v>437</v>
+        <v>428</v>
+      </c>
+      <c r="G49" t="s">
+        <v>440</v>
       </c>
       <c r="H49" t="s">
-        <v>443</v>
-      </c>
-      <c r="I49" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -21689,7 +21589,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21697,7 +21597,7 @@
     <col min="1" max="1" width="62.5703125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -21719,11 +21619,11 @@
       <c r="F1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>395</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -21745,12 +21645,12 @@
       <c r="F2" s="11">
         <v>1.4E-3</v>
       </c>
-      <c r="G2" s="20" t="b">
+      <c r="G2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" s="20" t="b">
         <f>AND(D2&gt;=E2, D2&lt;=F2)</f>
         <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -21772,12 +21672,12 @@
       <c r="F3" s="11">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G3" s="20" t="b">
-        <f t="shared" ref="G3:G59" si="0">AND(D3&gt;=E3, D3&lt;=F3)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>436</v>
+      <c r="G3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H3" s="20" t="b">
+        <f>AND(D3&gt;=E3, D3&lt;=F3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -21799,12 +21699,12 @@
       <c r="F4" s="11">
         <v>2.8E-3</v>
       </c>
-      <c r="G4" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>436</v>
+      <c r="G4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H4" s="20" t="b">
+        <f>AND(D4&gt;=E4, D4&lt;=F4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -21826,12 +21726,12 @@
       <c r="F5" s="11">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="G5" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>436</v>
+      <c r="G5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H5" s="20" t="b">
+        <f>AND(D5&gt;=E5, D5&lt;=F5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -21853,12 +21753,12 @@
       <c r="F6" s="11">
         <v>2.4E-2</v>
       </c>
-      <c r="G6" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>436</v>
+      <c r="G6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H6" s="20" t="b">
+        <f>AND(D6&gt;=E6, D6&lt;=F6)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -21880,12 +21780,12 @@
       <c r="F7" s="11">
         <v>0.44</v>
       </c>
-      <c r="G7" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>436</v>
+      <c r="G7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H7" s="20" t="b">
+        <f>AND(D7&gt;=E7, D7&lt;=F7)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -21907,12 +21807,12 @@
       <c r="F8" s="11">
         <v>0.27</v>
       </c>
-      <c r="G8" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>436</v>
+      <c r="G8" t="s">
+        <v>435</v>
+      </c>
+      <c r="H8" s="20" t="b">
+        <f>AND(D8&gt;=E8, D8&lt;=F8)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -21934,12 +21834,12 @@
       <c r="F9">
         <v>9.1</v>
       </c>
-      <c r="G9" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>434</v>
+      <c r="G9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H9" s="20" t="b">
+        <f>AND(D9&gt;=E9, D9&lt;=F9)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -21961,12 +21861,12 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>434</v>
+      <c r="G10" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="20" t="b">
+        <f>AND(D10&gt;=E10, D10&lt;=F10)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -21988,12 +21888,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>434</v>
+      <c r="G11" t="s">
+        <v>433</v>
+      </c>
+      <c r="H11" s="20" t="b">
+        <f>AND(D11&gt;=E11, D11&lt;=F11)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -22015,12 +21915,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>434</v>
+      <c r="G12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H12" s="20" t="b">
+        <f>AND(D12&gt;=E12, D12&lt;=F12)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -22042,12 +21942,12 @@
       <c r="F13">
         <v>6.92</v>
       </c>
-      <c r="G13" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>434</v>
+      <c r="G13" t="s">
+        <v>433</v>
+      </c>
+      <c r="H13" s="20" t="b">
+        <f>AND(D13&gt;=E13, D13&lt;=F13)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -22069,12 +21969,12 @@
       <c r="F14">
         <v>12.08</v>
       </c>
-      <c r="G14" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>434</v>
+      <c r="G14" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" s="20" t="b">
+        <f>AND(D14&gt;=E14, D14&lt;=F14)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -22096,12 +21996,12 @@
       <c r="F15">
         <v>0.5</v>
       </c>
-      <c r="G15" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>434</v>
+      <c r="G15" t="s">
+        <v>433</v>
+      </c>
+      <c r="H15" s="20" t="b">
+        <f>AND(D15&gt;=E15, D15&lt;=F15)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -22123,12 +22023,12 @@
       <c r="F16">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G16" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>434</v>
+      <c r="G16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H16" s="20" t="b">
+        <f>AND(D16&gt;=E16, D16&lt;=F16)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -22150,12 +22050,12 @@
       <c r="F17">
         <v>3.16</v>
       </c>
-      <c r="G17" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>434</v>
+      <c r="G17" t="s">
+        <v>433</v>
+      </c>
+      <c r="H17" s="20" t="b">
+        <f>AND(D17&gt;=E17, D17&lt;=F17)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -22177,12 +22077,12 @@
       <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>434</v>
+      <c r="G18" t="s">
+        <v>433</v>
+      </c>
+      <c r="H18" s="20" t="b">
+        <f>AND(D18&gt;=E18, D18&lt;=F18)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -22204,12 +22104,12 @@
       <c r="F19">
         <v>2.25</v>
       </c>
-      <c r="G19" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>434</v>
+      <c r="G19" t="s">
+        <v>433</v>
+      </c>
+      <c r="H19" s="20" t="b">
+        <f>AND(D19&gt;=E19, D19&lt;=F19)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -22231,12 +22131,12 @@
       <c r="F20">
         <v>7.28</v>
       </c>
-      <c r="G20" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>434</v>
+      <c r="G20" t="s">
+        <v>433</v>
+      </c>
+      <c r="H20" s="20" t="b">
+        <f>AND(D20&gt;=E20, D20&lt;=F20)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -22258,12 +22158,12 @@
       <c r="F21">
         <v>3.42</v>
       </c>
-      <c r="G21" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>434</v>
+      <c r="G21" t="s">
+        <v>433</v>
+      </c>
+      <c r="H21" s="20" t="b">
+        <f>AND(D21&gt;=E21, D21&lt;=F21)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -22285,12 +22185,12 @@
       <c r="F22">
         <v>3.58</v>
       </c>
-      <c r="G22" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>434</v>
+      <c r="G22" t="s">
+        <v>433</v>
+      </c>
+      <c r="H22" s="20" t="b">
+        <f>AND(D22&gt;=E22, D22&lt;=F22)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -22312,12 +22212,12 @@
       <c r="F23">
         <v>0.94</v>
       </c>
-      <c r="G23" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>434</v>
+      <c r="G23" t="s">
+        <v>433</v>
+      </c>
+      <c r="H23" s="20" t="b">
+        <f>AND(D23&gt;=E23, D23&lt;=F23)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -22339,12 +22239,12 @@
       <c r="F24">
         <v>0.3</v>
       </c>
-      <c r="G24" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>434</v>
+      <c r="G24" t="s">
+        <v>433</v>
+      </c>
+      <c r="H24" s="20" t="b">
+        <f>AND(D24&gt;=E24, D24&lt;=F24)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -22366,12 +22266,12 @@
       <c r="F25">
         <v>2.5</v>
       </c>
-      <c r="G25" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>434</v>
+      <c r="G25" t="s">
+        <v>433</v>
+      </c>
+      <c r="H25" s="20" t="b">
+        <f>AND(D25&gt;=E25, D25&lt;=F25)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -22393,12 +22293,12 @@
       <c r="F26" s="11">
         <v>0.27500000000000002</v>
       </c>
-      <c r="G26" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>435</v>
+      <c r="G26" t="s">
+        <v>434</v>
+      </c>
+      <c r="H26" s="20" t="b">
+        <f>AND(D26&gt;=E26, D26&lt;=F26)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -22420,12 +22320,12 @@
       <c r="F27" s="11">
         <v>0.88500000000000001</v>
       </c>
-      <c r="G27" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>435</v>
+      <c r="G27" t="s">
+        <v>434</v>
+      </c>
+      <c r="H27" s="20" t="b">
+        <f>AND(D27&gt;=E27, D27&lt;=F27)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -22447,12 +22347,12 @@
       <c r="F28" s="11">
         <v>0.87</v>
       </c>
-      <c r="G28" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>435</v>
+      <c r="G28" t="s">
+        <v>434</v>
+      </c>
+      <c r="H28" s="20" t="b">
+        <f>AND(D28&gt;=E28, D28&lt;=F28)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -22474,12 +22374,12 @@
       <c r="F29" s="11">
         <v>0.82699999999999996</v>
       </c>
-      <c r="G29" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>435</v>
+      <c r="G29" t="s">
+        <v>434</v>
+      </c>
+      <c r="H29" s="20" t="b">
+        <f>AND(D29&gt;=E29, D29&lt;=F29)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -22501,12 +22401,12 @@
       <c r="F30" s="11">
         <v>0.86899999999999999</v>
       </c>
-      <c r="G30" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>435</v>
+      <c r="G30" t="s">
+        <v>434</v>
+      </c>
+      <c r="H30" s="20" t="b">
+        <f>AND(D30&gt;=E30, D30&lt;=F30)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -22528,12 +22428,12 @@
       <c r="F31" s="11">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G31" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>435</v>
+      <c r="G31" t="s">
+        <v>434</v>
+      </c>
+      <c r="H31" s="20" t="b">
+        <f>AND(D31&gt;=E31, D31&lt;=F31)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -22555,12 +22455,12 @@
       <c r="F32" s="11">
         <v>0.72299999999999998</v>
       </c>
-      <c r="G32" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>435</v>
+      <c r="G32" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" s="20" t="b">
+        <f>AND(D32&gt;=E32, D32&lt;=F32)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -22582,12 +22482,12 @@
       <c r="F33" s="11">
         <v>0.56299999999999994</v>
       </c>
-      <c r="G33" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>435</v>
+      <c r="G33" t="s">
+        <v>434</v>
+      </c>
+      <c r="H33" s="20" t="b">
+        <f>AND(D33&gt;=E33, D33&lt;=F33)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -22609,12 +22509,12 @@
       <c r="F34" s="11">
         <v>0.26</v>
       </c>
-      <c r="G34" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>435</v>
+      <c r="G34" t="s">
+        <v>434</v>
+      </c>
+      <c r="H34" s="20" t="b">
+        <f>AND(D34&gt;=E34, D34&lt;=F34)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -22636,12 +22536,12 @@
       <c r="F35" s="11">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G35" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>436</v>
+      <c r="G35" t="s">
+        <v>435</v>
+      </c>
+      <c r="H35" s="20" t="b">
+        <f>AND(D35&gt;=E35, D35&lt;=F35)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -22663,12 +22563,12 @@
       <c r="F36" s="11">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G36" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>436</v>
+      <c r="G36" t="s">
+        <v>435</v>
+      </c>
+      <c r="H36" s="20" t="b">
+        <f>AND(D36&gt;=E36, D36&lt;=F36)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -22690,12 +22590,12 @@
       <c r="F37" s="11">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G37" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>436</v>
+      <c r="G37" t="s">
+        <v>435</v>
+      </c>
+      <c r="H37" s="20" t="b">
+        <f>AND(D37&gt;=E37, D37&lt;=F37)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -22717,12 +22617,12 @@
       <c r="F38" s="11">
         <v>1.01E-2</v>
       </c>
-      <c r="G38" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>436</v>
+      <c r="G38" t="s">
+        <v>435</v>
+      </c>
+      <c r="H38" s="20" t="b">
+        <f>AND(D38&gt;=E38, D38&lt;=F38)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -22744,12 +22644,12 @@
       <c r="F39" s="11">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G39" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>436</v>
+      <c r="G39" t="s">
+        <v>435</v>
+      </c>
+      <c r="H39" s="20" t="b">
+        <f>AND(D39&gt;=E39, D39&lt;=F39)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -22771,12 +22671,12 @@
       <c r="F40" s="11">
         <v>0.432</v>
       </c>
-      <c r="G40" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>436</v>
+      <c r="G40" t="s">
+        <v>435</v>
+      </c>
+      <c r="H40" s="20" t="b">
+        <f>AND(D40&gt;=E40, D40&lt;=F40)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -22798,12 +22698,12 @@
       <c r="F41" s="11">
         <v>0.3</v>
       </c>
-      <c r="G41" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>435</v>
+      <c r="G41" t="s">
+        <v>434</v>
+      </c>
+      <c r="H41" s="20" t="b">
+        <f>AND(D41&gt;=E41, D41&lt;=F41)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -22825,12 +22725,12 @@
       <c r="F42" s="11">
         <v>0.8417</v>
       </c>
-      <c r="G42" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>435</v>
+      <c r="G42" t="s">
+        <v>434</v>
+      </c>
+      <c r="H42" s="20" t="b">
+        <f>AND(D42&gt;=E42, D42&lt;=F42)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -22852,12 +22752,12 @@
       <c r="F43" s="11">
         <v>3.71</v>
       </c>
-      <c r="G43" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>435</v>
+      <c r="G43" t="s">
+        <v>434</v>
+      </c>
+      <c r="H43" s="20" t="b">
+        <f>AND(D43&gt;=E43, D43&lt;=F43)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -22879,12 +22779,12 @@
       <c r="F44" s="13">
         <v>0.98</v>
       </c>
-      <c r="G44" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>435</v>
+      <c r="G44" t="s">
+        <v>434</v>
+      </c>
+      <c r="H44" s="20" t="b">
+        <f>AND(D44&gt;=E44, D44&lt;=F44)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -22906,12 +22806,12 @@
       <c r="F45" s="13">
         <v>0.67</v>
       </c>
-      <c r="G45" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>435</v>
+      <c r="G45" t="s">
+        <v>434</v>
+      </c>
+      <c r="H45" s="20" t="b">
+        <f>AND(D45&gt;=E45, D45&lt;=F45)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -22933,12 +22833,12 @@
       <c r="F46" s="13">
         <v>0.68</v>
       </c>
-      <c r="G46" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>435</v>
+      <c r="G46" t="s">
+        <v>434</v>
+      </c>
+      <c r="H46" s="20" t="b">
+        <f>AND(D46&gt;=E46, D46&lt;=F46)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -22960,12 +22860,12 @@
       <c r="F47" s="13">
         <v>5.19</v>
       </c>
-      <c r="G47" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>435</v>
+      <c r="G47" t="s">
+        <v>434</v>
+      </c>
+      <c r="H47" s="20" t="b">
+        <f>AND(D47&gt;=E47, D47&lt;=F47)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -22987,12 +22887,12 @@
       <c r="F48" s="13">
         <v>0.68</v>
       </c>
-      <c r="G48" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>435</v>
+      <c r="G48" t="s">
+        <v>434</v>
+      </c>
+      <c r="H48" s="20" t="b">
+        <f>AND(D48&gt;=E48, D48&lt;=F48)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -23014,12 +22914,12 @@
       <c r="F49" s="13">
         <v>0.93</v>
       </c>
-      <c r="G49" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>435</v>
+      <c r="G49" t="s">
+        <v>434</v>
+      </c>
+      <c r="H49" s="20" t="b">
+        <f>AND(D49&gt;=E49, D49&lt;=F49)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -23041,12 +22941,12 @@
       <c r="F50" s="13">
         <v>0.8</v>
       </c>
-      <c r="G50" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>435</v>
+      <c r="G50" t="s">
+        <v>434</v>
+      </c>
+      <c r="H50" s="20" t="b">
+        <f>AND(D50&gt;=E50, D50&lt;=F50)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -23068,12 +22968,12 @@
       <c r="F51" s="13">
         <v>0.8</v>
       </c>
-      <c r="G51" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>435</v>
+      <c r="G51" t="s">
+        <v>434</v>
+      </c>
+      <c r="H51" s="20" t="b">
+        <f>AND(D51&gt;=E51, D51&lt;=F51)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -23095,12 +22995,12 @@
       <c r="F52" s="13">
         <v>0.95</v>
       </c>
-      <c r="G52" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>435</v>
+      <c r="G52" t="s">
+        <v>434</v>
+      </c>
+      <c r="H52" s="20" t="b">
+        <f>AND(D52&gt;=E52, D52&lt;=F52)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -23122,12 +23022,12 @@
       <c r="F53">
         <v>0.21</v>
       </c>
-      <c r="G53" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>434</v>
+      <c r="G53" t="s">
+        <v>433</v>
+      </c>
+      <c r="H53" s="20" t="b">
+        <f>AND(D53&gt;=E53, D53&lt;=F53)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -23149,12 +23049,12 @@
       <c r="F54">
         <v>0.01</v>
       </c>
-      <c r="G54" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>434</v>
+      <c r="G54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H54" s="20" t="b">
+        <f>AND(D54&gt;=E54, D54&lt;=F54)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -23176,12 +23076,12 @@
       <c r="F55">
         <v>0.03</v>
       </c>
-      <c r="G55" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>434</v>
+      <c r="G55" t="s">
+        <v>433</v>
+      </c>
+      <c r="H55" s="20" t="b">
+        <f>AND(D55&gt;=E55, D55&lt;=F55)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -23203,12 +23103,12 @@
       <c r="F56">
         <v>0.09</v>
       </c>
-      <c r="G56" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>434</v>
+      <c r="G56" t="s">
+        <v>433</v>
+      </c>
+      <c r="H56" s="20" t="b">
+        <f>AND(D56&gt;=E56, D56&lt;=F56)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -23230,12 +23130,12 @@
       <c r="F57">
         <v>0.47</v>
       </c>
-      <c r="G57" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>434</v>
+      <c r="G57" t="s">
+        <v>433</v>
+      </c>
+      <c r="H57" s="20" t="b">
+        <f>AND(D57&gt;=E57, D57&lt;=F57)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -23257,12 +23157,12 @@
       <c r="F58">
         <v>0.72</v>
       </c>
-      <c r="G58" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>434</v>
+      <c r="G58" t="s">
+        <v>433</v>
+      </c>
+      <c r="H58" s="20" t="b">
+        <f>AND(D58&gt;=E58, D58&lt;=F58)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -23284,12 +23184,12 @@
       <c r="F59">
         <v>0.08</v>
       </c>
-      <c r="G59" s="20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>434</v>
+      <c r="G59" t="s">
+        <v>433</v>
+      </c>
+      <c r="H59" s="20" t="b">
+        <f>AND(D59&gt;=E59, D59&lt;=F59)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="486">
   <si>
     <t>Code Label</t>
   </si>
@@ -1461,6 +1461,9 @@
     <t>Percentage of people who receptively shared a needle/syringe at last injection</t>
   </si>
   <si>
+    <t>average</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -1471,6 +1474,9 @@
   </si>
   <si>
     <t>colnames</t>
+  </si>
+  <si>
+    <t>males</t>
   </si>
 </sst>
 </file>
@@ -20511,8 +20517,8 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20546,10 +20552,10 @@
         <v>328</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -21094,6 +21100,12 @@
       <c r="E28" t="s">
         <v>436</v>
       </c>
+      <c r="F28" t="s">
+        <v>482</v>
+      </c>
+      <c r="G28" t="s">
+        <v>440</v>
+      </c>
       <c r="H28" t="s">
         <v>438</v>
       </c>
@@ -21114,6 +21126,12 @@
       <c r="E29" t="s">
         <v>436</v>
       </c>
+      <c r="F29" t="s">
+        <v>482</v>
+      </c>
+      <c r="G29" t="s">
+        <v>480</v>
+      </c>
       <c r="H29" t="s">
         <v>438</v>
       </c>
@@ -21134,6 +21152,12 @@
       <c r="E30" t="s">
         <v>434</v>
       </c>
+      <c r="F30" t="s">
+        <v>482</v>
+      </c>
+      <c r="G30" t="s">
+        <v>440</v>
+      </c>
       <c r="H30" t="s">
         <v>438</v>
       </c>
@@ -21154,6 +21178,12 @@
       <c r="E31" t="s">
         <v>434</v>
       </c>
+      <c r="F31" t="s">
+        <v>482</v>
+      </c>
+      <c r="G31" t="s">
+        <v>480</v>
+      </c>
       <c r="H31" t="s">
         <v>438</v>
       </c>
@@ -21174,6 +21204,12 @@
       <c r="E32" t="s">
         <v>436</v>
       </c>
+      <c r="F32" t="s">
+        <v>482</v>
+      </c>
+      <c r="G32" t="s">
+        <v>481</v>
+      </c>
       <c r="H32" t="s">
         <v>438</v>
       </c>
@@ -21194,6 +21230,12 @@
       <c r="E33" t="s">
         <v>436</v>
       </c>
+      <c r="F33" t="s">
+        <v>482</v>
+      </c>
+      <c r="G33" t="s">
+        <v>440</v>
+      </c>
       <c r="H33" t="s">
         <v>438</v>
       </c>
@@ -21214,6 +21256,12 @@
       <c r="E34" t="s">
         <v>436</v>
       </c>
+      <c r="F34" t="s">
+        <v>482</v>
+      </c>
+      <c r="G34" t="s">
+        <v>440</v>
+      </c>
       <c r="H34" t="s">
         <v>438</v>
       </c>
@@ -21234,6 +21282,12 @@
       <c r="E35" t="s">
         <v>436</v>
       </c>
+      <c r="F35" t="s">
+        <v>482</v>
+      </c>
+      <c r="G35" t="s">
+        <v>440</v>
+      </c>
       <c r="H35" t="s">
         <v>438</v>
       </c>
@@ -21254,6 +21308,12 @@
       <c r="E36" t="s">
         <v>434</v>
       </c>
+      <c r="F36" t="s">
+        <v>482</v>
+      </c>
+      <c r="G36" t="s">
+        <v>440</v>
+      </c>
       <c r="H36" t="s">
         <v>438</v>
       </c>
@@ -21274,6 +21334,12 @@
       <c r="E37" t="s">
         <v>434</v>
       </c>
+      <c r="F37" t="s">
+        <v>482</v>
+      </c>
+      <c r="G37" t="s">
+        <v>440</v>
+      </c>
       <c r="H37" t="s">
         <v>438</v>
       </c>
@@ -21294,6 +21360,12 @@
       <c r="E38" t="s">
         <v>434</v>
       </c>
+      <c r="F38" t="s">
+        <v>482</v>
+      </c>
+      <c r="G38" t="s">
+        <v>440</v>
+      </c>
       <c r="H38" t="s">
         <v>438</v>
       </c>
@@ -21314,6 +21386,12 @@
       <c r="E39" t="s">
         <v>434</v>
       </c>
+      <c r="F39" t="s">
+        <v>482</v>
+      </c>
+      <c r="G39" t="s">
+        <v>485</v>
+      </c>
       <c r="H39" t="s">
         <v>438</v>
       </c>
@@ -21335,7 +21413,7 @@
         <v>436</v>
       </c>
       <c r="F40" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G40" t="s">
         <v>440</v>
@@ -21361,7 +21439,7 @@
         <v>434</v>
       </c>
       <c r="F41" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G41" t="s">
         <v>440</v>
@@ -21387,10 +21465,10 @@
         <v>436</v>
       </c>
       <c r="F42" t="s">
+        <v>482</v>
+      </c>
+      <c r="G42" t="s">
         <v>481</v>
-      </c>
-      <c r="G42" t="s">
-        <v>480</v>
       </c>
       <c r="H42" t="s">
         <v>438</v>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="486">
   <si>
     <t>Code Label</t>
   </si>
@@ -20517,8 +20517,8 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20640,6 +20640,12 @@
       <c r="E5" t="s">
         <v>435</v>
       </c>
+      <c r="F5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G5" t="s">
+        <v>440</v>
+      </c>
       <c r="H5" t="s">
         <v>438</v>
       </c>
@@ -20660,6 +20666,12 @@
       <c r="E6" t="s">
         <v>435</v>
       </c>
+      <c r="F6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G6" t="s">
+        <v>440</v>
+      </c>
       <c r="H6" t="s">
         <v>438</v>
       </c>
@@ -20680,6 +20692,12 @@
       <c r="E7" t="s">
         <v>435</v>
       </c>
+      <c r="F7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G7" t="s">
+        <v>440</v>
+      </c>
       <c r="H7" t="s">
         <v>438</v>
       </c>
@@ -20700,6 +20718,12 @@
       <c r="E8" t="s">
         <v>434</v>
       </c>
+      <c r="F8" t="s">
+        <v>482</v>
+      </c>
+      <c r="G8" t="s">
+        <v>440</v>
+      </c>
       <c r="H8" t="s">
         <v>438</v>
       </c>
@@ -20720,6 +20744,12 @@
       <c r="E9" t="s">
         <v>434</v>
       </c>
+      <c r="F9" t="s">
+        <v>482</v>
+      </c>
+      <c r="G9" t="s">
+        <v>480</v>
+      </c>
       <c r="H9" t="s">
         <v>438</v>
       </c>
@@ -20740,6 +20770,12 @@
       <c r="E10" t="s">
         <v>436</v>
       </c>
+      <c r="F10" t="s">
+        <v>482</v>
+      </c>
+      <c r="G10" t="s">
+        <v>481</v>
+      </c>
       <c r="H10" t="s">
         <v>438</v>
       </c>
@@ -20760,6 +20796,12 @@
       <c r="E11" t="s">
         <v>436</v>
       </c>
+      <c r="F11" t="s">
+        <v>482</v>
+      </c>
+      <c r="G11" t="s">
+        <v>481</v>
+      </c>
       <c r="H11" t="s">
         <v>438</v>
       </c>
@@ -20780,6 +20822,12 @@
       <c r="E12" t="s">
         <v>434</v>
       </c>
+      <c r="F12" t="s">
+        <v>482</v>
+      </c>
+      <c r="G12" t="s">
+        <v>440</v>
+      </c>
       <c r="H12" t="s">
         <v>438</v>
       </c>
@@ -20800,6 +20848,12 @@
       <c r="E13" t="s">
         <v>436</v>
       </c>
+      <c r="F13" t="s">
+        <v>482</v>
+      </c>
+      <c r="G13" t="s">
+        <v>481</v>
+      </c>
       <c r="H13" t="s">
         <v>438</v>
       </c>
@@ -20820,6 +20874,12 @@
       <c r="E14" t="s">
         <v>433</v>
       </c>
+      <c r="F14" t="s">
+        <v>482</v>
+      </c>
+      <c r="G14" t="s">
+        <v>439</v>
+      </c>
       <c r="H14" t="s">
         <v>438</v>
       </c>
@@ -20840,6 +20900,12 @@
       <c r="E15" t="s">
         <v>434</v>
       </c>
+      <c r="F15" t="s">
+        <v>482</v>
+      </c>
+      <c r="G15" t="s">
+        <v>480</v>
+      </c>
       <c r="H15" t="s">
         <v>438</v>
       </c>
@@ -20860,6 +20926,12 @@
       <c r="E16" t="s">
         <v>436</v>
       </c>
+      <c r="F16" t="s">
+        <v>482</v>
+      </c>
+      <c r="G16" t="s">
+        <v>481</v>
+      </c>
       <c r="H16" t="s">
         <v>438</v>
       </c>
@@ -20880,6 +20952,12 @@
       <c r="E17" t="s">
         <v>436</v>
       </c>
+      <c r="F17" t="s">
+        <v>482</v>
+      </c>
+      <c r="G17" t="s">
+        <v>481</v>
+      </c>
       <c r="H17" t="s">
         <v>438</v>
       </c>
@@ -20900,6 +20978,12 @@
       <c r="E18" t="s">
         <v>436</v>
       </c>
+      <c r="F18" t="s">
+        <v>482</v>
+      </c>
+      <c r="G18" t="s">
+        <v>481</v>
+      </c>
       <c r="H18" t="s">
         <v>438</v>
       </c>
@@ -20920,6 +21004,12 @@
       <c r="E19" t="s">
         <v>434</v>
       </c>
+      <c r="F19" t="s">
+        <v>482</v>
+      </c>
+      <c r="G19" t="s">
+        <v>481</v>
+      </c>
       <c r="H19" t="s">
         <v>438</v>
       </c>
@@ -20940,6 +21030,12 @@
       <c r="E20" t="s">
         <v>436</v>
       </c>
+      <c r="F20" t="s">
+        <v>482</v>
+      </c>
+      <c r="G20" t="s">
+        <v>481</v>
+      </c>
       <c r="H20" t="s">
         <v>438</v>
       </c>
@@ -20960,6 +21056,12 @@
       <c r="E21" t="s">
         <v>436</v>
       </c>
+      <c r="F21" t="s">
+        <v>482</v>
+      </c>
+      <c r="G21" t="s">
+        <v>481</v>
+      </c>
       <c r="H21" t="s">
         <v>438</v>
       </c>
@@ -20980,6 +21082,12 @@
       <c r="E22" t="s">
         <v>436</v>
       </c>
+      <c r="F22" t="s">
+        <v>482</v>
+      </c>
+      <c r="G22" t="s">
+        <v>481</v>
+      </c>
       <c r="H22" t="s">
         <v>438</v>
       </c>
@@ -21000,6 +21108,12 @@
       <c r="E23" t="s">
         <v>434</v>
       </c>
+      <c r="F23" t="s">
+        <v>482</v>
+      </c>
+      <c r="G23" t="s">
+        <v>480</v>
+      </c>
       <c r="H23" t="s">
         <v>438</v>
       </c>
@@ -21020,6 +21134,12 @@
       <c r="E24" t="s">
         <v>434</v>
       </c>
+      <c r="F24" t="s">
+        <v>482</v>
+      </c>
+      <c r="G24" t="s">
+        <v>480</v>
+      </c>
       <c r="H24" t="s">
         <v>438</v>
       </c>
@@ -21040,6 +21160,12 @@
       <c r="E25" t="s">
         <v>434</v>
       </c>
+      <c r="F25" t="s">
+        <v>482</v>
+      </c>
+      <c r="G25" t="s">
+        <v>480</v>
+      </c>
       <c r="H25" t="s">
         <v>438</v>
       </c>
@@ -21060,6 +21186,12 @@
       <c r="E26" t="s">
         <v>434</v>
       </c>
+      <c r="F26" t="s">
+        <v>482</v>
+      </c>
+      <c r="G26" t="s">
+        <v>480</v>
+      </c>
       <c r="H26" t="s">
         <v>438</v>
       </c>
@@ -21079,6 +21211,12 @@
       </c>
       <c r="E27" t="s">
         <v>434</v>
+      </c>
+      <c r="F27" t="s">
+        <v>482</v>
+      </c>
+      <c r="G27" t="s">
+        <v>480</v>
       </c>
       <c r="H27" t="s">
         <v>438</v>

--- a/optima/model-inputs.xlsx
+++ b/optima/model-inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="483">
   <si>
     <t>Code Label</t>
   </si>
@@ -1005,9 +1005,6 @@
     <t>sheet</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
     <t>Populations</t>
   </si>
   <si>
@@ -1467,13 +1464,7 @@
     <t>total</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>rownames</t>
-  </si>
-  <si>
-    <t>colnames</t>
   </si>
   <si>
     <t>males</t>
@@ -14813,38 +14804,38 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" t="s">
         <v>396</v>
       </c>
-      <c r="B1" t="s">
-        <v>397</v>
-      </c>
       <c r="C1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -14852,7 +14843,7 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -14860,7 +14851,7 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14868,7 +14859,7 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -14876,7 +14867,7 @@
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -14884,7 +14875,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -14892,7 +14883,7 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14900,7 +14891,7 @@
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -14908,7 +14899,7 @@
         <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -14916,7 +14907,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -14924,15 +14915,15 @@
         <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" t="s">
         <v>409</v>
-      </c>
-      <c r="B26" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -14940,7 +14931,7 @@
         <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -17435,10 +17426,10 @@
         <v>82</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>414</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>415</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>84</v>
@@ -17482,7 +17473,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>97</v>
@@ -17511,7 +17502,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>97</v>
@@ -18001,7 +17992,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>169</v>
@@ -18726,10 +18717,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>97</v>
@@ -19451,10 +19442,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>144</v>
@@ -19495,7 +19486,7 @@
         <v>200</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G72" s="7">
         <v>0</v>
@@ -19524,7 +19515,7 @@
         <v>200</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G73" s="7">
         <v>0</v>
@@ -19553,7 +19544,7 @@
         <v>200</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G74" s="7">
         <v>0</v>
@@ -19582,7 +19573,7 @@
         <v>200</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G75" s="7">
         <v>0</v>
@@ -19611,7 +19602,7 @@
         <v>200</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G76" s="7">
         <v>0</v>
@@ -19640,7 +19631,7 @@
         <v>200</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G77" s="7">
         <v>0</v>
@@ -19669,7 +19660,7 @@
         <v>200</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G78" s="7">
         <v>0</v>
@@ -19698,7 +19689,7 @@
         <v>200</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G79" s="7">
         <v>0</v>
@@ -19727,7 +19718,7 @@
         <v>200</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G80" s="7">
         <v>0</v>
@@ -19756,7 +19747,7 @@
         <v>200</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G81" s="7">
         <v>0</v>
@@ -19785,7 +19776,7 @@
         <v>200</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G82" s="7">
         <v>0</v>
@@ -19814,7 +19805,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G83" s="7">
         <v>0</v>
@@ -19843,7 +19834,7 @@
         <v>200</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G84" s="7">
         <v>0</v>
@@ -19860,7 +19851,7 @@
         <v>275</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>102</v>
@@ -19889,7 +19880,7 @@
         <v>276</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>102</v>
@@ -19988,7 +19979,7 @@
         <v>200</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G89" s="7">
         <v>0</v>
@@ -20249,7 +20240,7 @@
         <v>200</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G98" s="7">
         <v>0</v>
@@ -20278,7 +20269,7 @@
         <v>200</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G99" s="7">
         <v>0</v>
@@ -20307,7 +20298,7 @@
         <v>200</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G100" s="7">
         <v>0</v>
@@ -20336,7 +20327,7 @@
         <v>200</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G101" s="7">
         <v>0</v>
@@ -20365,7 +20356,7 @@
         <v>200</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G102" s="7">
         <v>0</v>
@@ -20394,7 +20385,7 @@
         <v>200</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G103" s="7">
         <v>0</v>
@@ -20423,7 +20414,7 @@
         <v>200</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G104" s="7">
         <v>0</v>
@@ -20514,11 +20505,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20528,16 +20519,15 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="76.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>79</v>
@@ -20546,21 +20536,15 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>329</v>
       </c>
       <c r="B2" t="s">
         <v>98</v>
@@ -20569,47 +20553,41 @@
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
         <v>330</v>
       </c>
-      <c r="B3" t="s">
-        <v>331</v>
-      </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>435</v>
-      </c>
-      <c r="H3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="F3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
@@ -20618,70 +20596,58 @@
         <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="F4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
         <v>110</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F5" t="s">
-        <v>482</v>
-      </c>
-      <c r="G5" t="s">
-        <v>440</v>
-      </c>
-      <c r="H5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
         <v>118</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F6" t="s">
-        <v>482</v>
-      </c>
-      <c r="G6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
         <v>120</v>
@@ -20690,76 +20656,58 @@
         <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F7" t="s">
-        <v>482</v>
-      </c>
-      <c r="G7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F8" t="s">
-        <v>482</v>
-      </c>
-      <c r="G8" t="s">
-        <v>440</v>
-      </c>
-      <c r="H8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F9" t="s">
-        <v>482</v>
-      </c>
-      <c r="G9" t="s">
-        <v>480</v>
-      </c>
-      <c r="H9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
@@ -20768,24 +20716,18 @@
         <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F10" t="s">
-        <v>482</v>
-      </c>
-      <c r="G10" t="s">
-        <v>481</v>
-      </c>
-      <c r="H10" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
         <v>198</v>
@@ -20794,440 +20736,338 @@
         <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F11" t="s">
-        <v>482</v>
-      </c>
-      <c r="G11" t="s">
-        <v>481</v>
-      </c>
-      <c r="H11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" t="s">
         <v>140</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F12" t="s">
-        <v>482</v>
-      </c>
-      <c r="G12" t="s">
-        <v>440</v>
-      </c>
-      <c r="H12" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C13" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F13" t="s">
-        <v>482</v>
-      </c>
-      <c r="G13" t="s">
-        <v>481</v>
-      </c>
-      <c r="H13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F14" t="s">
-        <v>482</v>
-      </c>
-      <c r="G14" t="s">
-        <v>439</v>
-      </c>
-      <c r="H14" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F15" t="s">
-        <v>482</v>
-      </c>
-      <c r="G15" t="s">
-        <v>480</v>
-      </c>
-      <c r="H15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C16" t="s">
         <v>313</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F16" t="s">
-        <v>482</v>
-      </c>
-      <c r="G16" t="s">
-        <v>481</v>
-      </c>
-      <c r="H16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C17" t="s">
         <v>314</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F17" t="s">
-        <v>482</v>
-      </c>
-      <c r="G17" t="s">
-        <v>481</v>
-      </c>
-      <c r="H17" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C18" t="s">
         <v>315</v>
       </c>
       <c r="D18" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="E18" t="s">
+        <v>435</v>
+      </c>
+      <c r="F18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="E18" t="s">
-        <v>436</v>
-      </c>
-      <c r="F18" t="s">
-        <v>482</v>
-      </c>
-      <c r="G18" t="s">
-        <v>481</v>
-      </c>
-      <c r="H18" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C19" t="s">
-        <v>431</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>459</v>
-      </c>
       <c r="E19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F19" t="s">
-        <v>482</v>
-      </c>
-      <c r="G19" t="s">
-        <v>481</v>
-      </c>
-      <c r="H19" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C20" t="s">
         <v>316</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F20" t="s">
-        <v>482</v>
-      </c>
-      <c r="G20" t="s">
-        <v>481</v>
-      </c>
-      <c r="H20" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C21" t="s">
         <v>317</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F21" t="s">
-        <v>482</v>
-      </c>
-      <c r="G21" t="s">
-        <v>481</v>
-      </c>
-      <c r="H21" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C22" t="s">
         <v>318</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F22" t="s">
-        <v>482</v>
-      </c>
-      <c r="G22" t="s">
-        <v>481</v>
-      </c>
-      <c r="H22" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C23" t="s">
         <v>319</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F23" t="s">
-        <v>482</v>
-      </c>
-      <c r="G23" t="s">
-        <v>480</v>
-      </c>
-      <c r="H23" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C24" t="s">
         <v>320</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F24" t="s">
-        <v>482</v>
-      </c>
-      <c r="G24" t="s">
-        <v>480</v>
-      </c>
-      <c r="H24" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C25" t="s">
         <v>321</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F25" t="s">
-        <v>482</v>
-      </c>
-      <c r="G25" t="s">
-        <v>480</v>
-      </c>
-      <c r="H25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C26" t="s">
         <v>322</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F26" t="s">
-        <v>482</v>
-      </c>
-      <c r="G26" t="s">
-        <v>480</v>
-      </c>
-      <c r="H26" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C27" t="s">
         <v>323</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F27" t="s">
-        <v>482</v>
-      </c>
-      <c r="G27" t="s">
-        <v>480</v>
-      </c>
-      <c r="H27" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C28" t="s">
         <v>164</v>
@@ -21236,24 +21076,18 @@
         <v>163</v>
       </c>
       <c r="E28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F28" t="s">
-        <v>482</v>
-      </c>
-      <c r="G28" t="s">
-        <v>440</v>
-      </c>
-      <c r="H28" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C29" t="s">
         <v>168</v>
@@ -21262,536 +21096,410 @@
         <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F29" t="s">
-        <v>482</v>
-      </c>
-      <c r="G29" t="s">
-        <v>480</v>
-      </c>
-      <c r="H29" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C30" t="s">
         <v>171</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F30" t="s">
-        <v>482</v>
-      </c>
-      <c r="G30" t="s">
-        <v>440</v>
-      </c>
-      <c r="H30" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C31" t="s">
         <v>173</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F31" t="s">
-        <v>482</v>
-      </c>
-      <c r="G31" t="s">
-        <v>480</v>
-      </c>
-      <c r="H31" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>169</v>
       </c>
       <c r="E32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F32" t="s">
-        <v>482</v>
-      </c>
-      <c r="G32" t="s">
-        <v>481</v>
-      </c>
-      <c r="H32" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C33" t="s">
         <v>143</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F33" t="s">
-        <v>482</v>
-      </c>
-      <c r="G33" t="s">
-        <v>440</v>
-      </c>
-      <c r="H33" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C34" t="s">
         <v>148</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F34" t="s">
-        <v>482</v>
-      </c>
-      <c r="G34" t="s">
-        <v>440</v>
-      </c>
-      <c r="H34" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C35" t="s">
         <v>151</v>
       </c>
       <c r="D35" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" t="s">
+        <v>435</v>
+      </c>
+      <c r="F35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C36" t="s">
+        <v>429</v>
+      </c>
+      <c r="D36" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="E35" t="s">
-        <v>436</v>
-      </c>
-      <c r="F35" t="s">
-        <v>482</v>
-      </c>
-      <c r="G35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H35" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>339</v>
-      </c>
-      <c r="B36" t="s">
-        <v>332</v>
-      </c>
-      <c r="C36" t="s">
-        <v>430</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>473</v>
-      </c>
       <c r="E36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F36" t="s">
-        <v>482</v>
-      </c>
-      <c r="G36" t="s">
-        <v>440</v>
-      </c>
-      <c r="H36" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C37" t="s">
         <v>159</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F37" t="s">
-        <v>482</v>
-      </c>
-      <c r="G37" t="s">
-        <v>440</v>
-      </c>
-      <c r="H37" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C38" t="s">
         <v>162</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F38" t="s">
-        <v>482</v>
-      </c>
-      <c r="G38" t="s">
-        <v>440</v>
-      </c>
-      <c r="H38" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C39" t="s">
         <v>131</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F39" t="s">
         <v>482</v>
       </c>
-      <c r="G39" t="s">
-        <v>485</v>
-      </c>
-      <c r="H39" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C40" t="s">
         <v>154</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F40" t="s">
-        <v>482</v>
-      </c>
-      <c r="G40" t="s">
-        <v>440</v>
-      </c>
-      <c r="H40" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C41" t="s">
         <v>138</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G41" t="s">
-        <v>440</v>
-      </c>
-      <c r="H41" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C42" t="s">
         <v>136</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G42" t="s">
-        <v>481</v>
-      </c>
-      <c r="H42" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C43" t="s">
         <v>324</v>
       </c>
       <c r="D43" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="E43" t="s">
+        <v>435</v>
+      </c>
+      <c r="F43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>340</v>
+      </c>
+      <c r="B44" t="s">
+        <v>427</v>
+      </c>
+      <c r="C44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D44" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="E43" t="s">
-        <v>436</v>
-      </c>
-      <c r="F43" t="s">
-        <v>428</v>
-      </c>
-      <c r="G43" t="s">
-        <v>440</v>
-      </c>
-      <c r="H43" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>341</v>
-      </c>
-      <c r="B44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C44" t="s">
-        <v>429</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>442</v>
-      </c>
       <c r="E44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F44" t="s">
-        <v>428</v>
-      </c>
-      <c r="G44" t="s">
-        <v>440</v>
-      </c>
-      <c r="H44" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C45" t="s">
         <v>325</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F45" t="s">
-        <v>428</v>
-      </c>
-      <c r="G45" t="s">
-        <v>440</v>
-      </c>
-      <c r="H45" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C46" t="s">
         <v>326</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F46" t="s">
-        <v>428</v>
-      </c>
-      <c r="G46" t="s">
-        <v>440</v>
-      </c>
-      <c r="H46" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C47" t="s">
         <v>108</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F47" t="s">
-        <v>428</v>
-      </c>
-      <c r="G47" t="s">
-        <v>439</v>
-      </c>
-      <c r="H47" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C48" t="s">
         <v>106</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F48" t="s">
-        <v>428</v>
-      </c>
-      <c r="G48" t="s">
-        <v>440</v>
-      </c>
-      <c r="H48" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C49" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F49" t="s">
-        <v>428</v>
-      </c>
-      <c r="G49" t="s">
-        <v>440</v>
-      </c>
-      <c r="H49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -21818,7 +21526,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>79</v>
@@ -21827,30 +21535,30 @@
         <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
         <v>201</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D2" s="11">
         <v>4.0000000000000002E-4</v>
@@ -21862,7 +21570,7 @@
         <v>1.4E-3</v>
       </c>
       <c r="G2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H2" s="20" t="b">
         <f>AND(D2&gt;=E2, D2&lt;=F2)</f>
@@ -21871,13 +21579,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
         <v>204</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D3" s="11">
         <v>8.0000000000000004E-4</v>
@@ -21889,7 +21597,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H3" s="20" t="b">
         <f>AND(D3&gt;=E3, D3&lt;=F3)</f>
@@ -21898,13 +21606,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
         <v>206</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D4" s="11">
         <v>1.1000000000000001E-3</v>
@@ -21916,7 +21624,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H4" s="20" t="b">
         <f>AND(D4&gt;=E4, D4&lt;=F4)</f>
@@ -21925,13 +21633,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
         <v>208</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D5" s="11">
         <v>1.38E-2</v>
@@ -21943,7 +21651,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H5" s="20" t="b">
         <f>AND(D5&gt;=E5, D5&lt;=F5)</f>
@@ -21952,13 +21660,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
         <v>210</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D6" s="11">
         <v>8.0000000000000002E-3</v>
@@ -21970,7 +21678,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H6" s="20" t="b">
         <f>AND(D6&gt;=E6, D6&lt;=F6)</f>
@@ -21979,13 +21687,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
         <v>212</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D7" s="11">
         <v>0.36699999999999999</v>
@@ -21997,7 +21705,7 @@
         <v>0.44</v>
       </c>
       <c r="G7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H7" s="20" t="b">
         <f>AND(D7&gt;=E7, D7&lt;=F7)</f>
@@ -22006,13 +21714,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
         <v>214</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D8" s="11">
         <v>0.20499999999999999</v>
@@ -22024,7 +21732,7 @@
         <v>0.27</v>
       </c>
       <c r="G8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H8" s="20" t="b">
         <f>AND(D8&gt;=E8, D8&lt;=F8)</f>
@@ -22033,13 +21741,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D9">
         <v>5.6</v>
@@ -22051,7 +21759,7 @@
         <v>9.1</v>
       </c>
       <c r="G9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H9" s="20" t="b">
         <f>AND(D9&gt;=E9, D9&lt;=F9)</f>
@@ -22060,13 +21768,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -22078,7 +21786,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H10" s="20" t="b">
         <f>AND(D10&gt;=E10, D10&lt;=F10)</f>
@@ -22087,13 +21795,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -22105,7 +21813,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H11" s="20" t="b">
         <f>AND(D11&gt;=E11, D11&lt;=F11)</f>
@@ -22114,13 +21822,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -22132,7 +21840,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H12" s="20" t="b">
         <f>AND(D12&gt;=E12, D12&lt;=F12)</f>
@@ -22141,13 +21849,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13">
         <v>3.49</v>
@@ -22159,7 +21867,7 @@
         <v>6.92</v>
       </c>
       <c r="G13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H13" s="20" t="b">
         <f>AND(D13&gt;=E13, D13&lt;=F13)</f>
@@ -22168,13 +21876,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D14">
         <v>7.17</v>
@@ -22186,7 +21894,7 @@
         <v>12.08</v>
       </c>
       <c r="G14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H14" s="20" t="b">
         <f>AND(D14&gt;=E14, D14&lt;=F14)</f>
@@ -22195,13 +21903,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D15">
         <v>0.24</v>
@@ -22213,7 +21921,7 @@
         <v>0.5</v>
       </c>
       <c r="G15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H15" s="20" t="b">
         <f>AND(D15&gt;=E15, D15&lt;=F15)</f>
@@ -22222,13 +21930,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D16">
         <v>0.95</v>
@@ -22240,7 +21948,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="G16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H16" s="20" t="b">
         <f>AND(D16&gt;=E16, D16&lt;=F16)</f>
@@ -22249,13 +21957,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -22267,7 +21975,7 @@
         <v>3.16</v>
       </c>
       <c r="G17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H17" s="20" t="b">
         <f>AND(D17&gt;=E17, D17&lt;=F17)</f>
@@ -22276,13 +21984,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D18">
         <v>3.74</v>
@@ -22294,7 +22002,7 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H18" s="20" t="b">
         <f>AND(D18&gt;=E18, D18&lt;=F18)</f>
@@ -22303,13 +22011,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D19">
         <v>1.5</v>
@@ -22321,7 +22029,7 @@
         <v>2.25</v>
       </c>
       <c r="G19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H19" s="20" t="b">
         <f>AND(D19&gt;=E19, D19&lt;=F19)</f>
@@ -22330,13 +22038,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D20">
         <v>2.2000000000000002</v>
@@ -22348,7 +22056,7 @@
         <v>7.28</v>
       </c>
       <c r="G20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H20" s="20" t="b">
         <f>AND(D20&gt;=E20, D20&lt;=F20)</f>
@@ -22357,13 +22065,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D21">
         <v>1.42</v>
@@ -22375,7 +22083,7 @@
         <v>3.42</v>
       </c>
       <c r="G21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H21" s="20" t="b">
         <f>AND(D21&gt;=E21, D21&lt;=F21)</f>
@@ -22384,13 +22092,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D22">
         <v>2.14</v>
@@ -22402,7 +22110,7 @@
         <v>3.58</v>
       </c>
       <c r="G22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H22" s="20" t="b">
         <f>AND(D22&gt;=E22, D22&lt;=F22)</f>
@@ -22411,13 +22119,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D23">
         <v>0.66</v>
@@ -22429,7 +22137,7 @@
         <v>0.94</v>
       </c>
       <c r="G23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H23" s="20" t="b">
         <f>AND(D23&gt;=E23, D23&lt;=F23)</f>
@@ -22438,7 +22146,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>248</v>
@@ -22456,7 +22164,7 @@
         <v>0.3</v>
       </c>
       <c r="G24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H24" s="20" t="b">
         <f>AND(D24&gt;=E24, D24&lt;=F24)</f>
@@ -22465,13 +22173,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -22483,7 +22191,7 @@
         <v>2.5</v>
       </c>
       <c r="G25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H25" s="20" t="b">
         <f>AND(D25&gt;=E25, D25&lt;=F25)</f>
@@ -22492,13 +22200,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D26" s="11">
         <v>2.5999999999999999E-2</v>
@@ -22510,7 +22218,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="G26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H26" s="20" t="b">
         <f>AND(D26&gt;=E26, D26&lt;=F26)</f>
@@ -22519,13 +22227,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D27" s="11">
         <v>0.15</v>
@@ -22537,7 +22245,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="G27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H27" s="20" t="b">
         <f>AND(D27&gt;=E27, D27&lt;=F27)</f>
@@ -22546,13 +22254,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D28" s="11">
         <v>0.1</v>
@@ -22564,7 +22272,7 @@
         <v>0.87</v>
       </c>
       <c r="G28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H28" s="20" t="b">
         <f>AND(D28&gt;=E28, D28&lt;=F28)</f>
@@ -22573,13 +22281,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D29" s="11">
         <v>5.2999999999999999E-2</v>
@@ -22591,7 +22299,7 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="G29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H29" s="20" t="b">
         <f>AND(D29&gt;=E29, D29&lt;=F29)</f>
@@ -22600,13 +22308,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D30" s="11">
         <v>0.16200000000000001</v>
@@ -22618,7 +22326,7 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H30" s="20" t="b">
         <f>AND(D30&gt;=E30, D30&lt;=F30)</f>
@@ -22627,13 +22335,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D31" s="11">
         <v>0.11700000000000001</v>
@@ -22645,7 +22353,7 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="G31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H31" s="20" t="b">
         <f>AND(D31&gt;=E31, D31&lt;=F31)</f>
@@ -22654,13 +22362,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D32" s="11">
         <v>0.09</v>
@@ -22672,7 +22380,7 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="G32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H32" s="20" t="b">
         <f>AND(D32&gt;=E32, D32&lt;=F32)</f>
@@ -22681,13 +22389,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D33" s="11">
         <v>0.111</v>
@@ -22699,7 +22407,7 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="G33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H33" s="20" t="b">
         <f>AND(D33&gt;=E33, D33&lt;=F33)</f>
@@ -22708,7 +22416,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>266</v>
@@ -22726,7 +22434,7 @@
         <v>0.26</v>
       </c>
       <c r="G34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H34" s="20" t="b">
         <f>AND(D34&gt;=E34, D34&lt;=F34)</f>
@@ -22735,13 +22443,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D35" s="11">
         <v>3.5999999999999999E-3</v>
@@ -22753,7 +22461,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="G35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H35" s="20" t="b">
         <f>AND(D35&gt;=E35, D35&lt;=F35)</f>
@@ -22762,13 +22470,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D36" s="11">
         <v>3.5999999999999999E-3</v>
@@ -22780,7 +22488,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="G36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H36" s="20" t="b">
         <f>AND(D36&gt;=E36, D36&lt;=F36)</f>
@@ -22789,13 +22497,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D37" s="11">
         <v>5.7999999999999996E-3</v>
@@ -22807,7 +22515,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="G37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H37" s="20" t="b">
         <f>AND(D37&gt;=E37, D37&lt;=F37)</f>
@@ -22816,13 +22524,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D38" s="11">
         <v>8.8000000000000005E-3</v>
@@ -22834,7 +22542,7 @@
         <v>1.01E-2</v>
       </c>
       <c r="G38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H38" s="20" t="b">
         <f>AND(D38&gt;=E38, D38&lt;=F38)</f>
@@ -22843,13 +22551,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D39" s="11">
         <v>5.8999999999999997E-2</v>
@@ -22861,7 +22569,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H39" s="20" t="b">
         <f>AND(D39&gt;=E39, D39&lt;=F39)</f>
@@ -22870,13 +22578,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D40" s="11">
         <v>0.32300000000000001</v>
@@ -22888,7 +22596,7 @@
         <v>0.432</v>
       </c>
       <c r="G40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H40" s="20" t="b">
         <f>AND(D40&gt;=E40, D40&lt;=F40)</f>
@@ -22897,13 +22605,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D41" s="11">
         <v>0.23</v>
@@ -22915,7 +22623,7 @@
         <v>0.3</v>
       </c>
       <c r="G41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H41" s="20" t="b">
         <f>AND(D41&gt;=E41, D41&lt;=F41)</f>
@@ -22924,13 +22632,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D42" s="11">
         <v>0.48780000000000001</v>
@@ -22942,7 +22650,7 @@
         <v>0.8417</v>
       </c>
       <c r="G42" t="s">
-        <v>434</v>
+  